--- a/data/split_data/2019/2019-TWS-Splits-Download.xlsx
+++ b/data/split_data/2019/2019-TWS-Splits-Download.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krist\Documents\TWS 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\J Hulin\Documents\Projects\rate_calculatior\data\split_data\2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78FCF232-E21D-455C-8240-9E7C0F9813C3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD41975F-AC9B-470E-8338-DF8F5BA7FE6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{8516D18C-7938-4B94-8046-F19A0BD4E03E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{8516D18C-7938-4B94-8046-F19A0BD4E03E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -86,9 +80,6 @@
   </si>
   <si>
     <t>Hochheim</t>
-  </si>
-  <si>
-    <t>Cuero 766</t>
   </si>
   <si>
     <t>Cuero 236</t>
@@ -1618,6 +1609,9 @@
 TC Fallon Hopper
 TC Tara Pustejovsky</t>
   </si>
+  <si>
+    <t>Cheapside</t>
+  </si>
 </sst>
 </file>
 
@@ -2118,36 +2112,36 @@
       <pane xSplit="4" ySplit="7" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17.7" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="15" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.71875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.71875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.27734375" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="4.44140625" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" customWidth="1"/>
-    <col min="8" max="8" width="4.44140625" customWidth="1"/>
-    <col min="9" max="9" width="8.83203125" customWidth="1"/>
-    <col min="10" max="10" width="4.44140625" customWidth="1"/>
-    <col min="11" max="11" width="9.5546875" customWidth="1"/>
-    <col min="12" max="12" width="4.44140625" customWidth="1"/>
-    <col min="13" max="13" width="8.83203125" customWidth="1"/>
-    <col min="14" max="14" width="4.44140625" customWidth="1"/>
-    <col min="15" max="15" width="8.83203125" customWidth="1"/>
-    <col min="16" max="16" width="4.44140625" customWidth="1"/>
-    <col min="18" max="18" width="4.44140625" customWidth="1"/>
-    <col min="20" max="20" width="4.44140625" customWidth="1"/>
-    <col min="22" max="22" width="4.44140625" customWidth="1"/>
-    <col min="24" max="24" width="4.44140625" customWidth="1"/>
-    <col min="25" max="25" width="11.1640625" customWidth="1"/>
-    <col min="26" max="26" width="4.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" customWidth="1"/>
+    <col min="8" max="8" width="4.42578125" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" customWidth="1"/>
+    <col min="10" max="10" width="4.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" customWidth="1"/>
+    <col min="12" max="12" width="4.42578125" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" customWidth="1"/>
+    <col min="14" max="14" width="4.42578125" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" customWidth="1"/>
+    <col min="16" max="16" width="4.42578125" customWidth="1"/>
+    <col min="18" max="18" width="4.42578125" customWidth="1"/>
+    <col min="20" max="20" width="4.42578125" customWidth="1"/>
+    <col min="22" max="22" width="4.42578125" customWidth="1"/>
+    <col min="24" max="24" width="4.42578125" customWidth="1"/>
+    <col min="25" max="25" width="11.140625" customWidth="1"/>
+    <col min="26" max="26" width="4.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="D1" s="3"/>
@@ -2180,7 +2174,7 @@
       <c r="AC1" s="3"/>
       <c r="AD1" s="3"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="D2" s="3"/>
@@ -2211,7 +2205,7 @@
       <c r="AC2" s="3"/>
       <c r="AD2" s="3"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="D3" s="3"/>
@@ -2244,7 +2238,7 @@
       <c r="AC3" s="3"/>
       <c r="AD3" s="3"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="D4" s="3"/>
@@ -2281,7 +2275,7 @@
       <c r="AC4" s="3"/>
       <c r="AD4" s="3"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="D5" s="3"/>
@@ -2318,7 +2312,7 @@
       <c r="AC5" s="3"/>
       <c r="AD5" s="3"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="D6" s="3"/>
@@ -2355,7 +2349,7 @@
       <c r="AC6" s="3"/>
       <c r="AD6" s="3"/>
     </row>
-    <row r="7" spans="1:32" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:32" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -2390,27 +2384,27 @@
       </c>
       <c r="O7" s="36"/>
       <c r="P7" s="36" t="s">
-        <v>17</v>
+        <v>352</v>
       </c>
       <c r="Q7" s="36"/>
       <c r="R7" s="36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S7" s="36"/>
       <c r="T7" s="36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U7" s="36"/>
       <c r="V7" s="37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W7" s="37"/>
       <c r="X7" s="37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y7" s="37"/>
       <c r="Z7" s="36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA7" s="36"/>
       <c r="AB7" s="14"/>
@@ -2419,15 +2413,15 @@
       <c r="AE7" s="14"/>
       <c r="AF7" s="14"/>
     </row>
-    <row r="8" spans="1:32" ht="98.4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:32" ht="102" x14ac:dyDescent="0.2">
       <c r="A8" s="15">
         <v>1</v>
       </c>
       <c r="B8" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>24</v>
       </c>
       <c r="D8" s="18">
         <v>150</v>
@@ -2502,7 +2496,7 @@
         <v>0.81041666666666667</v>
       </c>
     </row>
-    <row r="9" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="22"/>
       <c r="D9" s="18"/>
       <c r="F9" s="8">
@@ -2572,7 +2566,7 @@
         <v>0.11458333333333337</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="23"/>
       <c r="D10" s="18"/>
       <c r="F10" s="8">
@@ -2642,7 +2636,7 @@
         <v>1.4354166666666668</v>
       </c>
     </row>
-    <row r="11" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="22"/>
       <c r="D11" s="18"/>
       <c r="F11" s="8"/>
@@ -2668,15 +2662,15 @@
       <c r="Z11" s="8"/>
       <c r="AA11" s="21"/>
     </row>
-    <row r="12" spans="1:32" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:32" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="15">
         <v>2</v>
       </c>
       <c r="B12" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>25</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>26</v>
       </c>
       <c r="D12" s="18">
         <v>2</v>
@@ -2751,7 +2745,7 @@
         <v>0.8305555555555556</v>
       </c>
     </row>
-    <row r="13" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="23"/>
       <c r="D13" s="18"/>
       <c r="F13" s="8">
@@ -2821,7 +2815,7 @@
         <v>0.10555555555555562</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="23"/>
       <c r="C14" s="24"/>
       <c r="D14" s="18"/>
@@ -2892,7 +2886,7 @@
         <v>1.4555555555555555</v>
       </c>
     </row>
-    <row r="15" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="23"/>
       <c r="C15" s="24"/>
       <c r="D15" s="18"/>
@@ -2919,15 +2913,15 @@
       <c r="Z15" s="8"/>
       <c r="AA15" s="21"/>
     </row>
-    <row r="16" spans="1:32" ht="110.7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:32" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A16" s="15">
         <v>3</v>
       </c>
       <c r="B16" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>27</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>28</v>
       </c>
       <c r="D16" s="18">
         <v>513</v>
@@ -3002,7 +2996,7 @@
         <v>0.85416666666666663</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="23"/>
       <c r="D17" s="18"/>
       <c r="F17" s="8">
@@ -3072,7 +3066,7 @@
         <v>0.11875000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="23"/>
       <c r="D18" s="18"/>
       <c r="F18" s="8">
@@ -3142,7 +3136,7 @@
         <v>1.4791666666666665</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="23"/>
       <c r="D19" s="18"/>
       <c r="F19" s="8"/>
@@ -3168,15 +3162,15 @@
       <c r="Z19" s="8"/>
       <c r="AA19" s="21"/>
     </row>
-    <row r="20" spans="1:27" ht="73.8" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:27" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A20" s="15">
         <v>4</v>
       </c>
       <c r="B20" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="17" t="s">
         <v>29</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>30</v>
       </c>
       <c r="D20" s="18">
         <v>40</v>
@@ -3251,7 +3245,7 @@
         <v>0.93819444444444444</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="23"/>
       <c r="C21" s="24"/>
       <c r="D21" s="18"/>
@@ -3322,7 +3316,7 @@
         <v>0.11527777777777781</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="23"/>
       <c r="C22" s="24"/>
       <c r="D22" s="18"/>
@@ -3393,7 +3387,7 @@
         <v>1.5631944444444443</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="23"/>
       <c r="F23" s="8"/>
       <c r="G23" s="21"/>
@@ -3418,15 +3412,15 @@
       <c r="Z23" s="8"/>
       <c r="AA23" s="21"/>
     </row>
-    <row r="24" spans="1:27" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A24" s="15">
         <v>5</v>
       </c>
       <c r="B24" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="17" t="s">
         <v>31</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>32</v>
       </c>
       <c r="D24" s="18">
         <v>121</v>
@@ -3501,7 +3495,7 @@
         <v>0.97638888888888886</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="22"/>
       <c r="C25" s="24"/>
       <c r="D25" s="18"/>
@@ -3572,7 +3566,7 @@
         <v>0.11805555555555547</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="22"/>
       <c r="D26" s="18"/>
       <c r="F26" s="8">
@@ -3642,7 +3636,7 @@
         <v>1.6013888888888888</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="16"/>
       <c r="C27" s="24"/>
       <c r="D27" s="18"/>
@@ -3670,15 +3664,15 @@
       <c r="Z27" s="8"/>
       <c r="AA27" s="21"/>
     </row>
-    <row r="28" spans="1:27" ht="86.1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:27" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A28" s="15">
         <v>6</v>
       </c>
       <c r="B28" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="17" t="s">
         <v>33</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>34</v>
       </c>
       <c r="D28" s="18">
         <v>357</v>
@@ -3753,7 +3747,7 @@
         <v>0.98125000000000007</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="22"/>
       <c r="C29" s="24"/>
       <c r="D29" s="18"/>
@@ -3824,7 +3818,7 @@
         <v>0.1131944444444446</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="22"/>
       <c r="D30" s="18"/>
       <c r="F30" s="8">
@@ -3894,7 +3888,7 @@
         <v>1.60625</v>
       </c>
     </row>
-    <row r="31" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="16"/>
       <c r="C31" s="24"/>
       <c r="D31" s="18"/>
@@ -3922,15 +3916,15 @@
       <c r="Z31" s="8"/>
       <c r="AA31" s="21"/>
     </row>
-    <row r="32" spans="1:27" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A32" s="15">
         <v>7</v>
       </c>
       <c r="B32" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="17" t="s">
         <v>35</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>36</v>
       </c>
       <c r="D32" s="18">
         <v>7279</v>
@@ -4005,7 +3999,7 @@
         <v>2.7777777777777779E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="22"/>
       <c r="C33" s="24"/>
       <c r="D33" s="18"/>
@@ -4076,7 +4070,7 @@
         <v>0.12222222222222223</v>
       </c>
     </row>
-    <row r="34" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="22"/>
       <c r="D34" s="18"/>
       <c r="F34" s="8">
@@ -4146,7 +4140,7 @@
         <v>1.6277777777777778</v>
       </c>
     </row>
-    <row r="35" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="16"/>
       <c r="C35" s="24"/>
       <c r="D35" s="18"/>
@@ -4174,15 +4168,15 @@
       <c r="Z35" s="8"/>
       <c r="AA35" s="21"/>
     </row>
-    <row r="36" spans="1:27" ht="86.1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:27" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A36" s="15">
         <v>8</v>
       </c>
       <c r="B36" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="17" t="s">
         <v>37</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>38</v>
       </c>
       <c r="D36" s="18">
         <v>3737</v>
@@ -4257,7 +4251,7 @@
         <v>4.9305555555555554E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="22"/>
       <c r="C37" s="24"/>
       <c r="D37" s="18"/>
@@ -4328,7 +4322,7 @@
         <v>0.1347222222222223</v>
       </c>
     </row>
-    <row r="38" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="22"/>
       <c r="D38" s="18"/>
       <c r="F38" s="8">
@@ -4398,7 +4392,7 @@
         <v>1.6743055555555557</v>
       </c>
     </row>
-    <row r="39" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="16"/>
       <c r="C39" s="24"/>
       <c r="D39" s="18"/>
@@ -4426,15 +4420,15 @@
       <c r="Z39" s="8"/>
       <c r="AA39" s="21"/>
     </row>
-    <row r="40" spans="1:27" ht="119.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:27" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="15">
         <v>9</v>
       </c>
       <c r="B40" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="18" t="s">
         <v>39</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>40</v>
       </c>
       <c r="D40" s="18">
         <v>807</v>
@@ -4509,7 +4503,7 @@
         <v>6.0416666666666667E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="22"/>
       <c r="D41" s="18"/>
       <c r="F41" s="8">
@@ -4579,7 +4573,7 @@
         <v>0.12222222222222223</v>
       </c>
     </row>
-    <row r="42" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="23"/>
       <c r="D42" s="18"/>
       <c r="F42" s="8">
@@ -4649,7 +4643,7 @@
         <v>1.6854166666666668</v>
       </c>
     </row>
-    <row r="43" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="22"/>
       <c r="D43" s="18"/>
       <c r="F43" s="8"/>
@@ -4675,15 +4669,15 @@
       <c r="Z43" s="8"/>
       <c r="AA43" s="21"/>
     </row>
-    <row r="44" spans="1:27" ht="98.4" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:27" ht="102" x14ac:dyDescent="0.2">
       <c r="A44" s="15">
         <v>10</v>
       </c>
       <c r="B44" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="18" t="s">
         <v>41</v>
-      </c>
-      <c r="C44" s="18" t="s">
-        <v>42</v>
       </c>
       <c r="D44" s="18">
         <v>1115</v>
@@ -4758,7 +4752,7 @@
         <v>8.8888888888888892E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="23"/>
       <c r="D45" s="18"/>
       <c r="F45" s="8">
@@ -4828,7 +4822,7 @@
         <v>0.13958333333333328</v>
       </c>
     </row>
-    <row r="46" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="23"/>
       <c r="C46" s="24"/>
       <c r="D46" s="18"/>
@@ -4899,7 +4893,7 @@
         <v>1.713888888888889</v>
       </c>
     </row>
-    <row r="47" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="23"/>
       <c r="F47" s="8"/>
       <c r="G47" s="21"/>
@@ -4924,15 +4918,15 @@
       <c r="Z47" s="8"/>
       <c r="AA47" s="21"/>
     </row>
-    <row r="48" spans="1:27" ht="86.1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:27" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A48" s="15">
         <v>11</v>
       </c>
       <c r="B48" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C48" s="18" t="s">
         <v>43</v>
-      </c>
-      <c r="C48" s="18" t="s">
-        <v>44</v>
       </c>
       <c r="D48" s="18">
         <v>535</v>
@@ -5007,7 +5001,7 @@
         <v>0.11527777777777777</v>
       </c>
     </row>
-    <row r="49" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="23"/>
       <c r="D49" s="18"/>
       <c r="F49" s="8">
@@ -5077,7 +5071,7 @@
         <v>0.15138888888888891</v>
       </c>
     </row>
-    <row r="50" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="23"/>
       <c r="D50" s="18"/>
       <c r="F50" s="8">
@@ -5147,7 +5141,7 @@
         <v>1.740277777777778</v>
       </c>
     </row>
-    <row r="51" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="23"/>
       <c r="C51" s="24"/>
       <c r="D51" s="18"/>
@@ -5174,15 +5168,15 @@
       <c r="Z51" s="8"/>
       <c r="AA51" s="21"/>
     </row>
-    <row r="52" spans="1:27" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A52" s="15">
         <v>12</v>
       </c>
       <c r="B52" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" s="17" t="s">
         <v>45</v>
-      </c>
-      <c r="C52" s="17" t="s">
-        <v>46</v>
       </c>
       <c r="D52" s="18">
         <v>97</v>
@@ -5257,7 +5251,7 @@
         <v>0.11597222222222221</v>
       </c>
     </row>
-    <row r="53" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D53" s="18"/>
       <c r="F53" s="8">
         <v>17</v>
@@ -5326,7 +5320,7 @@
         <v>0.14930555555555558</v>
       </c>
     </row>
-    <row r="54" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C54" s="24"/>
       <c r="D54" s="18"/>
       <c r="F54" s="8">
@@ -5396,7 +5390,7 @@
         <v>1.7409722222222221</v>
       </c>
     </row>
-    <row r="55" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F55" s="8"/>
       <c r="G55" s="21"/>
       <c r="H55" s="8"/>
@@ -5420,15 +5414,15 @@
       <c r="Z55" s="8"/>
       <c r="AA55" s="21"/>
     </row>
-    <row r="56" spans="1:27" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A56" s="15">
         <v>13</v>
       </c>
       <c r="B56" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C56" s="17" t="s">
         <v>47</v>
-      </c>
-      <c r="C56" s="17" t="s">
-        <v>48</v>
       </c>
       <c r="D56" s="18">
         <v>7880</v>
@@ -5503,7 +5497,7 @@
         <v>0.17222222222222225</v>
       </c>
     </row>
-    <row r="57" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="22"/>
       <c r="C57" s="24"/>
       <c r="D57" s="18"/>
@@ -5574,7 +5568,7 @@
         <v>0.1340277777777778</v>
       </c>
     </row>
-    <row r="58" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="22"/>
       <c r="D58" s="18"/>
       <c r="F58" s="8">
@@ -5644,7 +5638,7 @@
         <v>1.7972222222222221</v>
       </c>
     </row>
-    <row r="59" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="16"/>
       <c r="C59" s="24"/>
       <c r="D59" s="18"/>
@@ -5672,15 +5666,15 @@
       <c r="Z59" s="8"/>
       <c r="AA59" s="21"/>
     </row>
-    <row r="60" spans="1:27" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:27" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A60" s="15">
         <v>14</v>
       </c>
       <c r="B60" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C60" s="18" t="s">
         <v>49</v>
-      </c>
-      <c r="C60" s="18" t="s">
-        <v>50</v>
       </c>
       <c r="D60" s="18">
         <v>527</v>
@@ -5755,7 +5749,7 @@
         <v>0.17361111111111113</v>
       </c>
     </row>
-    <row r="61" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="23"/>
       <c r="C61" s="28"/>
       <c r="D61" s="18"/>
@@ -5826,7 +5820,7 @@
         <v>0.16180555555555559</v>
       </c>
     </row>
-    <row r="62" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="23"/>
       <c r="C62" s="28"/>
       <c r="D62" s="18"/>
@@ -5897,7 +5891,7 @@
         <v>1.7986111111111112</v>
       </c>
     </row>
-    <row r="63" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="23"/>
       <c r="F63" s="8"/>
       <c r="G63" s="21"/>
@@ -5922,15 +5916,15 @@
       <c r="Z63" s="8"/>
       <c r="AA63" s="21"/>
     </row>
-    <row r="64" spans="1:27" ht="61.5" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:27" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A64" s="15">
         <v>15</v>
       </c>
       <c r="B64" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C64" s="17" t="s">
         <v>51</v>
-      </c>
-      <c r="C64" s="17" t="s">
-        <v>52</v>
       </c>
       <c r="D64" s="18">
         <v>1959</v>
@@ -6005,7 +5999,7 @@
         <v>0.18402777777777779</v>
       </c>
     </row>
-    <row r="65" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="23"/>
       <c r="D65" s="18"/>
       <c r="F65" s="8">
@@ -6075,7 +6069,7 @@
         <v>0.1138888888888889</v>
       </c>
     </row>
-    <row r="66" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="23"/>
       <c r="C66" s="24"/>
       <c r="D66" s="18"/>
@@ -6146,7 +6140,7 @@
         <v>1.8090277777777777</v>
       </c>
     </row>
-    <row r="67" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="23"/>
       <c r="C67" s="24"/>
       <c r="D67" s="18"/>
@@ -6173,15 +6167,15 @@
       <c r="Z67" s="8"/>
       <c r="AA67" s="21"/>
     </row>
-    <row r="68" spans="1:27" ht="73.8" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:27" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A68" s="15">
         <v>16</v>
       </c>
       <c r="B68" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C68" s="17" t="s">
         <v>53</v>
-      </c>
-      <c r="C68" s="17" t="s">
-        <v>54</v>
       </c>
       <c r="D68" s="18">
         <v>159</v>
@@ -6256,7 +6250,7 @@
         <v>0.21875</v>
       </c>
     </row>
-    <row r="69" spans="1:27" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B69" s="23"/>
       <c r="D69" s="18"/>
       <c r="F69" s="8">
@@ -6326,7 +6320,7 @@
         <v>0.13472222222222224</v>
       </c>
     </row>
-    <row r="70" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="23"/>
       <c r="D70" s="18"/>
       <c r="F70" s="8">
@@ -6396,7 +6390,7 @@
         <v>1.84375</v>
       </c>
     </row>
-    <row r="71" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="23"/>
       <c r="D71" s="18"/>
       <c r="F71" s="8"/>
@@ -6422,15 +6416,15 @@
       <c r="Z71" s="8"/>
       <c r="AA71" s="21"/>
     </row>
-    <row r="72" spans="1:27" ht="86.1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:27" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A72" s="15">
         <v>17</v>
       </c>
       <c r="B72" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C72" s="18" t="s">
         <v>55</v>
-      </c>
-      <c r="C72" s="18" t="s">
-        <v>56</v>
       </c>
       <c r="D72" s="18">
         <v>418</v>
@@ -6505,7 +6499,7 @@
         <v>0.22916666666666666</v>
       </c>
     </row>
-    <row r="73" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="23"/>
       <c r="D73" s="18"/>
       <c r="F73" s="8">
@@ -6575,7 +6569,7 @@
         <v>0.15694444444444444</v>
       </c>
     </row>
-    <row r="74" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="23"/>
       <c r="D74" s="18"/>
       <c r="F74" s="8">
@@ -6645,7 +6639,7 @@
         <v>1.8541666666666665</v>
       </c>
     </row>
-    <row r="75" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="23"/>
       <c r="D75" s="18"/>
       <c r="F75" s="8"/>
@@ -6671,15 +6665,15 @@
       <c r="Z75" s="8"/>
       <c r="AA75" s="21"/>
     </row>
-    <row r="76" spans="1:27" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A76" s="15">
         <v>18</v>
       </c>
       <c r="B76" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C76" s="17" t="s">
         <v>57</v>
-      </c>
-      <c r="C76" s="17" t="s">
-        <v>58</v>
       </c>
       <c r="D76" s="18">
         <v>8387</v>
@@ -6754,7 +6748,7 @@
         <v>0.24513888888888888</v>
       </c>
     </row>
-    <row r="77" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="22"/>
       <c r="C77" s="24"/>
       <c r="D77" s="18"/>
@@ -6825,7 +6819,7 @@
         <v>0.1236111111111111</v>
       </c>
     </row>
-    <row r="78" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="22"/>
       <c r="D78" s="18"/>
       <c r="F78" s="8">
@@ -6895,7 +6889,7 @@
         <v>1.870138888888889</v>
       </c>
     </row>
-    <row r="79" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="16"/>
       <c r="C79" s="24"/>
       <c r="D79" s="18"/>
@@ -6923,15 +6917,15 @@
       <c r="Z79" s="8"/>
       <c r="AA79" s="21"/>
     </row>
-    <row r="80" spans="1:27" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A80" s="15">
         <v>19</v>
       </c>
       <c r="B80" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C80" s="17" t="s">
         <v>59</v>
-      </c>
-      <c r="C80" s="17" t="s">
-        <v>60</v>
       </c>
       <c r="D80" s="18">
         <v>1969</v>
@@ -7006,7 +7000,7 @@
         <v>0.25486111111111109</v>
       </c>
     </row>
-    <row r="81" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="22"/>
       <c r="C81" s="24"/>
       <c r="D81" s="18"/>
@@ -7077,7 +7071,7 @@
         <v>0.13958333333333334</v>
       </c>
     </row>
-    <row r="82" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="22"/>
       <c r="D82" s="18"/>
       <c r="F82" s="8">
@@ -7147,7 +7141,7 @@
         <v>1.8798611111111114</v>
       </c>
     </row>
-    <row r="83" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="16"/>
       <c r="C83" s="24"/>
       <c r="D83" s="18"/>
@@ -7175,15 +7169,15 @@
       <c r="Z83" s="8"/>
       <c r="AA83" s="21"/>
     </row>
-    <row r="84" spans="1:27" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A84" s="15">
         <v>20</v>
       </c>
       <c r="B84" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C84" s="17" t="s">
         <v>61</v>
-      </c>
-      <c r="C84" s="17" t="s">
-        <v>62</v>
       </c>
       <c r="D84" s="18">
         <v>4</v>
@@ -7258,7 +7252,7 @@
         <v>0.28263888888888888</v>
       </c>
     </row>
-    <row r="85" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="23"/>
       <c r="D85" s="18"/>
       <c r="F85" s="8">
@@ -7328,7 +7322,7 @@
         <v>0.14722222222222223</v>
       </c>
     </row>
-    <row r="86" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="22"/>
       <c r="D86" s="18"/>
       <c r="F86" s="8">
@@ -7398,7 +7392,7 @@
         <v>1.9076388888888887</v>
       </c>
     </row>
-    <row r="87" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="22"/>
       <c r="D87" s="18"/>
       <c r="F87" s="8"/>
@@ -7424,15 +7418,15 @@
       <c r="Z87" s="8"/>
       <c r="AA87" s="21"/>
     </row>
-    <row r="88" spans="1:27" ht="61.5" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:27" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A88" s="15">
         <v>21</v>
       </c>
       <c r="B88" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C88" s="17" t="s">
         <v>63</v>
-      </c>
-      <c r="C88" s="17" t="s">
-        <v>64</v>
       </c>
       <c r="D88" s="18">
         <v>123</v>
@@ -7507,7 +7501,7 @@
         <v>0.29375000000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="23"/>
       <c r="C89" s="24"/>
       <c r="D89" s="18"/>
@@ -7578,7 +7572,7 @@
         <v>0.14097222222222225</v>
       </c>
     </row>
-    <row r="90" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="23"/>
       <c r="C90" s="24"/>
       <c r="D90" s="18"/>
@@ -7649,7 +7643,7 @@
         <v>1.9187500000000002</v>
       </c>
     </row>
-    <row r="91" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="23"/>
       <c r="F91" s="8"/>
       <c r="G91" s="21"/>
@@ -7674,15 +7668,15 @@
       <c r="Z91" s="8"/>
       <c r="AA91" s="21"/>
     </row>
-    <row r="92" spans="1:27" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A92" s="15">
         <v>22</v>
       </c>
       <c r="B92" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C92" s="17" t="s">
         <v>65</v>
-      </c>
-      <c r="C92" s="17" t="s">
-        <v>66</v>
       </c>
       <c r="D92" s="18">
         <v>31</v>
@@ -7757,7 +7751,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="93" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="23"/>
       <c r="D93" s="18"/>
       <c r="F93" s="8">
@@ -7827,7 +7821,7 @@
         <v>0.13472222222222222</v>
       </c>
     </row>
-    <row r="94" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="23"/>
       <c r="C94" s="24"/>
       <c r="D94" s="18"/>
@@ -7898,7 +7892,7 @@
         <v>1.9374999999999998</v>
       </c>
     </row>
-    <row r="95" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="23"/>
       <c r="C95" s="24"/>
       <c r="D95" s="18"/>
@@ -7925,15 +7919,15 @@
       <c r="Z95" s="8"/>
       <c r="AA95" s="21"/>
     </row>
-    <row r="96" spans="1:27" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A96" s="15">
         <v>23</v>
       </c>
       <c r="B96" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C96" s="18" t="s">
         <v>67</v>
-      </c>
-      <c r="C96" s="18" t="s">
-        <v>68</v>
       </c>
       <c r="D96" s="18">
         <v>424</v>
@@ -8008,7 +8002,7 @@
         <v>0.31319444444444444</v>
       </c>
     </row>
-    <row r="97" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="23"/>
       <c r="C97" s="24"/>
       <c r="D97" s="18"/>
@@ -8079,7 +8073,7 @@
         <v>0.12847222222222221</v>
       </c>
     </row>
-    <row r="98" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="23"/>
       <c r="C98" s="24"/>
       <c r="D98" s="18"/>
@@ -8150,7 +8144,7 @@
         <v>1.9381944444444446</v>
       </c>
     </row>
-    <row r="99" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="23"/>
       <c r="F99" s="8"/>
       <c r="G99" s="21"/>
@@ -8175,15 +8169,15 @@
       <c r="Z99" s="8"/>
       <c r="AA99" s="21"/>
     </row>
-    <row r="100" spans="1:27" ht="73.8" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:27" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A100" s="15">
         <v>24</v>
       </c>
       <c r="B100" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C100" s="17" t="s">
         <v>69</v>
-      </c>
-      <c r="C100" s="17" t="s">
-        <v>70</v>
       </c>
       <c r="D100" s="18">
         <v>1929</v>
@@ -8258,7 +8252,7 @@
         <v>0.35069444444444442</v>
       </c>
     </row>
-    <row r="101" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="23"/>
       <c r="D101" s="24"/>
       <c r="F101" s="8">
@@ -8328,7 +8322,7 @@
         <v>0.11041666666666664</v>
       </c>
     </row>
-    <row r="102" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="23"/>
       <c r="C102" s="24"/>
       <c r="D102" s="18"/>
@@ -8399,7 +8393,7 @@
         <v>1.9756944444444442</v>
       </c>
     </row>
-    <row r="103" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="23"/>
       <c r="C103" s="24"/>
       <c r="D103" s="18"/>
@@ -8426,15 +8420,15 @@
       <c r="Z103" s="8"/>
       <c r="AA103" s="21"/>
     </row>
-    <row r="104" spans="1:27" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A104" s="15">
         <v>25</v>
       </c>
       <c r="B104" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C104" s="17" t="s">
         <v>71</v>
-      </c>
-      <c r="C104" s="17" t="s">
-        <v>72</v>
       </c>
       <c r="D104" s="18">
         <v>5059</v>
@@ -8509,7 +8503,7 @@
         <v>0.35486111111111113</v>
       </c>
     </row>
-    <row r="105" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="22"/>
       <c r="C105" s="24"/>
       <c r="D105" s="18"/>
@@ -8580,7 +8574,7 @@
         <v>0.14444444444444446</v>
       </c>
     </row>
-    <row r="106" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="22"/>
       <c r="D106" s="18"/>
       <c r="F106" s="8">
@@ -8650,7 +8644,7 @@
         <v>1.9798611111111108</v>
       </c>
     </row>
-    <row r="107" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="16"/>
       <c r="C107" s="24"/>
       <c r="D107" s="18"/>
@@ -8678,15 +8672,15 @@
       <c r="Z107" s="8"/>
       <c r="AA107" s="21"/>
     </row>
-    <row r="108" spans="1:27" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A108" s="15">
         <v>26</v>
       </c>
       <c r="B108" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C108" s="18" t="s">
         <v>73</v>
-      </c>
-      <c r="C108" s="18" t="s">
-        <v>74</v>
       </c>
       <c r="D108" s="18">
         <v>742</v>
@@ -8761,7 +8755,7 @@
         <v>0.35902777777777778</v>
       </c>
     </row>
-    <row r="109" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="22"/>
       <c r="C109" s="24"/>
       <c r="D109" s="18"/>
@@ -8832,7 +8826,7 @@
         <v>0.13680555555555557</v>
       </c>
     </row>
-    <row r="110" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="22"/>
       <c r="D110" s="18"/>
       <c r="F110" s="8">
@@ -8902,7 +8896,7 @@
         <v>1.9840277777777777</v>
       </c>
     </row>
-    <row r="111" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="16"/>
       <c r="C111" s="24"/>
       <c r="D111" s="18"/>
@@ -8930,15 +8924,15 @@
       <c r="Z111" s="8"/>
       <c r="AA111" s="21"/>
     </row>
-    <row r="112" spans="1:27" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A112" s="15">
         <v>27</v>
       </c>
       <c r="B112" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C112" s="18" t="s">
         <v>75</v>
-      </c>
-      <c r="C112" s="18" t="s">
-        <v>76</v>
       </c>
       <c r="D112" s="18">
         <v>470</v>
@@ -9013,7 +9007,7 @@
         <v>0.38263888888888892</v>
       </c>
     </row>
-    <row r="113" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="22"/>
       <c r="C113" s="24"/>
       <c r="D113" s="18"/>
@@ -9084,7 +9078,7 @@
         <v>0.26875000000000004</v>
       </c>
     </row>
-    <row r="114" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="22"/>
       <c r="D114" s="18"/>
       <c r="F114" s="8">
@@ -9154,7 +9148,7 @@
         <v>2.0076388888888888</v>
       </c>
     </row>
-    <row r="115" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="16"/>
       <c r="C115" s="24"/>
       <c r="D115" s="18"/>
@@ -9182,15 +9176,15 @@
       <c r="Z115" s="8"/>
       <c r="AA115" s="21"/>
     </row>
-    <row r="116" spans="1:50" ht="61.5" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:50" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A116" s="15">
         <v>28</v>
       </c>
       <c r="B116" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C116" s="18" t="s">
         <v>77</v>
-      </c>
-      <c r="C116" s="18" t="s">
-        <v>78</v>
       </c>
       <c r="D116" s="18">
         <v>963</v>
@@ -9265,7 +9259,7 @@
         <v>0.43263888888888885</v>
       </c>
     </row>
-    <row r="117" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="23"/>
       <c r="D117" s="18"/>
       <c r="F117" s="8">
@@ -9335,7 +9329,7 @@
         <v>0.18611111111111106</v>
       </c>
     </row>
-    <row r="118" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="23"/>
       <c r="C118" s="24"/>
       <c r="D118" s="18"/>
@@ -9406,7 +9400,7 @@
         <v>2.0576388888888886</v>
       </c>
     </row>
-    <row r="119" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="23"/>
       <c r="C119" s="24"/>
       <c r="D119" s="18"/>
@@ -9433,15 +9427,15 @@
       <c r="Z119" s="8"/>
       <c r="AA119" s="21"/>
     </row>
-    <row r="120" spans="1:50" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:50" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A120" s="15">
         <v>29</v>
       </c>
       <c r="B120" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C120" s="17" t="s">
         <v>79</v>
-      </c>
-      <c r="C120" s="17" t="s">
-        <v>80</v>
       </c>
       <c r="D120" s="18">
         <v>19</v>
@@ -9516,7 +9510,7 @@
         <v>0.4381944444444445</v>
       </c>
     </row>
-    <row r="121" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="23"/>
       <c r="C121" s="24"/>
       <c r="D121" s="18"/>
@@ -9587,7 +9581,7 @@
         <v>0.13541666666666674</v>
       </c>
     </row>
-    <row r="122" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="23"/>
       <c r="C122" s="24"/>
       <c r="D122" s="18"/>
@@ -9658,7 +9652,7 @@
         <v>2.0631944444444441</v>
       </c>
     </row>
-    <row r="123" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="23"/>
       <c r="F123" s="8"/>
       <c r="G123" s="21"/>
@@ -9683,15 +9677,15 @@
       <c r="Z123" s="8"/>
       <c r="AA123" s="21"/>
     </row>
-    <row r="124" spans="1:50" ht="106.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:50" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="15">
         <v>30</v>
       </c>
       <c r="B124" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C124" s="17" t="s">
         <v>81</v>
-      </c>
-      <c r="C124" s="17" t="s">
-        <v>82</v>
       </c>
       <c r="D124" s="18">
         <v>55</v>
@@ -9787,7 +9781,7 @@
       <c r="AW124" s="20"/>
       <c r="AX124" s="21"/>
     </row>
-    <row r="125" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B125" s="23"/>
       <c r="D125" s="18"/>
       <c r="F125" s="8">
@@ -9857,7 +9851,7 @@
         <v>0.13541666666666669</v>
       </c>
     </row>
-    <row r="126" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126" s="23"/>
       <c r="D126" s="18"/>
       <c r="F126" s="8">
@@ -9927,7 +9921,7 @@
         <v>2.0743055555555556</v>
       </c>
     </row>
-    <row r="127" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="23"/>
       <c r="C127" s="24"/>
       <c r="D127" s="18"/>
@@ -9954,15 +9948,15 @@
       <c r="Z127" s="8"/>
       <c r="AA127" s="21"/>
     </row>
-    <row r="128" spans="1:50" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:50" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A128" s="15">
         <v>31</v>
       </c>
       <c r="B128" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C128" s="17" t="s">
         <v>83</v>
-      </c>
-      <c r="C128" s="17" t="s">
-        <v>84</v>
       </c>
       <c r="D128" s="18">
         <v>5353</v>
@@ -10037,7 +10031,7 @@
         <v>0.45347222222222222</v>
       </c>
     </row>
-    <row r="129" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B129" s="22"/>
       <c r="C129" s="24"/>
       <c r="D129" s="18"/>
@@ -10108,7 +10102,7 @@
         <v>0.13958333333333334</v>
       </c>
     </row>
-    <row r="130" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B130" s="22"/>
       <c r="D130" s="18"/>
       <c r="F130" s="8">
@@ -10178,7 +10172,7 @@
         <v>2.0784722222222221</v>
       </c>
     </row>
-    <row r="131" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B131" s="16"/>
       <c r="C131" s="24"/>
       <c r="D131" s="18"/>
@@ -10206,15 +10200,15 @@
       <c r="Z131" s="8"/>
       <c r="AA131" s="21"/>
     </row>
-    <row r="132" spans="1:27" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A132" s="15">
         <v>32</v>
       </c>
       <c r="B132" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C132" s="17" t="s">
         <v>85</v>
-      </c>
-      <c r="C132" s="17" t="s">
-        <v>86</v>
       </c>
       <c r="D132" s="18">
         <v>8</v>
@@ -10289,7 +10283,7 @@
         <v>0.46319444444444446</v>
       </c>
     </row>
-    <row r="133" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B133" s="22"/>
       <c r="D133" s="18"/>
       <c r="F133" s="8">
@@ -10359,7 +10353,7 @@
         <v>0.13194444444444448</v>
       </c>
     </row>
-    <row r="134" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134" s="22"/>
       <c r="D134" s="18"/>
       <c r="F134" s="8">
@@ -10429,7 +10423,7 @@
         <v>2.0881944444444445</v>
       </c>
     </row>
-    <row r="135" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B135" s="22"/>
       <c r="D135" s="18"/>
       <c r="F135" s="8"/>
@@ -10455,15 +10449,15 @@
       <c r="Z135" s="8"/>
       <c r="AA135" s="21"/>
     </row>
-    <row r="136" spans="1:27" ht="73.8" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:27" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A136" s="15">
         <v>33</v>
       </c>
       <c r="B136" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C136" s="18" t="s">
         <v>87</v>
-      </c>
-      <c r="C136" s="18" t="s">
-        <v>88</v>
       </c>
       <c r="D136" s="18">
         <v>1213</v>
@@ -10538,7 +10532,7 @@
         <v>0.46458333333333335</v>
       </c>
     </row>
-    <row r="137" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B137" s="23"/>
       <c r="C137" s="24"/>
       <c r="D137" s="18"/>
@@ -10609,7 +10603,7 @@
         <v>0.12291666666666673</v>
       </c>
     </row>
-    <row r="138" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B138" s="23"/>
       <c r="C138" s="24"/>
       <c r="D138" s="18"/>
@@ -10680,7 +10674,7 @@
         <v>2.0895833333333331</v>
       </c>
     </row>
-    <row r="139" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B139" s="23"/>
       <c r="F139" s="8"/>
       <c r="G139" s="21"/>
@@ -10705,15 +10699,15 @@
       <c r="Z139" s="8"/>
       <c r="AA139" s="21"/>
     </row>
-    <row r="140" spans="1:27" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A140" s="15">
         <v>34</v>
       </c>
       <c r="B140" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C140" s="17" t="s">
         <v>89</v>
-      </c>
-      <c r="C140" s="17" t="s">
-        <v>90</v>
       </c>
       <c r="D140" s="18">
         <v>23</v>
@@ -10788,7 +10782,7 @@
         <v>0.47638888888888892</v>
       </c>
     </row>
-    <row r="141" spans="1:27" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B141" s="22"/>
       <c r="C141" s="24"/>
       <c r="D141" s="18"/>
@@ -10859,7 +10853,7 @@
         <v>0.1479166666666667</v>
       </c>
     </row>
-    <row r="142" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B142" s="22"/>
       <c r="D142" s="18"/>
       <c r="F142" s="8">
@@ -10929,7 +10923,7 @@
         <v>2.1013888888888888</v>
       </c>
     </row>
-    <row r="143" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B143" s="23"/>
       <c r="D143" s="18"/>
       <c r="F143" s="8"/>
@@ -10955,15 +10949,15 @@
       <c r="Z143" s="8"/>
       <c r="AA143" s="21"/>
     </row>
-    <row r="144" spans="1:27" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A144" s="15">
         <v>35</v>
       </c>
       <c r="B144" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C144" s="17" t="s">
         <v>91</v>
-      </c>
-      <c r="C144" s="17" t="s">
-        <v>92</v>
       </c>
       <c r="D144" s="18">
         <v>6869</v>
@@ -11038,7 +11032,7 @@
         <v>0.48819444444444443</v>
       </c>
     </row>
-    <row r="145" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B145" s="22"/>
       <c r="C145" s="24"/>
       <c r="D145" s="18"/>
@@ -11109,7 +11103,7 @@
         <v>0.16111111111111109</v>
       </c>
     </row>
-    <row r="146" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B146" s="22"/>
       <c r="D146" s="18"/>
       <c r="F146" s="8">
@@ -11179,7 +11173,7 @@
         <v>2.1131944444444444</v>
       </c>
     </row>
-    <row r="147" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B147" s="16"/>
       <c r="C147" s="24"/>
       <c r="D147" s="18"/>
@@ -11207,15 +11201,15 @@
       <c r="Z147" s="8"/>
       <c r="AA147" s="21"/>
     </row>
-    <row r="148" spans="1:27" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A148" s="15">
         <v>36</v>
       </c>
       <c r="B148" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C148" s="17" t="s">
         <v>93</v>
-      </c>
-      <c r="C148" s="17" t="s">
-        <v>94</v>
       </c>
       <c r="D148" s="18">
         <v>11</v>
@@ -11290,7 +11284,7 @@
         <v>0.49236111111111108</v>
       </c>
     </row>
-    <row r="149" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B149" s="23"/>
       <c r="C149" s="24"/>
       <c r="D149" s="18"/>
@@ -11361,7 +11355,7 @@
         <v>0.15138888888888885</v>
       </c>
     </row>
-    <row r="150" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B150" s="23"/>
       <c r="C150" s="24"/>
       <c r="D150" s="18"/>
@@ -11432,7 +11426,7 @@
         <v>2.1173611111111112</v>
       </c>
     </row>
-    <row r="151" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B151" s="23"/>
       <c r="F151" s="8"/>
       <c r="G151" s="21"/>
@@ -11457,15 +11451,15 @@
       <c r="Z151" s="8"/>
       <c r="AA151" s="21"/>
     </row>
-    <row r="152" spans="1:27" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A152" s="15">
         <v>37</v>
       </c>
       <c r="B152" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C152" s="17" t="s">
         <v>95</v>
-      </c>
-      <c r="C152" s="17" t="s">
-        <v>96</v>
       </c>
       <c r="D152" s="18">
         <v>96</v>
@@ -11540,7 +11534,7 @@
         <v>0.49583333333333335</v>
       </c>
     </row>
-    <row r="153" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B153" s="23"/>
       <c r="D153" s="18"/>
       <c r="F153" s="8">
@@ -11610,7 +11604,7 @@
         <v>0.18194444444444446</v>
       </c>
     </row>
-    <row r="154" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B154" s="23"/>
       <c r="D154" s="18"/>
       <c r="F154" s="8">
@@ -11680,7 +11674,7 @@
         <v>2.1208333333333336</v>
       </c>
     </row>
-    <row r="155" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B155" s="23"/>
       <c r="C155" s="24"/>
       <c r="D155" s="18"/>
@@ -11707,15 +11701,15 @@
       <c r="Z155" s="8"/>
       <c r="AA155" s="21"/>
     </row>
-    <row r="156" spans="1:27" ht="73.8" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:27" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A156" s="15">
         <v>38</v>
       </c>
       <c r="B156" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C156" s="18" t="s">
         <v>97</v>
-      </c>
-      <c r="C156" s="18" t="s">
-        <v>98</v>
       </c>
       <c r="D156" s="18">
         <v>823</v>
@@ -11790,7 +11784,7 @@
         <v>0.49722222222222223</v>
       </c>
     </row>
-    <row r="157" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B157" s="23"/>
       <c r="D157" s="18"/>
       <c r="F157" s="8">
@@ -11860,7 +11854,7 @@
         <v>0.2048611111111111</v>
       </c>
     </row>
-    <row r="158" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B158" s="23"/>
       <c r="D158" s="18"/>
       <c r="F158" s="8">
@@ -11930,7 +11924,7 @@
         <v>2.1222222222222222</v>
       </c>
     </row>
-    <row r="159" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B159" s="23"/>
       <c r="C159" s="24"/>
       <c r="D159" s="18"/>
@@ -11957,15 +11951,15 @@
       <c r="Z159" s="8"/>
       <c r="AA159" s="21"/>
     </row>
-    <row r="160" spans="1:27" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A160" s="15">
         <v>39</v>
       </c>
       <c r="B160" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C160" s="17" t="s">
         <v>99</v>
-      </c>
-      <c r="C160" s="17" t="s">
-        <v>100</v>
       </c>
       <c r="D160" s="18">
         <v>5023</v>
@@ -12040,7 +12034,7 @@
         <v>0.51597222222222217</v>
       </c>
     </row>
-    <row r="161" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B161" s="22"/>
       <c r="C161" s="24"/>
       <c r="D161" s="18"/>
@@ -12111,7 +12105,7 @@
         <v>0.18333333333333329</v>
       </c>
     </row>
-    <row r="162" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B162" s="22"/>
       <c r="D162" s="18"/>
       <c r="F162" s="8">
@@ -12181,7 +12175,7 @@
         <v>2.1409722222222221</v>
       </c>
     </row>
-    <row r="163" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B163" s="16"/>
       <c r="C163" s="24"/>
       <c r="D163" s="18"/>
@@ -12209,15 +12203,15 @@
       <c r="Z163" s="8"/>
       <c r="AA163" s="21"/>
     </row>
-    <row r="164" spans="1:27" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A164" s="15">
         <v>40</v>
       </c>
       <c r="B164" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C164" s="18" t="s">
         <v>101</v>
-      </c>
-      <c r="C164" s="18" t="s">
-        <v>102</v>
       </c>
       <c r="D164" s="18">
         <v>1051</v>
@@ -12292,7 +12286,7 @@
         <v>0.52638888888888891</v>
       </c>
     </row>
-    <row r="165" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B165" s="22"/>
       <c r="D165" s="18"/>
       <c r="F165" s="8">
@@ -12362,7 +12356,7 @@
         <v>0.12777777777777782</v>
       </c>
     </row>
-    <row r="166" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B166" s="23"/>
       <c r="D166" s="18"/>
       <c r="F166" s="8">
@@ -12432,7 +12426,7 @@
         <v>2.151388888888889</v>
       </c>
     </row>
-    <row r="167" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B167" s="23"/>
       <c r="C167" s="24"/>
       <c r="D167" s="18"/>
@@ -12459,15 +12453,15 @@
       <c r="Z167" s="8"/>
       <c r="AA167" s="21"/>
     </row>
-    <row r="168" spans="1:27" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A168" s="15">
         <v>41</v>
       </c>
       <c r="B168" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C168" s="17" t="s">
         <v>103</v>
-      </c>
-      <c r="C168" s="17" t="s">
-        <v>104</v>
       </c>
       <c r="D168" s="18">
         <v>6969</v>
@@ -12542,7 +12536,7 @@
         <v>0.54305555555555551</v>
       </c>
     </row>
-    <row r="169" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B169" s="22"/>
       <c r="C169" s="24"/>
       <c r="D169" s="18"/>
@@ -12613,7 +12607,7 @@
         <v>0.14861111111111108</v>
       </c>
     </row>
-    <row r="170" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B170" s="22"/>
       <c r="D170" s="18"/>
       <c r="F170" s="8">
@@ -12683,7 +12677,7 @@
         <v>2.1680555555555552</v>
       </c>
     </row>
-    <row r="171" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B171" s="16"/>
       <c r="C171" s="24"/>
       <c r="D171" s="18"/>
@@ -12711,15 +12705,15 @@
       <c r="Z171" s="8"/>
       <c r="AA171" s="21"/>
     </row>
-    <row r="172" spans="1:27" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A172" s="15">
         <v>42</v>
       </c>
       <c r="B172" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="C172" s="17" t="s">
         <v>105</v>
-      </c>
-      <c r="C172" s="17" t="s">
-        <v>106</v>
       </c>
       <c r="D172" s="18">
         <v>411</v>
@@ -12794,7 +12788,7 @@
         <v>0.56874999999999998</v>
       </c>
     </row>
-    <row r="173" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B173" s="23"/>
       <c r="C173" s="24"/>
       <c r="D173" s="18"/>
@@ -12865,7 +12859,7 @@
         <v>0.24374999999999997</v>
       </c>
     </row>
-    <row r="174" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B174" s="23"/>
       <c r="C174" s="24"/>
       <c r="D174" s="18"/>
@@ -12936,7 +12930,7 @@
         <v>2.1937500000000001</v>
       </c>
     </row>
-    <row r="175" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B175" s="23"/>
       <c r="F175" s="8"/>
       <c r="G175" s="21"/>
@@ -12961,15 +12955,15 @@
       <c r="Z175" s="8"/>
       <c r="AA175" s="21"/>
     </row>
-    <row r="176" spans="1:27" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A176" s="15">
         <v>43</v>
       </c>
       <c r="B176" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C176" s="17" t="s">
         <v>107</v>
-      </c>
-      <c r="C176" s="17" t="s">
-        <v>108</v>
       </c>
       <c r="D176" s="18">
         <v>9</v>
@@ -13044,7 +13038,7 @@
         <v>0.5756944444444444</v>
       </c>
     </row>
-    <row r="177" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B177" s="22"/>
       <c r="C177" s="24"/>
       <c r="D177" s="18"/>
@@ -13115,7 +13109,7 @@
         <v>0.15208333333333329</v>
       </c>
     </row>
-    <row r="178" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B178" s="22"/>
       <c r="D178" s="18"/>
       <c r="F178" s="8">
@@ -13185,7 +13179,7 @@
         <v>2.2006944444444443</v>
       </c>
     </row>
-    <row r="179" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B179" s="16"/>
       <c r="C179" s="24"/>
       <c r="D179" s="18"/>
@@ -13213,15 +13207,15 @@
       <c r="Z179" s="8"/>
       <c r="AA179" s="21"/>
     </row>
-    <row r="180" spans="1:27" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A180" s="15">
         <v>44</v>
       </c>
       <c r="B180" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C180" s="18" t="s">
         <v>109</v>
-      </c>
-      <c r="C180" s="18" t="s">
-        <v>110</v>
       </c>
       <c r="D180" s="18">
         <v>1620</v>
@@ -13296,7 +13290,7 @@
         <v>0.58611111111111114</v>
       </c>
     </row>
-    <row r="181" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B181" s="23"/>
       <c r="D181" s="18"/>
       <c r="F181" s="8">
@@ -13366,7 +13360,7 @@
         <v>0.17986111111111114</v>
       </c>
     </row>
-    <row r="182" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B182" s="23"/>
       <c r="D182" s="18"/>
       <c r="F182" s="8">
@@ -13436,7 +13430,7 @@
         <v>2.2111111111111112</v>
       </c>
     </row>
-    <row r="183" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B183" s="23"/>
       <c r="C183" s="24"/>
       <c r="D183" s="18"/>
@@ -13463,15 +13457,15 @@
       <c r="Z183" s="8"/>
       <c r="AA183" s="21"/>
     </row>
-    <row r="184" spans="1:27" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A184" s="15">
         <v>45</v>
       </c>
       <c r="B184" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C184" s="17" t="s">
         <v>111</v>
-      </c>
-      <c r="C184" s="17" t="s">
-        <v>112</v>
       </c>
       <c r="D184" s="18">
         <v>1995</v>
@@ -13546,7 +13540,7 @@
         <v>0.59027777777777779</v>
       </c>
     </row>
-    <row r="185" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B185" s="22"/>
       <c r="C185" s="24"/>
       <c r="D185" s="18"/>
@@ -13617,7 +13611,7 @@
         <v>0.18125000000000002</v>
       </c>
     </row>
-    <row r="186" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B186" s="22"/>
       <c r="D186" s="18"/>
       <c r="F186" s="8">
@@ -13687,7 +13681,7 @@
         <v>2.2152777777777777</v>
       </c>
     </row>
-    <row r="187" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B187" s="16"/>
       <c r="C187" s="24"/>
       <c r="D187" s="18"/>
@@ -13715,15 +13709,15 @@
       <c r="Z187" s="8"/>
       <c r="AA187" s="21"/>
     </row>
-    <row r="188" spans="1:27" ht="61.5" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:27" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A188" s="15">
         <v>46</v>
       </c>
       <c r="B188" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C188" s="17" t="s">
         <v>113</v>
-      </c>
-      <c r="C188" s="17" t="s">
-        <v>114</v>
       </c>
       <c r="D188" s="18">
         <v>333</v>
@@ -13798,7 +13792,7 @@
         <v>0.59027777777777779</v>
       </c>
     </row>
-    <row r="189" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="189" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D189" s="18"/>
       <c r="F189" s="8">
         <v>49</v>
@@ -13867,7 +13861,7 @@
         <v>0.25000000000000006</v>
       </c>
     </row>
-    <row r="190" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="190" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C190" s="24"/>
       <c r="D190" s="18"/>
       <c r="F190" s="8">
@@ -13937,7 +13931,7 @@
         <v>2.2152777777777781</v>
       </c>
     </row>
-    <row r="191" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="191" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F191" s="8"/>
       <c r="G191" s="21"/>
       <c r="H191" s="8"/>
@@ -13961,15 +13955,15 @@
       <c r="Z191" s="8"/>
       <c r="AA191" s="21"/>
     </row>
-    <row r="192" spans="1:27" ht="61.5" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:27" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A192" s="15">
         <v>47</v>
       </c>
       <c r="B192" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C192" s="18" t="s">
         <v>115</v>
-      </c>
-      <c r="C192" s="18" t="s">
-        <v>116</v>
       </c>
       <c r="D192" s="18">
         <v>414</v>
@@ -14044,7 +14038,7 @@
         <v>0.59722222222222221</v>
       </c>
     </row>
-    <row r="193" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B193" s="22"/>
       <c r="C193" s="24"/>
       <c r="D193" s="18"/>
@@ -14115,7 +14109,7 @@
         <v>0.21041666666666664</v>
       </c>
     </row>
-    <row r="194" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B194" s="22"/>
       <c r="D194" s="18"/>
       <c r="F194" s="8">
@@ -14185,7 +14179,7 @@
         <v>2.2222222222222223</v>
       </c>
     </row>
-    <row r="195" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B195" s="16"/>
       <c r="C195" s="24"/>
       <c r="D195" s="18"/>
@@ -14213,15 +14207,15 @@
       <c r="Z195" s="8"/>
       <c r="AA195" s="21"/>
     </row>
-    <row r="196" spans="1:27" ht="73.8" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:27" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A196" s="15">
         <v>48</v>
       </c>
       <c r="B196" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C196" s="18" t="s">
         <v>117</v>
-      </c>
-      <c r="C196" s="18" t="s">
-        <v>118</v>
       </c>
       <c r="D196" s="18">
         <v>1775</v>
@@ -14296,7 +14290,7 @@
         <v>0.65763888888888888</v>
       </c>
     </row>
-    <row r="197" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B197" s="23"/>
       <c r="D197" s="18"/>
       <c r="F197" s="8">
@@ -14366,7 +14360,7 @@
         <v>0.17708333333333331</v>
       </c>
     </row>
-    <row r="198" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B198" s="23"/>
       <c r="D198" s="18"/>
       <c r="F198" s="8">
@@ -14436,7 +14430,7 @@
         <v>2.2826388888888891</v>
       </c>
     </row>
-    <row r="199" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B199" s="23"/>
       <c r="C199" s="24"/>
       <c r="D199" s="18"/>
@@ -14463,15 +14457,15 @@
       <c r="Z199" s="8"/>
       <c r="AA199" s="21"/>
     </row>
-    <row r="200" spans="1:27" ht="50.1" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:27" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A200" s="15">
         <v>49</v>
       </c>
       <c r="B200" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="C200" s="17" t="s">
         <v>119</v>
-      </c>
-      <c r="C200" s="17" t="s">
-        <v>120</v>
       </c>
       <c r="D200" s="18">
         <v>76</v>
@@ -14546,7 +14540,7 @@
         <v>0.67986111111111114</v>
       </c>
     </row>
-    <row r="201" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B201" s="23"/>
       <c r="D201" s="18"/>
       <c r="F201" s="8">
@@ -14616,7 +14610,7 @@
         <v>0.15694444444444444</v>
       </c>
     </row>
-    <row r="202" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B202" s="23"/>
       <c r="D202" s="18"/>
       <c r="F202" s="8">
@@ -14686,7 +14680,7 @@
         <v>2.3048611111111112</v>
       </c>
     </row>
-    <row r="203" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B203" s="23"/>
       <c r="D203" s="18"/>
       <c r="F203" s="8"/>
@@ -14712,15 +14706,15 @@
       <c r="Z203" s="8"/>
       <c r="AA203" s="21"/>
     </row>
-    <row r="204" spans="1:27" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A204" s="15">
         <v>50</v>
       </c>
       <c r="B204" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C204" s="17" t="s">
         <v>121</v>
-      </c>
-      <c r="C204" s="17" t="s">
-        <v>122</v>
       </c>
       <c r="D204" s="18">
         <v>314</v>
@@ -14795,7 +14789,7 @@
         <v>0.68194444444444446</v>
       </c>
     </row>
-    <row r="205" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B205" s="22"/>
       <c r="C205" s="24"/>
       <c r="D205" s="18"/>
@@ -14866,7 +14860,7 @@
         <v>0.17152777777777783</v>
       </c>
     </row>
-    <row r="206" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B206" s="22"/>
       <c r="D206" s="18"/>
       <c r="F206" s="8">
@@ -14936,7 +14930,7 @@
         <v>2.3069444444444445</v>
       </c>
     </row>
-    <row r="207" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B207" s="16"/>
       <c r="C207" s="24"/>
       <c r="D207" s="18"/>
@@ -14964,15 +14958,15 @@
       <c r="Z207" s="8"/>
       <c r="AA207" s="21"/>
     </row>
-    <row r="208" spans="1:27" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A208" s="15">
         <v>51</v>
       </c>
       <c r="B208" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="C208" s="18" t="s">
         <v>123</v>
-      </c>
-      <c r="C208" s="18" t="s">
-        <v>124</v>
       </c>
       <c r="D208" s="18">
         <v>497</v>
@@ -15047,7 +15041,7 @@
         <v>0.71319444444444446</v>
       </c>
     </row>
-    <row r="209" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B209" s="23"/>
       <c r="D209" s="18"/>
       <c r="F209" s="8">
@@ -15117,7 +15111,7 @@
         <v>0.18819444444444444</v>
       </c>
     </row>
-    <row r="210" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B210" s="23"/>
       <c r="D210" s="18"/>
       <c r="F210" s="8">
@@ -15187,7 +15181,7 @@
         <v>2.3381944444444449</v>
       </c>
     </row>
-    <row r="211" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B211" s="23"/>
       <c r="C211" s="24"/>
       <c r="D211" s="18"/>
@@ -15214,15 +15208,15 @@
       <c r="Z211" s="8"/>
       <c r="AA211" s="21"/>
     </row>
-    <row r="212" spans="1:27" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A212" s="15">
         <v>52</v>
       </c>
       <c r="B212" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="C212" s="17" t="s">
         <v>125</v>
-      </c>
-      <c r="C212" s="17" t="s">
-        <v>126</v>
       </c>
       <c r="D212" s="18">
         <v>8485</v>
@@ -15297,7 +15291,7 @@
         <v>0.72361111111111109</v>
       </c>
     </row>
-    <row r="213" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B213" s="22"/>
       <c r="C213" s="24"/>
       <c r="D213" s="18"/>
@@ -15368,7 +15362,7 @@
         <v>0.18402777777777779</v>
       </c>
     </row>
-    <row r="214" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B214" s="22"/>
       <c r="D214" s="18"/>
       <c r="F214" s="8">
@@ -15438,7 +15432,7 @@
         <v>2.348611111111111</v>
       </c>
     </row>
-    <row r="215" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B215" s="16"/>
       <c r="C215" s="24"/>
       <c r="D215" s="18"/>
@@ -15466,15 +15460,15 @@
       <c r="Z215" s="8"/>
       <c r="AA215" s="21"/>
     </row>
-    <row r="216" spans="1:27" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A216" s="15">
         <v>53</v>
       </c>
       <c r="B216" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C216" s="17" t="s">
         <v>127</v>
-      </c>
-      <c r="C216" s="17" t="s">
-        <v>128</v>
       </c>
       <c r="D216" s="18">
         <v>728</v>
@@ -15549,7 +15543,7 @@
         <v>0.72430555555555554</v>
       </c>
     </row>
-    <row r="217" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="217" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C217" s="24"/>
       <c r="D217" s="18"/>
       <c r="F217" s="8">
@@ -15619,7 +15613,7 @@
         <v>0.18472222222222223</v>
       </c>
     </row>
-    <row r="218" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="218" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C218" s="24"/>
       <c r="D218" s="18"/>
       <c r="F218" s="8">
@@ -15689,7 +15683,7 @@
         <v>2.3493055555555555</v>
       </c>
     </row>
-    <row r="219" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="219" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F219" s="8"/>
       <c r="G219" s="21"/>
       <c r="H219" s="8"/>
@@ -15713,15 +15707,15 @@
       <c r="Z219" s="8"/>
       <c r="AA219" s="21"/>
     </row>
-    <row r="220" spans="1:27" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A220" s="15">
         <v>54</v>
       </c>
       <c r="B220" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="C220" s="17" t="s">
         <v>129</v>
-      </c>
-      <c r="C220" s="17" t="s">
-        <v>130</v>
       </c>
       <c r="D220" s="18">
         <v>1973</v>
@@ -15796,7 +15790,7 @@
         <v>0.74236111111111114</v>
       </c>
     </row>
-    <row r="221" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B221" s="22"/>
       <c r="C221" s="24"/>
       <c r="D221" s="18"/>
@@ -15867,7 +15861,7 @@
         <v>0.17500000000000004</v>
       </c>
     </row>
-    <row r="222" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B222" s="22"/>
       <c r="D222" s="18"/>
       <c r="F222" s="8">
@@ -15937,7 +15931,7 @@
         <v>2.3673611111111112</v>
       </c>
     </row>
-    <row r="223" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B223" s="16"/>
       <c r="C223" s="24"/>
       <c r="D223" s="18"/>
@@ -15965,15 +15959,15 @@
       <c r="Z223" s="8"/>
       <c r="AA223" s="21"/>
     </row>
-    <row r="224" spans="1:27" ht="86.1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:27" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A224" s="15">
         <v>55</v>
       </c>
       <c r="B224" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="C224" s="17" t="s">
         <v>131</v>
-      </c>
-      <c r="C224" s="17" t="s">
-        <v>132</v>
       </c>
       <c r="D224" s="18">
         <v>2019</v>
@@ -16048,7 +16042,7 @@
         <v>0.74513888888888891</v>
       </c>
     </row>
-    <row r="225" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B225" s="22"/>
       <c r="C225" s="24"/>
       <c r="D225" s="18"/>
@@ -16119,7 +16113,7 @@
         <v>0.16527777777777786</v>
       </c>
     </row>
-    <row r="226" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B226" s="22"/>
       <c r="D226" s="18"/>
       <c r="F226" s="8">
@@ -16189,7 +16183,7 @@
         <v>2.370138888888889</v>
       </c>
     </row>
-    <row r="227" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B227" s="16"/>
       <c r="C227" s="24"/>
       <c r="D227" s="18"/>
@@ -16217,15 +16211,15 @@
       <c r="Z227" s="8"/>
       <c r="AA227" s="21"/>
     </row>
-    <row r="228" spans="1:27" ht="61.5" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:27" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A228" s="15">
         <v>56</v>
       </c>
       <c r="B228" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C228" s="18" t="s">
         <v>133</v>
-      </c>
-      <c r="C228" s="18" t="s">
-        <v>134</v>
       </c>
       <c r="D228" s="18">
         <v>1004</v>
@@ -16300,7 +16294,7 @@
         <v>0.76041666666666663</v>
       </c>
     </row>
-    <row r="229" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B229" s="23"/>
       <c r="D229" s="18"/>
       <c r="F229" s="8">
@@ -16370,7 +16364,7 @@
         <v>0.17569444444444438</v>
       </c>
     </row>
-    <row r="230" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B230" s="23"/>
       <c r="D230" s="18"/>
       <c r="F230" s="8">
@@ -16440,7 +16434,7 @@
         <v>2.3854166666666665</v>
       </c>
     </row>
-    <row r="231" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B231" s="23"/>
       <c r="F231" s="8"/>
       <c r="G231" s="21"/>
@@ -16465,15 +16459,15 @@
       <c r="Z231" s="8"/>
       <c r="AA231" s="21"/>
     </row>
-    <row r="232" spans="1:27" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A232" s="15">
         <v>57</v>
       </c>
       <c r="B232" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="C232" s="17" t="s">
         <v>135</v>
-      </c>
-      <c r="C232" s="17" t="s">
-        <v>136</v>
       </c>
       <c r="D232" s="18">
         <v>3975</v>
@@ -16548,7 +16542,7 @@
         <v>0.77500000000000002</v>
       </c>
     </row>
-    <row r="233" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B233" s="22"/>
       <c r="C233" s="24"/>
       <c r="D233" s="18"/>
@@ -16619,7 +16613,7 @@
         <v>0.18611111111111112</v>
       </c>
     </row>
-    <row r="234" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B234" s="22"/>
       <c r="D234" s="18"/>
       <c r="F234" s="8">
@@ -16689,7 +16683,7 @@
         <v>2.4000000000000004</v>
       </c>
     </row>
-    <row r="235" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B235" s="16"/>
       <c r="C235" s="24"/>
       <c r="D235" s="18"/>
@@ -16717,15 +16711,15 @@
       <c r="Z235" s="8"/>
       <c r="AA235" s="21"/>
     </row>
-    <row r="236" spans="1:27" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A236" s="15">
         <v>58</v>
       </c>
       <c r="B236" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C236" s="17" t="s">
         <v>137</v>
-      </c>
-      <c r="C236" s="17" t="s">
-        <v>138</v>
       </c>
       <c r="D236" s="18">
         <v>22</v>
@@ -16800,7 +16794,7 @@
         <v>0.7909722222222223</v>
       </c>
     </row>
-    <row r="237" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B237" s="23"/>
       <c r="D237" s="18"/>
       <c r="F237" s="8">
@@ -16870,7 +16864,7 @@
         <v>0.16805555555555562</v>
       </c>
     </row>
-    <row r="238" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B238" s="22"/>
       <c r="D238" s="18"/>
       <c r="F238" s="8">
@@ -16940,7 +16934,7 @@
         <v>2.4159722222222224</v>
       </c>
     </row>
-    <row r="239" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B239" s="22"/>
       <c r="D239" s="18"/>
       <c r="F239" s="8"/>
@@ -16966,15 +16960,15 @@
       <c r="Z239" s="8"/>
       <c r="AA239" s="21"/>
     </row>
-    <row r="240" spans="1:27" ht="73.8" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:27" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A240" s="15">
         <v>59</v>
       </c>
       <c r="B240" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C240" s="17" t="s">
         <v>139</v>
-      </c>
-      <c r="C240" s="17" t="s">
-        <v>140</v>
       </c>
       <c r="D240" s="18">
         <v>14</v>
@@ -17049,7 +17043,7 @@
         <v>0.79999999999999993</v>
       </c>
     </row>
-    <row r="241" spans="1:27" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B241" s="23"/>
       <c r="D241" s="18"/>
       <c r="F241" s="8">
@@ -17119,7 +17113,7 @@
         <v>0.16249999999999987</v>
       </c>
     </row>
-    <row r="242" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B242" s="23"/>
       <c r="C242" s="24"/>
       <c r="D242" s="18"/>
@@ -17190,7 +17184,7 @@
         <v>2.4249999999999998</v>
       </c>
     </row>
-    <row r="243" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B243" s="23"/>
       <c r="C243" s="24"/>
       <c r="D243" s="18"/>
@@ -17217,15 +17211,15 @@
       <c r="Z243" s="8"/>
       <c r="AA243" s="21"/>
     </row>
-    <row r="244" spans="1:27" ht="73.8" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:27" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A244" s="15">
         <v>60</v>
       </c>
       <c r="B244" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="C244" s="17" t="s">
         <v>141</v>
-      </c>
-      <c r="C244" s="17" t="s">
-        <v>142</v>
       </c>
       <c r="D244" s="18">
         <v>220</v>
@@ -17300,7 +17294,7 @@
         <v>0.80069444444444438</v>
       </c>
     </row>
-    <row r="245" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B245" s="23"/>
       <c r="D245" s="18"/>
       <c r="F245" s="8">
@@ -17370,7 +17364,7 @@
         <v>0.20555555555555549</v>
       </c>
     </row>
-    <row r="246" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B246" s="23"/>
       <c r="D246" s="18"/>
       <c r="F246" s="8">
@@ -17440,7 +17434,7 @@
         <v>2.4256944444444448</v>
       </c>
     </row>
-    <row r="247" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B247" s="23"/>
       <c r="C247" s="24"/>
       <c r="D247" s="18"/>
@@ -17467,15 +17461,15 @@
       <c r="Z247" s="8"/>
       <c r="AA247" s="21"/>
     </row>
-    <row r="248" spans="1:27" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A248" s="15">
         <v>61</v>
       </c>
       <c r="B248" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C248" s="17" t="s">
         <v>143</v>
-      </c>
-      <c r="C248" s="17" t="s">
-        <v>144</v>
       </c>
       <c r="D248" s="18">
         <v>7</v>
@@ -17550,7 +17544,7 @@
         <v>0.80625000000000002</v>
       </c>
     </row>
-    <row r="249" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B249" s="22"/>
       <c r="D249" s="18"/>
       <c r="F249" s="8">
@@ -17620,7 +17614,7 @@
         <v>0.16666666666666674</v>
       </c>
     </row>
-    <row r="250" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B250" s="22"/>
       <c r="D250" s="18"/>
       <c r="F250" s="8">
@@ -17690,7 +17684,7 @@
         <v>2.4312500000000004</v>
       </c>
     </row>
-    <row r="251" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B251" s="23"/>
       <c r="C251" s="24"/>
       <c r="D251" s="18"/>
@@ -17717,15 +17711,15 @@
       <c r="Z251" s="8"/>
       <c r="AA251" s="21"/>
     </row>
-    <row r="252" spans="1:27" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A252" s="15">
         <v>62</v>
       </c>
       <c r="B252" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="C252" s="17" t="s">
         <v>145</v>
-      </c>
-      <c r="C252" s="17" t="s">
-        <v>146</v>
       </c>
       <c r="D252" s="18">
         <v>8005</v>
@@ -17800,7 +17794,7 @@
         <v>0.81666666666666676</v>
       </c>
     </row>
-    <row r="253" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B253" s="22"/>
       <c r="C253" s="24"/>
       <c r="D253" s="18"/>
@@ -17871,7 +17865,7 @@
         <v>0.17847222222222237</v>
       </c>
     </row>
-    <row r="254" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B254" s="22"/>
       <c r="D254" s="18"/>
       <c r="F254" s="8">
@@ -17941,7 +17935,7 @@
         <v>2.4416666666666664</v>
       </c>
     </row>
-    <row r="255" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B255" s="16"/>
       <c r="C255" s="24"/>
       <c r="D255" s="18"/>
@@ -17969,15 +17963,15 @@
       <c r="Z255" s="8"/>
       <c r="AA255" s="21"/>
     </row>
-    <row r="256" spans="1:27" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A256" s="15">
         <v>63</v>
       </c>
       <c r="B256" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C256" s="17" t="s">
         <v>147</v>
-      </c>
-      <c r="C256" s="17" t="s">
-        <v>148</v>
       </c>
       <c r="D256" s="18">
         <v>1968</v>
@@ -18052,7 +18046,7 @@
         <v>0.83888888888888891</v>
       </c>
     </row>
-    <row r="257" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B257" s="22"/>
       <c r="C257" s="24"/>
       <c r="D257" s="18"/>
@@ -18123,7 +18117,7 @@
         <v>0.19097222222222221</v>
       </c>
     </row>
-    <row r="258" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B258" s="22"/>
       <c r="D258" s="18"/>
       <c r="F258" s="8">
@@ -18193,7 +18187,7 @@
         <v>2.4638888888888895</v>
       </c>
     </row>
-    <row r="259" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B259" s="16"/>
       <c r="C259" s="24"/>
       <c r="D259" s="18"/>
@@ -18221,15 +18215,15 @@
       <c r="Z259" s="8"/>
       <c r="AA259" s="21"/>
     </row>
-    <row r="260" spans="1:27" ht="61.5" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:27" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A260" s="15">
         <v>64</v>
       </c>
       <c r="B260" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="C260" s="17" t="s">
         <v>149</v>
-      </c>
-      <c r="C260" s="17" t="s">
-        <v>150</v>
       </c>
       <c r="D260" s="18">
         <v>1996</v>
@@ -18304,7 +18298,7 @@
         <v>0.84027777777777779</v>
       </c>
     </row>
-    <row r="261" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B261" s="22"/>
       <c r="C261" s="24"/>
       <c r="D261" s="18"/>
@@ -18375,7 +18369,7 @@
         <v>0.15763888888888888</v>
       </c>
     </row>
-    <row r="262" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B262" s="22"/>
       <c r="D262" s="18"/>
       <c r="F262" s="8">
@@ -18445,7 +18439,7 @@
         <v>2.4652777777777777</v>
       </c>
     </row>
-    <row r="263" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B263" s="16"/>
       <c r="C263" s="24"/>
       <c r="D263" s="18"/>
@@ -18473,15 +18467,15 @@
       <c r="Z263" s="8"/>
       <c r="AA263" s="21"/>
     </row>
-    <row r="264" spans="1:27" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A264" s="15">
         <v>65</v>
       </c>
       <c r="B264" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="C264" s="17" t="s">
         <v>151</v>
-      </c>
-      <c r="C264" s="17" t="s">
-        <v>152</v>
       </c>
       <c r="D264" s="18">
         <v>7377</v>
@@ -18556,7 +18550,7 @@
         <v>0.86597222222222225</v>
       </c>
     </row>
-    <row r="265" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B265" s="22"/>
       <c r="C265" s="24"/>
       <c r="D265" s="18"/>
@@ -18627,7 +18621,7 @@
         <v>0.13749999999999996</v>
       </c>
     </row>
-    <row r="266" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B266" s="22"/>
       <c r="D266" s="18"/>
       <c r="F266" s="8">
@@ -18697,7 +18691,7 @@
         <v>2.4909722222222221</v>
       </c>
     </row>
-    <row r="267" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B267" s="16"/>
       <c r="C267" s="24"/>
       <c r="D267" s="18"/>
@@ -18725,15 +18719,15 @@
       <c r="Z267" s="8"/>
       <c r="AA267" s="21"/>
     </row>
-    <row r="268" spans="1:27" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A268" s="15">
         <v>66</v>
       </c>
       <c r="B268" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="C268" s="18" t="s">
         <v>153</v>
-      </c>
-      <c r="C268" s="18" t="s">
-        <v>154</v>
       </c>
       <c r="D268" s="18">
         <v>561</v>
@@ -18808,7 +18802,7 @@
         <v>0.87013888888888891</v>
       </c>
     </row>
-    <row r="269" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B269" s="23"/>
       <c r="D269" s="18"/>
       <c r="F269" s="8">
@@ -18878,7 +18872,7 @@
         <v>0.15625</v>
       </c>
     </row>
-    <row r="270" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B270" s="22"/>
       <c r="D270" s="18"/>
       <c r="F270" s="8">
@@ -18948,7 +18942,7 @@
         <v>2.4951388888888886</v>
       </c>
     </row>
-    <row r="271" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B271" s="22"/>
       <c r="D271" s="18"/>
       <c r="F271" s="8"/>
@@ -18974,15 +18968,15 @@
       <c r="Z271" s="8"/>
       <c r="AA271" s="21"/>
     </row>
-    <row r="272" spans="1:27" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A272" s="15">
         <v>67</v>
       </c>
       <c r="B272" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="C272" s="17" t="s">
         <v>155</v>
-      </c>
-      <c r="C272" s="17" t="s">
-        <v>156</v>
       </c>
       <c r="D272" s="18">
         <v>4302</v>
@@ -19057,7 +19051,7 @@
         <v>0.87569444444444444</v>
       </c>
     </row>
-    <row r="273" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B273" s="22"/>
       <c r="C273" s="24"/>
       <c r="D273" s="18"/>
@@ -19128,7 +19122,7 @@
         <v>0.14861111111111114</v>
       </c>
     </row>
-    <row r="274" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B274" s="22"/>
       <c r="D274" s="18"/>
       <c r="F274" s="8">
@@ -19198,7 +19192,7 @@
         <v>2.5006944444444446</v>
       </c>
     </row>
-    <row r="275" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B275" s="16"/>
       <c r="C275" s="24"/>
       <c r="D275" s="18"/>
@@ -19226,15 +19220,15 @@
       <c r="Z275" s="8"/>
       <c r="AA275" s="21"/>
     </row>
-    <row r="276" spans="1:27" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:27" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A276" s="15">
         <v>68</v>
       </c>
       <c r="B276" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="C276" s="17" t="s">
         <v>157</v>
-      </c>
-      <c r="C276" s="17" t="s">
-        <v>158</v>
       </c>
       <c r="D276" s="18">
         <v>9515</v>
@@ -19309,7 +19303,7 @@
         <v>0.88055555555555554</v>
       </c>
     </row>
-    <row r="277" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B277" s="22"/>
       <c r="C277" s="24"/>
       <c r="D277" s="18"/>
@@ -19380,7 +19374,7 @@
         <v>0.16319444444444453</v>
       </c>
     </row>
-    <row r="278" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B278" s="22"/>
       <c r="D278" s="18"/>
       <c r="F278" s="8">
@@ -19450,7 +19444,7 @@
         <v>2.505555555555556</v>
       </c>
     </row>
-    <row r="279" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B279" s="16"/>
       <c r="C279" s="24"/>
       <c r="D279" s="18"/>
@@ -19478,15 +19472,15 @@
       <c r="Z279" s="8"/>
       <c r="AA279" s="21"/>
     </row>
-    <row r="280" spans="1:27" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A280" s="15">
         <v>69</v>
       </c>
       <c r="B280" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="C280" s="17" t="s">
         <v>159</v>
-      </c>
-      <c r="C280" s="17" t="s">
-        <v>160</v>
       </c>
       <c r="D280" s="18">
         <v>3394</v>
@@ -19561,7 +19555,7 @@
         <v>0.89444444444444438</v>
       </c>
     </row>
-    <row r="281" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B281" s="22"/>
       <c r="C281" s="24"/>
       <c r="D281" s="18"/>
@@ -19632,7 +19626,7 @@
         <v>0.15833333333333321</v>
       </c>
     </row>
-    <row r="282" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B282" s="22"/>
       <c r="D282" s="18"/>
       <c r="F282" s="8">
@@ -19702,7 +19696,7 @@
         <v>2.5194444444444448</v>
       </c>
     </row>
-    <row r="283" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B283" s="16"/>
       <c r="C283" s="24"/>
       <c r="D283" s="18"/>
@@ -19730,15 +19724,15 @@
       <c r="Z283" s="8"/>
       <c r="AA283" s="21"/>
     </row>
-    <row r="284" spans="1:27" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A284" s="15">
         <v>70</v>
       </c>
       <c r="B284" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="C284" s="17" t="s">
         <v>161</v>
-      </c>
-      <c r="C284" s="17" t="s">
-        <v>162</v>
       </c>
       <c r="D284" s="18">
         <v>88</v>
@@ -19813,7 +19807,7 @@
         <v>0.90625</v>
       </c>
     </row>
-    <row r="285" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B285" s="23"/>
       <c r="D285" s="18"/>
       <c r="F285" s="8">
@@ -19883,7 +19877,7 @@
         <v>0.13888888888888884</v>
       </c>
     </row>
-    <row r="286" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B286" s="23"/>
       <c r="D286" s="18"/>
       <c r="F286" s="8">
@@ -19953,7 +19947,7 @@
         <v>2.53125</v>
       </c>
     </row>
-    <row r="287" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B287" s="23"/>
       <c r="C287" s="24"/>
       <c r="D287" s="18"/>
@@ -19980,15 +19974,15 @@
       <c r="Z287" s="8"/>
       <c r="AA287" s="21"/>
     </row>
-    <row r="288" spans="1:27" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A288" s="15">
         <v>71</v>
       </c>
       <c r="B288" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C288" s="17" t="s">
         <v>163</v>
-      </c>
-      <c r="C288" s="17" t="s">
-        <v>164</v>
       </c>
       <c r="D288" s="18">
         <v>3380</v>
@@ -20063,7 +20057,7 @@
         <v>0.9458333333333333</v>
       </c>
     </row>
-    <row r="289" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B289" s="22"/>
       <c r="C289" s="24"/>
       <c r="D289" s="18"/>
@@ -20134,7 +20128,7 @@
         <v>0.14444444444444438</v>
       </c>
     </row>
-    <row r="290" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B290" s="22"/>
       <c r="D290" s="18"/>
       <c r="F290" s="8">
@@ -20204,7 +20198,7 @@
         <v>2.5708333333333333</v>
       </c>
     </row>
-    <row r="291" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B291" s="16"/>
       <c r="C291" s="24"/>
       <c r="D291" s="18"/>
@@ -20232,15 +20226,15 @@
       <c r="Z291" s="8"/>
       <c r="AA291" s="21"/>
     </row>
-    <row r="292" spans="1:27" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A292" s="15">
         <v>72</v>
       </c>
       <c r="B292" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="C292" s="18" t="s">
         <v>165</v>
-      </c>
-      <c r="C292" s="18" t="s">
-        <v>166</v>
       </c>
       <c r="D292" s="18">
         <v>1845</v>
@@ -20315,7 +20309,7 @@
         <v>0.9868055555555556</v>
       </c>
     </row>
-    <row r="293" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B293" s="23"/>
       <c r="C293" s="24"/>
       <c r="D293" s="18"/>
@@ -20386,7 +20380,7 @@
         <v>0.24444444444444446</v>
       </c>
     </row>
-    <row r="294" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B294" s="23"/>
       <c r="C294" s="24"/>
       <c r="D294" s="18"/>
@@ -20457,7 +20451,7 @@
         <v>2.6118055555555557</v>
       </c>
     </row>
-    <row r="295" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B295" s="23"/>
       <c r="F295" s="8"/>
       <c r="G295" s="21"/>
@@ -20482,15 +20476,15 @@
       <c r="Z295" s="8"/>
       <c r="AA295" s="21"/>
     </row>
-    <row r="296" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="15">
         <v>73</v>
       </c>
       <c r="B296" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C296" s="17" t="s">
         <v>167</v>
-      </c>
-      <c r="C296" s="17" t="s">
-        <v>168</v>
       </c>
       <c r="D296" s="18">
         <v>2127</v>
@@ -20565,7 +20559,7 @@
         <v>0.99097222222222225</v>
       </c>
     </row>
-    <row r="297" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B297" s="22"/>
       <c r="C297" s="24"/>
       <c r="D297" s="18"/>
@@ -20636,7 +20630,7 @@
         <v>0.17638888888888893</v>
       </c>
     </row>
-    <row r="298" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B298" s="22"/>
       <c r="D298" s="18"/>
       <c r="F298" s="8">
@@ -20706,7 +20700,7 @@
         <v>2.6159722222222221</v>
       </c>
     </row>
-    <row r="299" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B299" s="16"/>
       <c r="C299" s="24"/>
       <c r="D299" s="18"/>
@@ -20734,15 +20728,15 @@
       <c r="Z299" s="8"/>
       <c r="AA299" s="21"/>
     </row>
-    <row r="300" spans="1:27" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A300" s="15">
         <v>74</v>
       </c>
       <c r="B300" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="C300" s="17" t="s">
         <v>169</v>
-      </c>
-      <c r="C300" s="17" t="s">
-        <v>170</v>
       </c>
       <c r="D300" s="18">
         <v>6598</v>
@@ -20817,7 +20811,7 @@
         <v>2.2916666666666669E-2</v>
       </c>
     </row>
-    <row r="301" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B301" s="22"/>
       <c r="C301" s="24"/>
       <c r="D301" s="18"/>
@@ -20888,7 +20882,7 @@
         <v>0.17152777777777783</v>
       </c>
     </row>
-    <row r="302" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B302" s="22"/>
       <c r="D302" s="18"/>
       <c r="F302" s="8">
@@ -20958,7 +20952,7 @@
         <v>2.6479166666666667</v>
       </c>
     </row>
-    <row r="303" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B303" s="16"/>
       <c r="C303" s="24"/>
       <c r="D303" s="18"/>
@@ -20986,15 +20980,15 @@
       <c r="Z303" s="8"/>
       <c r="AA303" s="21"/>
     </row>
-    <row r="304" spans="1:27" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A304" s="15">
         <v>75</v>
       </c>
       <c r="B304" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="C304" s="17" t="s">
         <v>171</v>
-      </c>
-      <c r="C304" s="17" t="s">
-        <v>172</v>
       </c>
       <c r="D304" s="18">
         <v>222</v>
@@ -21069,7 +21063,7 @@
         <v>2.5694444444444447E-2</v>
       </c>
     </row>
-    <row r="305" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="305" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C305" s="24"/>
       <c r="D305" s="18"/>
       <c r="F305" s="8">
@@ -21139,7 +21133,7 @@
         <v>0.19097222222222221</v>
       </c>
     </row>
-    <row r="306" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="306" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C306" s="24"/>
       <c r="D306" s="18"/>
       <c r="F306" s="8">
@@ -21209,7 +21203,7 @@
         <v>2.6506944444444449</v>
       </c>
     </row>
-    <row r="307" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="307" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F307" s="8"/>
       <c r="G307" s="21"/>
       <c r="H307" s="8"/>
@@ -21233,15 +21227,15 @@
       <c r="Z307" s="8"/>
       <c r="AA307" s="21"/>
     </row>
-    <row r="308" spans="1:27" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A308" s="15">
         <v>76</v>
       </c>
       <c r="B308" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="C308" s="17" t="s">
         <v>173</v>
-      </c>
-      <c r="C308" s="17" t="s">
-        <v>174</v>
       </c>
       <c r="D308" s="18">
         <v>5884</v>
@@ -21316,7 +21310,7 @@
         <v>5.347222222222222E-2</v>
       </c>
     </row>
-    <row r="309" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B309" s="22"/>
       <c r="C309" s="24"/>
       <c r="D309" s="18"/>
@@ -21387,7 +21381,7 @@
         <v>0.1791666666666667</v>
       </c>
     </row>
-    <row r="310" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B310" s="22"/>
       <c r="D310" s="18"/>
       <c r="F310" s="8">
@@ -21457,7 +21451,7 @@
         <v>2.6784722222222221</v>
       </c>
     </row>
-    <row r="311" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B311" s="16"/>
       <c r="C311" s="24"/>
       <c r="D311" s="18"/>
@@ -21485,15 +21479,15 @@
       <c r="Z311" s="8"/>
       <c r="AA311" s="21"/>
     </row>
-    <row r="312" spans="1:27" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A312" s="15">
         <v>77</v>
       </c>
       <c r="B312" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="C312" s="18" t="s">
         <v>175</v>
-      </c>
-      <c r="C312" s="18" t="s">
-        <v>176</v>
       </c>
       <c r="D312" s="18">
         <v>1450</v>
@@ -21568,7 +21562,7 @@
         <v>7.6388888888888895E-2</v>
       </c>
     </row>
-    <row r="313" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B313" s="23"/>
       <c r="D313" s="18"/>
       <c r="F313" s="8">
@@ -21638,7 +21632,7 @@
         <v>0.17291666666666661</v>
       </c>
     </row>
-    <row r="314" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B314" s="23"/>
       <c r="D314" s="18"/>
       <c r="F314" s="8">
@@ -21708,7 +21702,7 @@
         <v>2.7013888888888888</v>
       </c>
     </row>
-    <row r="315" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B315" s="23"/>
       <c r="C315" s="24"/>
       <c r="D315" s="18"/>
@@ -21735,15 +21729,15 @@
       <c r="Z315" s="8"/>
       <c r="AA315" s="21"/>
     </row>
-    <row r="316" spans="1:27" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A316" s="15">
         <v>78</v>
       </c>
       <c r="B316" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="C316" s="18" t="s">
         <v>177</v>
-      </c>
-      <c r="C316" s="18" t="s">
-        <v>178</v>
       </c>
       <c r="D316" s="18">
         <v>1116</v>
@@ -21818,7 +21812,7 @@
         <v>8.2638888888888887E-2</v>
       </c>
     </row>
-    <row r="317" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B317" s="23"/>
       <c r="C317" s="24"/>
       <c r="D317" s="18"/>
@@ -21889,7 +21883,7 @@
         <v>0.18055555555555569</v>
       </c>
     </row>
-    <row r="318" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B318" s="23"/>
       <c r="D318" s="18"/>
       <c r="F318" s="8">
@@ -21959,7 +21953,7 @@
         <v>2.7076388888888894</v>
       </c>
     </row>
-    <row r="319" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B319" s="23"/>
       <c r="C319" s="24"/>
       <c r="D319" s="18"/>
@@ -21986,15 +21980,15 @@
       <c r="Z319" s="8"/>
       <c r="AA319" s="21"/>
     </row>
-    <row r="320" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="15">
         <v>79</v>
       </c>
       <c r="B320" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="C320" s="17" t="s">
         <v>179</v>
-      </c>
-      <c r="C320" s="17" t="s">
-        <v>180</v>
       </c>
       <c r="D320" s="18">
         <v>2234</v>
@@ -22069,7 +22063,7 @@
         <v>0.10486111111111111</v>
       </c>
     </row>
-    <row r="321" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B321" s="22"/>
       <c r="C321" s="24"/>
       <c r="D321" s="18"/>
@@ -22140,7 +22134,7 @@
         <v>0.15486111111111101</v>
       </c>
     </row>
-    <row r="322" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B322" s="22"/>
       <c r="D322" s="18"/>
       <c r="F322" s="8">
@@ -22210,7 +22204,7 @@
         <v>2.7298611111111111</v>
       </c>
     </row>
-    <row r="323" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B323" s="16"/>
       <c r="C323" s="24"/>
       <c r="D323" s="18"/>
@@ -22238,15 +22232,15 @@
       <c r="Z323" s="8"/>
       <c r="AA323" s="21"/>
     </row>
-    <row r="324" spans="1:27" ht="61.5" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:27" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A324" s="15">
         <v>80</v>
       </c>
       <c r="B324" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="C324" s="17" t="s">
         <v>181</v>
-      </c>
-      <c r="C324" s="17" t="s">
-        <v>182</v>
       </c>
       <c r="D324" s="18">
         <v>2896</v>
@@ -22321,7 +22315,7 @@
         <v>0.11666666666666665</v>
       </c>
     </row>
-    <row r="325" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B325" s="22"/>
       <c r="C325" s="24"/>
       <c r="D325" s="18"/>
@@ -22392,7 +22386,7 @@
         <v>0.14027777777777783</v>
       </c>
     </row>
-    <row r="326" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B326" s="22"/>
       <c r="D326" s="18"/>
       <c r="F326" s="8">
@@ -22462,7 +22456,7 @@
         <v>2.7416666666666667</v>
       </c>
     </row>
-    <row r="327" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B327" s="16"/>
       <c r="C327" s="24"/>
       <c r="D327" s="18"/>
@@ -22490,15 +22484,15 @@
       <c r="Z327" s="8"/>
       <c r="AA327" s="21"/>
     </row>
-    <row r="328" spans="1:27" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A328" s="15">
         <v>81</v>
       </c>
       <c r="B328" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="C328" s="17" t="s">
         <v>183</v>
-      </c>
-      <c r="C328" s="17" t="s">
-        <v>184</v>
       </c>
       <c r="D328" s="18">
         <v>3135</v>
@@ -22573,7 +22567,7 @@
         <v>0.11944444444444445</v>
       </c>
     </row>
-    <row r="329" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B329" s="22"/>
       <c r="C329" s="24"/>
       <c r="D329" s="18"/>
@@ -22644,7 +22638,7 @@
         <v>0.20208333333333339</v>
       </c>
     </row>
-    <row r="330" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B330" s="22"/>
       <c r="D330" s="18"/>
       <c r="F330" s="8">
@@ -22714,7 +22708,7 @@
         <v>2.7444444444444445</v>
       </c>
     </row>
-    <row r="331" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B331" s="16"/>
       <c r="C331" s="24"/>
       <c r="D331" s="18"/>
@@ -22742,15 +22736,15 @@
       <c r="Z331" s="8"/>
       <c r="AA331" s="21"/>
     </row>
-    <row r="332" spans="1:27" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A332" s="15">
         <v>82</v>
       </c>
       <c r="B332" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="C332" s="17" t="s">
         <v>185</v>
-      </c>
-      <c r="C332" s="17" t="s">
-        <v>186</v>
       </c>
       <c r="D332" s="18">
         <v>3006</v>
@@ -22825,7 +22819,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="333" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B333" s="22"/>
       <c r="C333" s="24"/>
       <c r="D333" s="18"/>
@@ -22896,7 +22890,7 @@
         <v>0.18125000000000002</v>
       </c>
     </row>
-    <row r="334" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B334" s="22"/>
       <c r="D334" s="18"/>
       <c r="F334" s="8">
@@ -22966,7 +22960,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="335" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B335" s="16"/>
       <c r="C335" s="24"/>
       <c r="D335" s="18"/>
@@ -22994,15 +22988,15 @@
       <c r="Z335" s="8"/>
       <c r="AA335" s="21"/>
     </row>
-    <row r="336" spans="1:27" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A336" s="15">
         <v>83</v>
       </c>
       <c r="B336" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="C336" s="17" t="s">
         <v>187</v>
-      </c>
-      <c r="C336" s="17" t="s">
-        <v>188</v>
       </c>
       <c r="D336" s="18">
         <v>33</v>
@@ -23077,7 +23071,7 @@
         <v>0.2590277777777778</v>
       </c>
     </row>
-    <row r="337" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B337" s="22"/>
       <c r="C337" s="24"/>
       <c r="D337" s="18"/>
@@ -23148,7 +23142,7 @@
         <v>0.25069444444444444</v>
       </c>
     </row>
-    <row r="338" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B338" s="22"/>
       <c r="D338" s="18"/>
       <c r="F338" s="8">
@@ -23218,7 +23212,7 @@
         <v>2.8840277777777779</v>
       </c>
     </row>
-    <row r="339" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B339" s="16"/>
       <c r="C339" s="24"/>
       <c r="D339" s="18"/>
@@ -23246,15 +23240,15 @@
       <c r="Z339" s="8"/>
       <c r="AA339" s="21"/>
     </row>
-    <row r="340" spans="1:27" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:27" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A340" s="15">
         <v>83</v>
       </c>
       <c r="B340" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C340" s="17" t="s">
         <v>189</v>
-      </c>
-      <c r="C340" s="17" t="s">
-        <v>190</v>
       </c>
       <c r="D340" s="18">
         <v>305</v>
@@ -23329,7 +23323,7 @@
         <v>0.2590277777777778</v>
       </c>
     </row>
-    <row r="341" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B341" s="23"/>
       <c r="D341" s="18"/>
       <c r="F341" s="8">
@@ -23399,7 +23393,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="342" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B342" s="23"/>
       <c r="D342" s="18"/>
       <c r="F342" s="8">
@@ -23469,7 +23463,7 @@
         <v>2.8840277777777779</v>
       </c>
     </row>
-    <row r="343" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B343" s="23"/>
       <c r="C343" s="24"/>
       <c r="D343" s="18"/>
@@ -23496,15 +23490,15 @@
       <c r="Z343" s="8"/>
       <c r="AA343" s="21"/>
     </row>
-    <row r="344" spans="1:27" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A344" s="15">
         <v>85</v>
       </c>
       <c r="B344" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="C344" s="18" t="s">
         <v>191</v>
-      </c>
-      <c r="C344" s="18" t="s">
-        <v>192</v>
       </c>
       <c r="D344" s="18">
         <v>907</v>
@@ -23579,7 +23573,7 @@
         <v>0.26041666666666669</v>
       </c>
     </row>
-    <row r="345" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B345" s="23"/>
       <c r="D345" s="18"/>
       <c r="F345" s="8">
@@ -23649,7 +23643,7 @@
         <v>0.18611111111111112</v>
       </c>
     </row>
-    <row r="346" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B346" s="23"/>
       <c r="C346" s="24"/>
       <c r="D346" s="18"/>
@@ -23720,7 +23714,7 @@
         <v>2.885416666666667</v>
       </c>
     </row>
-    <row r="347" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B347" s="23"/>
       <c r="F347" s="8"/>
       <c r="G347" s="21"/>
@@ -23745,15 +23739,15 @@
       <c r="Z347" s="8"/>
       <c r="AA347" s="21"/>
     </row>
-    <row r="348" spans="1:27" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A348" s="15">
         <v>86</v>
       </c>
       <c r="B348" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="C348" s="17" t="s">
         <v>193</v>
-      </c>
-      <c r="C348" s="17" t="s">
-        <v>194</v>
       </c>
       <c r="D348" s="18">
         <v>6246</v>
@@ -23828,7 +23822,7 @@
         <v>0.26666666666666666</v>
       </c>
     </row>
-    <row r="349" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B349" s="22"/>
       <c r="C349" s="24"/>
       <c r="D349" s="18"/>
@@ -23899,7 +23893,7 @@
         <v>0.23888888888888887</v>
       </c>
     </row>
-    <row r="350" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B350" s="22"/>
       <c r="D350" s="18"/>
       <c r="F350" s="8">
@@ -23969,7 +23963,7 @@
         <v>2.8916666666666666</v>
       </c>
     </row>
-    <row r="351" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B351" s="16"/>
       <c r="C351" s="24"/>
       <c r="D351" s="18"/>
@@ -23997,15 +23991,15 @@
       <c r="Z351" s="8"/>
       <c r="AA351" s="21"/>
     </row>
-    <row r="352" spans="1:27" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A352" s="15">
         <v>87</v>
       </c>
       <c r="B352" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="C352" s="17" t="s">
         <v>195</v>
-      </c>
-      <c r="C352" s="17" t="s">
-        <v>196</v>
       </c>
       <c r="D352" s="18">
         <v>8183</v>
@@ -24080,7 +24074,7 @@
         <v>0.2673611111111111</v>
       </c>
     </row>
-    <row r="353" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B353" s="22"/>
       <c r="C353" s="24"/>
       <c r="D353" s="18"/>
@@ -24151,7 +24145,7 @@
         <v>0.18541666666666667</v>
       </c>
     </row>
-    <row r="354" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B354" s="22"/>
       <c r="D354" s="18"/>
       <c r="F354" s="8">
@@ -24221,7 +24215,7 @@
         <v>2.8923611111111116</v>
       </c>
     </row>
-    <row r="355" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B355" s="16"/>
       <c r="C355" s="24"/>
       <c r="D355" s="18"/>
@@ -24249,15 +24243,15 @@
       <c r="Z355" s="8"/>
       <c r="AA355" s="21"/>
     </row>
-    <row r="356" spans="1:27" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A356" s="15">
         <v>88</v>
       </c>
       <c r="B356" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="C356" s="17" t="s">
         <v>197</v>
-      </c>
-      <c r="C356" s="17" t="s">
-        <v>198</v>
       </c>
       <c r="D356" s="18">
         <v>5455</v>
@@ -24332,7 +24326,7 @@
         <v>0.2722222222222222</v>
       </c>
     </row>
-    <row r="357" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B357" s="22"/>
       <c r="C357" s="24"/>
       <c r="D357" s="18"/>
@@ -24403,7 +24397,7 @@
         <v>0.32222222222222219</v>
       </c>
     </row>
-    <row r="358" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B358" s="22"/>
       <c r="D358" s="18"/>
       <c r="F358" s="8">
@@ -24473,7 +24467,7 @@
         <v>2.8972222222222221</v>
       </c>
     </row>
-    <row r="359" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B359" s="16"/>
       <c r="C359" s="24"/>
       <c r="D359" s="18"/>
@@ -24501,15 +24495,15 @@
       <c r="Z359" s="8"/>
       <c r="AA359" s="21"/>
     </row>
-    <row r="360" spans="1:27" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A360" s="15">
         <v>89</v>
       </c>
       <c r="B360" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="C360" s="18" t="s">
         <v>199</v>
-      </c>
-      <c r="C360" s="18" t="s">
-        <v>200</v>
       </c>
       <c r="D360" s="18">
         <v>1111</v>
@@ -24584,7 +24578,7 @@
         <v>0.27916666666666667</v>
       </c>
     </row>
-    <row r="361" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B361" s="23"/>
       <c r="D361" s="18"/>
       <c r="F361" s="8">
@@ -24654,7 +24648,7 @@
         <v>0.23819444444444446</v>
       </c>
     </row>
-    <row r="362" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B362" s="23"/>
       <c r="D362" s="18"/>
       <c r="F362" s="8">
@@ -24724,7 +24718,7 @@
         <v>2.9041666666666668</v>
       </c>
     </row>
-    <row r="363" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B363" s="23"/>
       <c r="C363" s="24"/>
       <c r="D363" s="18"/>
@@ -24751,15 +24745,15 @@
       <c r="Z363" s="8"/>
       <c r="AA363" s="21"/>
     </row>
-    <row r="364" spans="1:27" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A364" s="15">
         <v>90</v>
       </c>
       <c r="B364" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="C364" s="18" t="s">
         <v>201</v>
-      </c>
-      <c r="C364" s="18" t="s">
-        <v>202</v>
       </c>
       <c r="D364" s="18">
         <v>420</v>
@@ -24834,7 +24828,7 @@
         <v>0.29652777777777778</v>
       </c>
     </row>
-    <row r="365" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B365" s="22"/>
       <c r="D365" s="18"/>
       <c r="F365" s="8">
@@ -24904,7 +24898,7 @@
         <v>0.15833333333333335</v>
       </c>
     </row>
-    <row r="366" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B366" s="22"/>
       <c r="D366" s="18"/>
       <c r="F366" s="8">
@@ -24974,7 +24968,7 @@
         <v>2.9215277777777779</v>
       </c>
     </row>
-    <row r="367" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B367" s="23"/>
       <c r="D367" s="18"/>
       <c r="F367" s="8"/>
@@ -25000,15 +24994,15 @@
       <c r="Z367" s="8"/>
       <c r="AA367" s="21"/>
     </row>
-    <row r="368" spans="1:27" ht="73.8" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:27" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A368" s="15">
         <v>91</v>
       </c>
       <c r="B368" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="C368" s="17" t="s">
         <v>203</v>
-      </c>
-      <c r="C368" s="17" t="s">
-        <v>204</v>
       </c>
       <c r="D368" s="18">
         <v>2727</v>
@@ -25083,7 +25077,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="369" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B369" s="22"/>
       <c r="C369" s="24"/>
       <c r="D369" s="18"/>
@@ -25154,7 +25148,7 @@
         <v>0.12916666666666668</v>
       </c>
     </row>
-    <row r="370" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B370" s="22"/>
       <c r="D370" s="18"/>
       <c r="F370" s="8">
@@ -25224,7 +25218,7 @@
         <v>2.9250000000000003</v>
       </c>
     </row>
-    <row r="371" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B371" s="16"/>
       <c r="C371" s="24"/>
       <c r="D371" s="18"/>
@@ -25252,15 +25246,15 @@
       <c r="Z371" s="8"/>
       <c r="AA371" s="21"/>
     </row>
-    <row r="372" spans="1:27" ht="50.1" x14ac:dyDescent="0.55000000000000004">
+    <row r="372" spans="1:27" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A372" s="15">
         <v>92</v>
       </c>
       <c r="B372" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="C372" s="17" t="s">
         <v>205</v>
-      </c>
-      <c r="C372" s="17" t="s">
-        <v>206</v>
       </c>
       <c r="D372" s="18">
         <v>1927</v>
@@ -25335,7 +25329,7 @@
         <v>0.30069444444444443</v>
       </c>
     </row>
-    <row r="373" spans="1:27" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B373" s="23"/>
       <c r="D373" s="18"/>
       <c r="F373" s="8">
@@ -25405,7 +25399,7 @@
         <v>0.17013888888888887</v>
       </c>
     </row>
-    <row r="374" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B374" s="23"/>
       <c r="D374" s="18"/>
       <c r="F374" s="8">
@@ -25475,7 +25469,7 @@
         <v>2.9256944444444439</v>
       </c>
     </row>
-    <row r="375" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B375" s="23"/>
       <c r="D375" s="18"/>
       <c r="F375" s="8"/>
@@ -25501,15 +25495,15 @@
       <c r="Z375" s="8"/>
       <c r="AA375" s="21"/>
     </row>
-    <row r="376" spans="1:27" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A376" s="15">
         <v>93</v>
       </c>
       <c r="B376" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="C376" s="17" t="s">
         <v>207</v>
-      </c>
-      <c r="C376" s="17" t="s">
-        <v>208</v>
       </c>
       <c r="D376" s="18">
         <v>8892</v>
@@ -25584,7 +25578,7 @@
         <v>0.30069444444444443</v>
       </c>
     </row>
-    <row r="377" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B377" s="22"/>
       <c r="C377" s="24"/>
       <c r="D377" s="18"/>
@@ -25655,7 +25649,7 @@
         <v>0.16319444444444445</v>
       </c>
     </row>
-    <row r="378" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B378" s="22"/>
       <c r="D378" s="18"/>
       <c r="F378" s="8">
@@ -25725,7 +25719,7 @@
         <v>2.9256944444444448</v>
       </c>
     </row>
-    <row r="379" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B379" s="16"/>
       <c r="C379" s="24"/>
       <c r="D379" s="18"/>
@@ -25753,15 +25747,15 @@
       <c r="Z379" s="8"/>
       <c r="AA379" s="21"/>
     </row>
-    <row r="380" spans="1:27" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A380" s="15">
         <v>94</v>
       </c>
       <c r="B380" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="C380" s="17" t="s">
         <v>209</v>
-      </c>
-      <c r="C380" s="17" t="s">
-        <v>210</v>
       </c>
       <c r="D380" s="18">
         <v>8004</v>
@@ -25836,7 +25830,7 @@
         <v>0.31388888888888888</v>
       </c>
     </row>
-    <row r="381" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B381" s="22"/>
       <c r="C381" s="24"/>
       <c r="D381" s="18"/>
@@ -25907,7 +25901,7 @@
         <v>0.16250000000000001</v>
       </c>
     </row>
-    <row r="382" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B382" s="22"/>
       <c r="D382" s="18"/>
       <c r="F382" s="8">
@@ -25977,7 +25971,7 @@
         <v>2.9388888888888887</v>
       </c>
     </row>
-    <row r="383" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B383" s="16"/>
       <c r="C383" s="24"/>
       <c r="D383" s="18"/>
@@ -26005,15 +25999,15 @@
       <c r="Z383" s="8"/>
       <c r="AA383" s="21"/>
     </row>
-    <row r="384" spans="1:27" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:27" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A384" s="15">
         <v>95</v>
       </c>
       <c r="B384" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="C384" s="17" t="s">
         <v>211</v>
-      </c>
-      <c r="C384" s="17" t="s">
-        <v>212</v>
       </c>
       <c r="D384" s="18">
         <v>1971</v>
@@ -26088,7 +26082,7 @@
         <v>0.32291666666666669</v>
       </c>
     </row>
-    <row r="385" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B385" s="22"/>
       <c r="C385" s="24"/>
       <c r="D385" s="18"/>
@@ -26159,7 +26153,7 @@
         <v>0.16944444444444445</v>
       </c>
     </row>
-    <row r="386" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B386" s="22"/>
       <c r="D386" s="18"/>
       <c r="F386" s="8">
@@ -26229,7 +26223,7 @@
         <v>2.947916666666667</v>
       </c>
     </row>
-    <row r="387" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B387" s="16"/>
       <c r="C387" s="24"/>
       <c r="D387" s="18"/>
@@ -26257,15 +26251,15 @@
       <c r="Z387" s="8"/>
       <c r="AA387" s="21"/>
     </row>
-    <row r="388" spans="1:27" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A388" s="15">
         <v>96</v>
       </c>
       <c r="B388" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="C388" s="17" t="s">
         <v>213</v>
-      </c>
-      <c r="C388" s="17" t="s">
-        <v>214</v>
       </c>
       <c r="D388" s="18">
         <v>5602</v>
@@ -26340,7 +26334,7 @@
         <v>0.32708333333333334</v>
       </c>
     </row>
-    <row r="389" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B389" s="22"/>
       <c r="C389" s="24"/>
       <c r="D389" s="18"/>
@@ -26411,7 +26405,7 @@
         <v>0.16597222222222222</v>
       </c>
     </row>
-    <row r="390" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B390" s="22"/>
       <c r="D390" s="18"/>
       <c r="F390" s="8">
@@ -26481,7 +26475,7 @@
         <v>2.9520833333333334</v>
       </c>
     </row>
-    <row r="391" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B391" s="16"/>
       <c r="C391" s="24"/>
       <c r="D391" s="18"/>
@@ -26509,15 +26503,15 @@
       <c r="Z391" s="8"/>
       <c r="AA391" s="21"/>
     </row>
-    <row r="392" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="15">
         <v>97</v>
       </c>
       <c r="B392" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="C392" s="17" t="s">
         <v>215</v>
-      </c>
-      <c r="C392" s="17" t="s">
-        <v>216</v>
       </c>
       <c r="D392" s="18">
         <v>2485</v>
@@ -26592,7 +26586,7 @@
         <v>0.35138888888888892</v>
       </c>
     </row>
-    <row r="393" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B393" s="22"/>
       <c r="C393" s="24"/>
       <c r="D393" s="18"/>
@@ -26663,7 +26657,7 @@
         <v>0.28680555555555559</v>
       </c>
     </row>
-    <row r="394" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B394" s="22"/>
       <c r="D394" s="18"/>
       <c r="F394" s="8">
@@ -26733,7 +26727,7 @@
         <v>2.9763888888888883</v>
       </c>
     </row>
-    <row r="395" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B395" s="16"/>
       <c r="C395" s="24"/>
       <c r="D395" s="18"/>
@@ -26761,15 +26755,15 @@
       <c r="Z395" s="8"/>
       <c r="AA395" s="21"/>
     </row>
-    <row r="396" spans="1:27" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A396" s="15">
         <v>98</v>
       </c>
       <c r="B396" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="C396" s="18" t="s">
         <v>217</v>
-      </c>
-      <c r="C396" s="18" t="s">
-        <v>218</v>
       </c>
       <c r="D396" s="18">
         <v>911</v>
@@ -26844,7 +26838,7 @@
         <v>0.37291666666666662</v>
       </c>
     </row>
-    <row r="397" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B397" s="23"/>
       <c r="D397" s="18"/>
       <c r="F397" s="8">
@@ -26914,7 +26908,7 @@
         <v>0.1444444444444444</v>
       </c>
     </row>
-    <row r="398" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B398" s="23"/>
       <c r="D398" s="18"/>
       <c r="F398" s="8">
@@ -26984,7 +26978,7 @@
         <v>2.9979166666666663</v>
       </c>
     </row>
-    <row r="399" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B399" s="23"/>
       <c r="C399" s="24"/>
       <c r="D399" s="18"/>
@@ -27011,15 +27005,15 @@
       <c r="Z399" s="8"/>
       <c r="AA399" s="21"/>
     </row>
-    <row r="400" spans="1:27" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A400" s="15">
         <v>99</v>
       </c>
       <c r="B400" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="C400" s="18" t="s">
         <v>219</v>
-      </c>
-      <c r="C400" s="18" t="s">
-        <v>220</v>
       </c>
       <c r="D400" s="18">
         <v>1776</v>
@@ -27094,7 +27088,7 @@
         <v>0.3756944444444445</v>
       </c>
     </row>
-    <row r="401" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B401" s="22"/>
       <c r="D401" s="18"/>
       <c r="F401" s="8">
@@ -27164,7 +27158,7 @@
         <v>0.19236111111111115</v>
       </c>
     </row>
-    <row r="402" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B402" s="23"/>
       <c r="D402" s="18"/>
       <c r="F402" s="8">
@@ -27234,7 +27228,7 @@
         <v>3.0006944444444446</v>
       </c>
     </row>
-    <row r="403" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B403" s="22"/>
       <c r="D403" s="18"/>
       <c r="F403" s="8"/>
@@ -27260,15 +27254,15 @@
       <c r="Z403" s="8"/>
       <c r="AA403" s="21"/>
     </row>
-    <row r="404" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="15">
         <v>100</v>
       </c>
       <c r="B404" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="C404" s="17" t="s">
         <v>221</v>
-      </c>
-      <c r="C404" s="17" t="s">
-        <v>222</v>
       </c>
       <c r="D404" s="18">
         <v>2600</v>
@@ -27343,7 +27337,7 @@
         <v>0.37777777777777777</v>
       </c>
     </row>
-    <row r="405" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B405" s="22"/>
       <c r="C405" s="24"/>
       <c r="D405" s="18"/>
@@ -27414,7 +27408,7 @@
         <v>0.18263888888888888</v>
       </c>
     </row>
-    <row r="406" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B406" s="22"/>
       <c r="D406" s="18"/>
       <c r="F406" s="8">
@@ -27484,7 +27478,7 @@
         <v>3.0027777777777778</v>
       </c>
     </row>
-    <row r="407" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B407" s="16"/>
       <c r="C407" s="24"/>
       <c r="D407" s="18"/>
@@ -27512,15 +27506,15 @@
       <c r="Z407" s="8"/>
       <c r="AA407" s="21"/>
     </row>
-    <row r="408" spans="1:27" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A408" s="15">
         <v>101</v>
       </c>
       <c r="B408" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="C408" s="17" t="s">
         <v>223</v>
-      </c>
-      <c r="C408" s="17" t="s">
-        <v>224</v>
       </c>
       <c r="D408" s="18">
         <v>5000</v>
@@ -27595,7 +27589,7 @@
         <v>0.38055555555555554</v>
       </c>
     </row>
-    <row r="409" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B409" s="22"/>
       <c r="C409" s="24"/>
       <c r="D409" s="18"/>
@@ -27666,7 +27660,7 @@
         <v>0.18541666666666665</v>
       </c>
     </row>
-    <row r="410" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B410" s="22"/>
       <c r="D410" s="18"/>
       <c r="F410" s="8">
@@ -27736,7 +27730,7 @@
         <v>3.0055555555555555</v>
       </c>
     </row>
-    <row r="411" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B411" s="16"/>
       <c r="C411" s="24"/>
       <c r="D411" s="18"/>
@@ -27764,15 +27758,15 @@
       <c r="Z411" s="8"/>
       <c r="AA411" s="21"/>
     </row>
-    <row r="412" spans="1:27" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A412" s="15">
         <v>102</v>
       </c>
       <c r="B412" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="C412" s="17" t="s">
         <v>225</v>
-      </c>
-      <c r="C412" s="17" t="s">
-        <v>226</v>
       </c>
       <c r="D412" s="18">
         <v>41</v>
@@ -27847,7 +27841,7 @@
         <v>0.38125000000000003</v>
       </c>
     </row>
-    <row r="413" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B413" s="23"/>
       <c r="C413" s="24"/>
       <c r="D413" s="18"/>
@@ -27918,7 +27912,7 @@
         <v>0.18333333333333338</v>
       </c>
     </row>
-    <row r="414" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B414" s="23"/>
       <c r="C414" s="24"/>
       <c r="D414" s="18"/>
@@ -27989,7 +27983,7 @@
         <v>3.0062500000000005</v>
       </c>
     </row>
-    <row r="415" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B415" s="23"/>
       <c r="C415" s="24"/>
       <c r="D415" s="18"/>
@@ -28016,15 +28010,15 @@
       <c r="Z415" s="8"/>
       <c r="AA415" s="21"/>
     </row>
-    <row r="416" spans="1:27" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A416" s="15">
         <v>103</v>
       </c>
       <c r="B416" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="C416" s="18" t="s">
         <v>227</v>
-      </c>
-      <c r="C416" s="18" t="s">
-        <v>228</v>
       </c>
       <c r="D416" s="18">
         <v>1022</v>
@@ -28099,7 +28093,7 @@
         <v>0.39930555555555558</v>
       </c>
     </row>
-    <row r="417" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B417" s="22"/>
       <c r="D417" s="18"/>
       <c r="F417" s="8">
@@ -28169,7 +28163,7 @@
         <v>0.17013888888888892</v>
       </c>
     </row>
-    <row r="418" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B418" s="22"/>
       <c r="D418" s="18"/>
       <c r="F418" s="8">
@@ -28239,7 +28233,7 @@
         <v>3.0243055555555554</v>
       </c>
     </row>
-    <row r="419" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B419" s="23"/>
       <c r="D419" s="18"/>
       <c r="F419" s="8"/>
@@ -28265,15 +28259,15 @@
       <c r="Z419" s="8"/>
       <c r="AA419" s="21"/>
     </row>
-    <row r="420" spans="1:27" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A420" s="15">
         <v>104</v>
       </c>
       <c r="B420" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="C420" s="18" t="s">
         <v>229</v>
-      </c>
-      <c r="C420" s="18" t="s">
-        <v>230</v>
       </c>
       <c r="D420" s="18">
         <v>903</v>
@@ -28348,7 +28342,7 @@
         <v>0.40138888888888885</v>
       </c>
     </row>
-    <row r="421" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B421" s="23"/>
       <c r="C421" s="24"/>
       <c r="D421" s="18"/>
@@ -28419,7 +28413,7 @@
         <v>0.18749999999999994</v>
       </c>
     </row>
-    <row r="422" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B422" s="23"/>
       <c r="C422" s="24"/>
       <c r="D422" s="18"/>
@@ -28490,7 +28484,7 @@
         <v>3.026388888888889</v>
       </c>
     </row>
-    <row r="423" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B423" s="23"/>
       <c r="F423" s="8"/>
       <c r="G423" s="21"/>
@@ -28515,15 +28509,15 @@
       <c r="Z423" s="8"/>
       <c r="AA423" s="21"/>
     </row>
-    <row r="424" spans="1:27" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A424" s="15">
         <v>105</v>
       </c>
       <c r="B424" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="C424" s="17" t="s">
         <v>231</v>
-      </c>
-      <c r="C424" s="17" t="s">
-        <v>232</v>
       </c>
       <c r="D424" s="18">
         <v>34</v>
@@ -28598,7 +28592,7 @@
         <v>0.40277777777777773</v>
       </c>
     </row>
-    <row r="425" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B425" s="22"/>
       <c r="C425" s="24"/>
       <c r="D425" s="18"/>
@@ -28669,7 +28663,7 @@
         <v>0.16111111111111107</v>
       </c>
     </row>
-    <row r="426" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B426" s="22"/>
       <c r="D426" s="18"/>
       <c r="F426" s="8">
@@ -28739,7 +28733,7 @@
         <v>3.0277777777777777</v>
       </c>
     </row>
-    <row r="427" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B427" s="16"/>
       <c r="C427" s="24"/>
       <c r="D427" s="18"/>
@@ -28767,15 +28761,15 @@
       <c r="Z427" s="8"/>
       <c r="AA427" s="21"/>
     </row>
-    <row r="428" spans="1:27" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A428" s="15">
         <v>106</v>
       </c>
       <c r="B428" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="C428" s="17" t="s">
         <v>233</v>
-      </c>
-      <c r="C428" s="17" t="s">
-        <v>234</v>
       </c>
       <c r="D428" s="18">
         <v>62</v>
@@ -28850,7 +28844,7 @@
         <v>0.42777777777777781</v>
       </c>
     </row>
-    <row r="429" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B429" s="23"/>
       <c r="D429" s="18"/>
       <c r="F429" s="8">
@@ -28920,7 +28914,7 @@
         <v>0.17847222222222225</v>
       </c>
     </row>
-    <row r="430" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B430" s="22"/>
       <c r="D430" s="18"/>
       <c r="F430" s="8">
@@ -28990,7 +28984,7 @@
         <v>3.0527777777777776</v>
       </c>
     </row>
-    <row r="431" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B431" s="22"/>
       <c r="D431" s="18"/>
       <c r="F431" s="8"/>
@@ -29016,15 +29010,15 @@
       <c r="Z431" s="8"/>
       <c r="AA431" s="21"/>
     </row>
-    <row r="432" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="15">
         <v>107</v>
       </c>
       <c r="B432" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="C432" s="17" t="s">
         <v>235</v>
-      </c>
-      <c r="C432" s="17" t="s">
-        <v>236</v>
       </c>
       <c r="D432" s="18">
         <v>2225</v>
@@ -29099,7 +29093,7 @@
         <v>0.4680555555555555</v>
       </c>
     </row>
-    <row r="433" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B433" s="22"/>
       <c r="C433" s="24"/>
       <c r="D433" s="18"/>
@@ -29170,7 +29164,7 @@
         <v>0.1694444444444444</v>
       </c>
     </row>
-    <row r="434" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B434" s="22"/>
       <c r="D434" s="18"/>
       <c r="F434" s="8">
@@ -29240,7 +29234,7 @@
         <v>3.0930555555555554</v>
       </c>
     </row>
-    <row r="435" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B435" s="16"/>
       <c r="C435" s="24"/>
       <c r="D435" s="18"/>
@@ -29268,15 +29262,15 @@
       <c r="Z435" s="8"/>
       <c r="AA435" s="21"/>
     </row>
-    <row r="436" spans="1:27" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A436" s="15">
         <v>108</v>
       </c>
       <c r="B436" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="C436" s="17" t="s">
         <v>237</v>
-      </c>
-      <c r="C436" s="17" t="s">
-        <v>238</v>
       </c>
       <c r="D436" s="18">
         <v>13</v>
@@ -29351,7 +29345,7 @@
         <v>0.46875</v>
       </c>
     </row>
-    <row r="437" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B437" s="22"/>
       <c r="D437" s="18"/>
       <c r="F437" s="8">
@@ -29421,7 +29415,7 @@
         <v>0.16597222222222224</v>
       </c>
     </row>
-    <row r="438" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B438" s="22"/>
       <c r="D438" s="18"/>
       <c r="F438" s="8">
@@ -29491,7 +29485,7 @@
         <v>3.0937500000000004</v>
       </c>
     </row>
-    <row r="439" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B439" s="23"/>
       <c r="D439" s="18"/>
       <c r="F439" s="8"/>
@@ -29517,15 +29511,15 @@
       <c r="Z439" s="8"/>
       <c r="AA439" s="21"/>
     </row>
-    <row r="440" spans="1:27" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A440" s="15">
         <v>109</v>
       </c>
       <c r="B440" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="C440" s="17" t="s">
         <v>239</v>
-      </c>
-      <c r="C440" s="17" t="s">
-        <v>240</v>
       </c>
       <c r="D440" s="18">
         <v>4080</v>
@@ -29600,7 +29594,7 @@
         <v>0.47500000000000003</v>
       </c>
     </row>
-    <row r="441" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B441" s="22"/>
       <c r="C441" s="24"/>
       <c r="D441" s="18"/>
@@ -29671,7 +29665,7 @@
         <v>0.15208333333333335</v>
       </c>
     </row>
-    <row r="442" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B442" s="22"/>
       <c r="D442" s="18"/>
       <c r="F442" s="8">
@@ -29741,7 +29735,7 @@
         <v>3.1000000000000005</v>
       </c>
     </row>
-    <row r="443" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B443" s="16"/>
       <c r="C443" s="24"/>
       <c r="D443" s="18"/>
@@ -29769,15 +29763,15 @@
       <c r="Z443" s="8"/>
       <c r="AA443" s="21"/>
     </row>
-    <row r="444" spans="1:27" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A444" s="15">
         <v>110</v>
       </c>
       <c r="B444" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="C444" s="18" t="s">
         <v>241</v>
-      </c>
-      <c r="C444" s="18" t="s">
-        <v>242</v>
       </c>
       <c r="D444" s="18">
         <v>777</v>
@@ -29852,7 +29846,7 @@
         <v>0.4777777777777778</v>
       </c>
     </row>
-    <row r="445" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B445" s="23"/>
       <c r="D445" s="18"/>
       <c r="F445" s="8">
@@ -29922,7 +29916,7 @@
         <v>0.15347222222222223</v>
       </c>
     </row>
-    <row r="446" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B446" s="23"/>
       <c r="D446" s="18"/>
       <c r="F446" s="8">
@@ -29992,7 +29986,7 @@
         <v>3.1027777777777779</v>
       </c>
     </row>
-    <row r="447" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B447" s="23"/>
       <c r="C447" s="24"/>
       <c r="D447" s="18"/>
@@ -30019,15 +30013,15 @@
       <c r="Z447" s="8"/>
       <c r="AA447" s="21"/>
     </row>
-    <row r="448" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="15">
         <v>111</v>
       </c>
       <c r="B448" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="C448" s="17" t="s">
         <v>243</v>
-      </c>
-      <c r="C448" s="17" t="s">
-        <v>244</v>
       </c>
       <c r="D448" s="18">
         <v>2468</v>
@@ -30102,7 +30096,7 @@
         <v>0.55347222222222225</v>
       </c>
     </row>
-    <row r="449" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B449" s="22"/>
       <c r="C449" s="24"/>
       <c r="D449" s="18"/>
@@ -30173,7 +30167,7 @@
         <v>0.22222222222222227</v>
       </c>
     </row>
-    <row r="450" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B450" s="22"/>
       <c r="D450" s="18"/>
       <c r="F450" s="8">
@@ -30243,7 +30237,7 @@
         <v>3.1784722222222221</v>
       </c>
     </row>
-    <row r="451" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B451" s="16"/>
       <c r="C451" s="24"/>
       <c r="D451" s="18"/>
@@ -30271,15 +30265,15 @@
       <c r="Z451" s="8"/>
       <c r="AA451" s="21"/>
     </row>
-    <row r="452" spans="1:27" ht="61.5" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:27" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A452" s="15">
         <v>112</v>
       </c>
       <c r="B452" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="C452" s="17" t="s">
         <v>245</v>
-      </c>
-      <c r="C452" s="17" t="s">
-        <v>246</v>
       </c>
       <c r="D452" s="18">
         <v>2070</v>
@@ -30354,7 +30348,7 @@
         <v>0.55902777777777779</v>
       </c>
     </row>
-    <row r="453" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B453" s="22"/>
       <c r="C453" s="24"/>
       <c r="D453" s="18"/>
@@ -30425,7 +30419,7 @@
         <v>0.19513888888888892</v>
       </c>
     </row>
-    <row r="454" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B454" s="22"/>
       <c r="D454" s="18"/>
       <c r="F454" s="8">
@@ -30495,7 +30489,7 @@
         <v>3.1840277777777777</v>
       </c>
     </row>
-    <row r="455" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B455" s="16"/>
       <c r="C455" s="24"/>
       <c r="D455" s="18"/>
@@ -30523,15 +30517,15 @@
       <c r="Z455" s="8"/>
       <c r="AA455" s="21"/>
     </row>
-    <row r="456" spans="1:27" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A456" s="15">
         <v>113</v>
       </c>
       <c r="B456" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="C456" s="18" t="s">
         <v>247</v>
-      </c>
-      <c r="C456" s="18" t="s">
-        <v>248</v>
       </c>
       <c r="D456" s="18">
         <v>1836</v>
@@ -30604,10 +30598,10 @@
         <v>0.58819444444444446</v>
       </c>
     </row>
-    <row r="457" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B457" s="23"/>
       <c r="C457" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D457" s="24"/>
       <c r="F457" s="8">
@@ -30677,10 +30671,10 @@
         <v>0.26527777777777778</v>
       </c>
     </row>
-    <row r="458" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B458" s="23"/>
       <c r="C458" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D458" s="18"/>
       <c r="F458" s="8">
@@ -30750,7 +30744,7 @@
         <v>3.213194444444444</v>
       </c>
     </row>
-    <row r="459" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B459" s="23"/>
       <c r="C459" s="24"/>
       <c r="D459" s="18"/>
@@ -30777,15 +30771,15 @@
       <c r="Z459" s="8"/>
       <c r="AA459" s="21"/>
     </row>
-    <row r="460" spans="1:27" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:27" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A460" s="15">
         <v>114</v>
       </c>
       <c r="B460" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="C460" s="17" t="s">
         <v>251</v>
-      </c>
-      <c r="C460" s="17" t="s">
-        <v>252</v>
       </c>
       <c r="D460" s="18">
         <v>6988</v>
@@ -30860,7 +30854,7 @@
         <v>0.61319444444444449</v>
       </c>
     </row>
-    <row r="461" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B461" s="22"/>
       <c r="C461" s="24"/>
       <c r="D461" s="18"/>
@@ -30931,7 +30925,7 @@
         <v>0.18611111111111117</v>
       </c>
     </row>
-    <row r="462" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B462" s="22"/>
       <c r="D462" s="18"/>
       <c r="F462" s="8">
@@ -31001,7 +30995,7 @@
         <v>3.2381944444444444</v>
       </c>
     </row>
-    <row r="463" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B463" s="16"/>
       <c r="C463" s="24"/>
       <c r="D463" s="18"/>
@@ -31029,15 +31023,15 @@
       <c r="Z463" s="8"/>
       <c r="AA463" s="21"/>
     </row>
-    <row r="464" spans="1:27" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A464" s="15">
         <v>115</v>
       </c>
       <c r="B464" s="33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C464" s="17" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D464" s="18">
         <v>99</v>
@@ -31112,7 +31106,7 @@
         <v>0.65277777777777779</v>
       </c>
     </row>
-    <row r="465" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B465" s="23"/>
       <c r="D465" s="18"/>
       <c r="F465" s="8">
@@ -31182,7 +31176,7 @@
         <v>0.30763888888888891</v>
       </c>
     </row>
-    <row r="466" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B466" s="22"/>
       <c r="D466" s="18"/>
       <c r="F466" s="8">
@@ -31252,7 +31246,7 @@
         <v>3.2777777777777781</v>
       </c>
     </row>
-    <row r="467" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B467" s="23"/>
       <c r="D467" s="18"/>
       <c r="F467" s="8"/>
@@ -31278,15 +31272,15 @@
       <c r="Z467" s="8"/>
       <c r="AA467" s="21"/>
     </row>
-    <row r="468" spans="1:27" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A468" s="15">
         <v>116</v>
       </c>
       <c r="B468" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="C468" s="18" t="s">
         <v>254</v>
-      </c>
-      <c r="C468" s="18" t="s">
-        <v>255</v>
       </c>
       <c r="D468" s="18">
         <v>923</v>
@@ -31361,7 +31355,7 @@
         <v>0.66875000000000007</v>
       </c>
     </row>
-    <row r="469" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B469" s="22"/>
       <c r="C469" s="24"/>
       <c r="D469" s="18"/>
@@ -31432,7 +31426,7 @@
         <v>0.2055555555555556</v>
       </c>
     </row>
-    <row r="470" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B470" s="22"/>
       <c r="D470" s="18"/>
       <c r="F470" s="8">
@@ -31502,7 +31496,7 @@
         <v>3.2937500000000002</v>
       </c>
     </row>
-    <row r="471" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B471" s="16"/>
       <c r="C471" s="24"/>
       <c r="D471" s="18"/>
@@ -31530,15 +31524,15 @@
       <c r="Z471" s="8"/>
       <c r="AA471" s="21"/>
     </row>
-    <row r="472" spans="1:27" ht="61.5" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:27" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A472" s="15">
         <v>117</v>
       </c>
       <c r="B472" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="C472" s="18" t="s">
         <v>256</v>
-      </c>
-      <c r="C472" s="18" t="s">
-        <v>257</v>
       </c>
       <c r="D472" s="18">
         <v>725</v>
@@ -31613,7 +31607,7 @@
         <v>0.67708333333333337</v>
       </c>
     </row>
-    <row r="473" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="473" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B473" s="23"/>
       <c r="D473" s="18"/>
       <c r="F473" s="8">
@@ -31683,7 +31677,7 @@
         <v>0.24861111111111117</v>
       </c>
     </row>
-    <row r="474" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="474" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B474" s="22"/>
       <c r="D474" s="18"/>
       <c r="F474" s="8">
@@ -31753,7 +31747,7 @@
         <v>3.3020833333333335</v>
       </c>
     </row>
-    <row r="475" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B475" s="23"/>
       <c r="D475" s="18"/>
       <c r="F475" s="8"/>
@@ -31779,15 +31773,15 @@
       <c r="Z475" s="8"/>
       <c r="AA475" s="21"/>
     </row>
-    <row r="476" spans="1:27" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:27" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A476" s="15">
         <v>118</v>
       </c>
       <c r="B476" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="C476" s="18" t="s">
         <v>258</v>
-      </c>
-      <c r="C476" s="18" t="s">
-        <v>259</v>
       </c>
       <c r="D476" s="18">
         <v>811</v>
@@ -31860,7 +31854,7 @@
         <v>0.68958333333333333</v>
       </c>
     </row>
-    <row r="477" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="477" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B477" s="22"/>
       <c r="C477" s="24"/>
       <c r="D477" s="18"/>
@@ -31931,7 +31925,7 @@
         <v>0.17500000000000004</v>
       </c>
     </row>
-    <row r="478" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="478" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B478" s="22"/>
       <c r="D478" s="18"/>
       <c r="F478" s="8">
@@ -32001,7 +31995,7 @@
         <v>3.3145833333333332</v>
       </c>
     </row>
-    <row r="479" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="479" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B479" s="16"/>
       <c r="C479" s="24"/>
       <c r="D479" s="18"/>
@@ -32029,15 +32023,15 @@
       <c r="Z479" s="8"/>
       <c r="AA479" s="21"/>
     </row>
-    <row r="480" spans="1:27" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A480" s="15">
         <v>119</v>
       </c>
       <c r="B480" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="C480" s="17" t="s">
         <v>260</v>
-      </c>
-      <c r="C480" s="17" t="s">
-        <v>261</v>
       </c>
       <c r="D480" s="18">
         <v>74</v>
@@ -32112,7 +32106,7 @@
         <v>0.69166666666666676</v>
       </c>
     </row>
-    <row r="481" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B481" s="23"/>
       <c r="D481" s="18"/>
       <c r="F481" s="8">
@@ -32182,7 +32176,7 @@
         <v>0.20000000000000007</v>
       </c>
     </row>
-    <row r="482" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="482" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B482" s="23"/>
       <c r="C482" s="24"/>
       <c r="D482" s="18"/>
@@ -32253,7 +32247,7 @@
         <v>3.3166666666666669</v>
       </c>
     </row>
-    <row r="483" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="483" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B483" s="23"/>
       <c r="C483" s="24"/>
       <c r="D483" s="18"/>
@@ -32280,15 +32274,15 @@
       <c r="Z483" s="8"/>
       <c r="AA483" s="21"/>
     </row>
-    <row r="484" spans="1:27" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="484" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A484" s="15">
         <v>120</v>
       </c>
       <c r="B484" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="C484" s="18" t="s">
         <v>262</v>
-      </c>
-      <c r="C484" s="18" t="s">
-        <v>263</v>
       </c>
       <c r="D484" s="18">
         <v>1414</v>
@@ -32363,7 +32357,7 @@
         <v>0.69444444444444453</v>
       </c>
     </row>
-    <row r="485" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B485" s="23"/>
       <c r="C485" s="24"/>
       <c r="D485" s="18"/>
@@ -32434,7 +32428,7 @@
         <v>0.20069444444444456</v>
       </c>
     </row>
-    <row r="486" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="486" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B486" s="23"/>
       <c r="C486" s="24"/>
       <c r="D486" s="18"/>
@@ -32505,7 +32499,7 @@
         <v>3.3194444444444442</v>
       </c>
     </row>
-    <row r="487" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="487" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B487" s="23"/>
       <c r="F487" s="8"/>
       <c r="G487" s="21"/>
@@ -32530,15 +32524,15 @@
       <c r="Z487" s="8"/>
       <c r="AA487" s="21"/>
     </row>
-    <row r="488" spans="1:27" ht="61.5" x14ac:dyDescent="0.4">
+    <row r="488" spans="1:27" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A488" s="15">
         <v>121</v>
       </c>
       <c r="B488" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="C488" s="18" t="s">
         <v>264</v>
-      </c>
-      <c r="C488" s="18" t="s">
-        <v>265</v>
       </c>
       <c r="D488" s="18">
         <v>1835</v>
@@ -32613,7 +32607,7 @@
         <v>0.69652777777777775</v>
       </c>
     </row>
-    <row r="489" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="489" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B489" s="23"/>
       <c r="C489" s="24"/>
       <c r="D489" s="18"/>
@@ -32684,7 +32678,7 @@
         <v>0.20486111111111105</v>
       </c>
     </row>
-    <row r="490" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="490" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B490" s="23"/>
       <c r="C490" s="24"/>
       <c r="D490" s="18"/>
@@ -32755,7 +32749,7 @@
         <v>3.3215277777777783</v>
       </c>
     </row>
-    <row r="491" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="491" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B491" s="23"/>
       <c r="F491" s="8"/>
       <c r="G491" s="21"/>
@@ -32780,15 +32774,15 @@
       <c r="Z491" s="8"/>
       <c r="AA491" s="21"/>
     </row>
-    <row r="492" spans="1:27" ht="61.5" x14ac:dyDescent="0.4">
+    <row r="492" spans="1:27" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A492" s="15">
         <v>122</v>
       </c>
       <c r="B492" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="C492" s="17" t="s">
         <v>266</v>
-      </c>
-      <c r="C492" s="17" t="s">
-        <v>267</v>
       </c>
       <c r="D492" s="18">
         <v>2112</v>
@@ -32863,7 +32857,7 @@
         <v>0.70486111111111116</v>
       </c>
     </row>
-    <row r="493" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="493" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B493" s="22"/>
       <c r="C493" s="24"/>
       <c r="D493" s="18"/>
@@ -32934,7 +32928,7 @@
         <v>0.18680555555555556</v>
       </c>
     </row>
-    <row r="494" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="494" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B494" s="22"/>
       <c r="D494" s="18"/>
       <c r="F494" s="8">
@@ -33004,7 +32998,7 @@
         <v>3.3298611111111112</v>
       </c>
     </row>
-    <row r="495" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="495" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B495" s="16"/>
       <c r="C495" s="24"/>
       <c r="D495" s="18"/>
@@ -33032,15 +33026,15 @@
       <c r="Z495" s="8"/>
       <c r="AA495" s="21"/>
     </row>
-    <row r="496" spans="1:27" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="496" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A496" s="15">
         <v>123</v>
       </c>
       <c r="B496" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="C496" s="18" t="s">
         <v>268</v>
-      </c>
-      <c r="C496" s="18" t="s">
-        <v>269</v>
       </c>
       <c r="D496" s="18">
         <v>1618</v>
@@ -33115,7 +33109,7 @@
         <v>0.71805555555555556</v>
       </c>
     </row>
-    <row r="497" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="497" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B497" s="22"/>
       <c r="D497" s="18"/>
       <c r="F497" s="8">
@@ -33185,7 +33179,7 @@
         <v>0.15416666666666667</v>
       </c>
     </row>
-    <row r="498" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="498" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B498" s="23"/>
       <c r="D498" s="18"/>
       <c r="F498" s="8">
@@ -33255,7 +33249,7 @@
         <v>3.3430555555555559</v>
       </c>
     </row>
-    <row r="499" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="499" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B499" s="22"/>
       <c r="D499" s="18"/>
       <c r="F499" s="8"/>
@@ -33281,15 +33275,15 @@
       <c r="Z499" s="8"/>
       <c r="AA499" s="21"/>
     </row>
-    <row r="500" spans="1:27" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="500" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A500" s="15">
         <v>124</v>
       </c>
       <c r="B500" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="C500" s="18" t="s">
         <v>270</v>
-      </c>
-      <c r="C500" s="18" t="s">
-        <v>271</v>
       </c>
       <c r="D500" s="18">
         <v>837</v>
@@ -33364,7 +33358,7 @@
         <v>0.71875</v>
       </c>
     </row>
-    <row r="501" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="501" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B501" s="23"/>
       <c r="D501" s="18"/>
       <c r="F501" s="8">
@@ -33434,7 +33428,7 @@
         <v>0.20208333333333328</v>
       </c>
     </row>
-    <row r="502" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="502" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B502" s="23"/>
       <c r="C502" s="24"/>
       <c r="D502" s="18"/>
@@ -33505,7 +33499,7 @@
         <v>3.34375</v>
       </c>
     </row>
-    <row r="503" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="503" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B503" s="23"/>
       <c r="F503" s="8"/>
       <c r="G503" s="21"/>
@@ -33530,15 +33524,15 @@
       <c r="Z503" s="8"/>
       <c r="AA503" s="21"/>
     </row>
-    <row r="504" spans="1:27" ht="50.1" x14ac:dyDescent="0.55000000000000004">
+    <row r="504" spans="1:27" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A504" s="15">
         <v>125</v>
       </c>
       <c r="B504" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="C504" s="18" t="s">
         <v>272</v>
-      </c>
-      <c r="C504" s="18" t="s">
-        <v>273</v>
       </c>
       <c r="D504" s="18">
         <v>1809</v>
@@ -33613,7 +33607,7 @@
         <v>0.73125000000000007</v>
       </c>
     </row>
-    <row r="505" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="505" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B505" s="23"/>
       <c r="D505" s="18"/>
       <c r="F505" s="8">
@@ -33683,7 +33677,7 @@
         <v>0.17638888888888893</v>
       </c>
     </row>
-    <row r="506" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="506" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B506" s="23"/>
       <c r="C506" s="24"/>
       <c r="D506" s="18"/>
@@ -33754,7 +33748,7 @@
         <v>3.3562499999999993</v>
       </c>
     </row>
-    <row r="507" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="507" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B507" s="22"/>
       <c r="C507" s="24"/>
       <c r="D507" s="18"/>
@@ -33781,15 +33775,15 @@
       <c r="Z507" s="8"/>
       <c r="AA507" s="21"/>
     </row>
-    <row r="508" spans="1:27" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="508" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A508" s="15">
         <v>126</v>
       </c>
       <c r="B508" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="C508" s="17" t="s">
         <v>274</v>
-      </c>
-      <c r="C508" s="17" t="s">
-        <v>275</v>
       </c>
       <c r="D508" s="18">
         <v>4567</v>
@@ -33864,7 +33858,7 @@
         <v>0.77361111111111114</v>
       </c>
     </row>
-    <row r="509" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="509" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B509" s="22"/>
       <c r="C509" s="24"/>
       <c r="D509" s="18"/>
@@ -33935,7 +33929,7 @@
         <v>0.21875</v>
       </c>
     </row>
-    <row r="510" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="510" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B510" s="22"/>
       <c r="D510" s="18"/>
       <c r="F510" s="8">
@@ -34005,7 +33999,7 @@
         <v>3.3986111111111112</v>
       </c>
     </row>
-    <row r="511" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="511" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B511" s="16"/>
       <c r="C511" s="24"/>
       <c r="D511" s="18"/>
@@ -34033,15 +34027,15 @@
       <c r="Z511" s="8"/>
       <c r="AA511" s="21"/>
     </row>
-    <row r="512" spans="1:27" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="512" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A512" s="15">
         <v>127</v>
       </c>
       <c r="B512" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="C512" s="18" t="s">
         <v>276</v>
-      </c>
-      <c r="C512" s="18" t="s">
-        <v>277</v>
       </c>
       <c r="D512" s="18">
         <v>419</v>
@@ -34116,7 +34110,7 @@
         <v>0.77430555555555547</v>
       </c>
     </row>
-    <row r="513" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="513" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B513" s="23"/>
       <c r="C513" s="24"/>
       <c r="D513" s="18"/>
@@ -34187,7 +34181,7 @@
         <v>0.1777777777777777</v>
       </c>
     </row>
-    <row r="514" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="514" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B514" s="23"/>
       <c r="C514" s="24"/>
       <c r="D514" s="18"/>
@@ -34258,7 +34252,7 @@
         <v>3.3993055555555562</v>
       </c>
     </row>
-    <row r="515" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="515" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B515" s="23"/>
       <c r="F515" s="8"/>
       <c r="G515" s="21"/>
@@ -34283,15 +34277,15 @@
       <c r="Z515" s="8"/>
       <c r="AA515" s="21"/>
     </row>
-    <row r="516" spans="1:27" ht="98.4" x14ac:dyDescent="0.4">
+    <row r="516" spans="1:27" ht="102" x14ac:dyDescent="0.2">
       <c r="A516" s="15">
         <v>128</v>
       </c>
       <c r="B516" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="C516" s="17" t="s">
         <v>278</v>
-      </c>
-      <c r="C516" s="17" t="s">
-        <v>279</v>
       </c>
       <c r="D516" s="18">
         <v>8008</v>
@@ -34366,7 +34360,7 @@
         <v>0.82986111111111116</v>
       </c>
     </row>
-    <row r="517" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="517" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B517" s="22"/>
       <c r="C517" s="24"/>
       <c r="D517" s="18"/>
@@ -34437,7 +34431,7 @@
         <v>0.16180555555555554</v>
       </c>
     </row>
-    <row r="518" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="518" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B518" s="22"/>
       <c r="D518" s="18"/>
       <c r="F518" s="8">
@@ -34507,7 +34501,7 @@
         <v>3.4548611111111112</v>
       </c>
     </row>
-    <row r="519" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="519" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B519" s="16"/>
       <c r="C519" s="24"/>
       <c r="D519" s="18"/>
@@ -34535,15 +34529,15 @@
       <c r="Z519" s="8"/>
       <c r="AA519" s="21"/>
     </row>
-    <row r="520" spans="1:27" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="520" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A520" s="15">
         <v>129</v>
       </c>
       <c r="B520" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="C520" s="17" t="s">
         <v>280</v>
-      </c>
-      <c r="C520" s="17" t="s">
-        <v>281</v>
       </c>
       <c r="D520" s="18">
         <v>8869</v>
@@ -34618,7 +34612,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="521" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="521" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B521" s="22"/>
       <c r="C521" s="24"/>
       <c r="D521" s="18"/>
@@ -34689,7 +34683,7 @@
         <v>0.17152777777777783</v>
       </c>
     </row>
-    <row r="522" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="522" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B522" s="22"/>
       <c r="D522" s="18"/>
       <c r="F522" s="8">
@@ -34759,7 +34753,7 @@
         <v>3.4583333333333335</v>
       </c>
     </row>
-    <row r="523" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="523" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B523" s="16"/>
       <c r="C523" s="24"/>
       <c r="D523" s="18"/>
@@ -34787,15 +34781,15 @@
       <c r="Z523" s="8"/>
       <c r="AA523" s="21"/>
     </row>
-    <row r="524" spans="1:27" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="524" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A524" s="15">
         <v>130</v>
       </c>
       <c r="B524" s="25" t="s">
+        <v>281</v>
+      </c>
+      <c r="C524" s="17" t="s">
         <v>282</v>
-      </c>
-      <c r="C524" s="17" t="s">
-        <v>283</v>
       </c>
       <c r="D524" s="18">
         <v>7777</v>
@@ -34870,7 +34864,7 @@
         <v>0.8340277777777777</v>
       </c>
     </row>
-    <row r="525" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="525" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B525" s="22"/>
       <c r="C525" s="24"/>
       <c r="D525" s="18"/>
@@ -34941,7 +34935,7 @@
         <v>0.17013888888888884</v>
       </c>
     </row>
-    <row r="526" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="526" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B526" s="22"/>
       <c r="D526" s="18"/>
       <c r="F526" s="8">
@@ -35011,7 +35005,7 @@
         <v>3.459027777777778</v>
       </c>
     </row>
-    <row r="527" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="527" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B527" s="16"/>
       <c r="C527" s="24"/>
       <c r="D527" s="18"/>
@@ -35039,15 +35033,15 @@
       <c r="Z527" s="8"/>
       <c r="AA527" s="21"/>
     </row>
-    <row r="528" spans="1:27" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="528" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A528" s="15">
         <v>131</v>
       </c>
       <c r="B528" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="C528" s="17" t="s">
         <v>284</v>
-      </c>
-      <c r="C528" s="17" t="s">
-        <v>285</v>
       </c>
       <c r="D528" s="18">
         <v>144</v>
@@ -35122,7 +35116,7 @@
         <v>0.84791666666666676</v>
       </c>
     </row>
-    <row r="529" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="529" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B529" s="22"/>
       <c r="D529" s="18"/>
       <c r="F529" s="8">
@@ -35192,7 +35186,7 @@
         <v>0.25625000000000009</v>
       </c>
     </row>
-    <row r="530" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="530" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B530" s="22"/>
       <c r="D530" s="18"/>
       <c r="F530" s="8">
@@ -35262,7 +35256,7 @@
         <v>3.4729166666666669</v>
       </c>
     </row>
-    <row r="531" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="531" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B531" s="23"/>
       <c r="D531" s="18"/>
       <c r="F531" s="8"/>
@@ -35288,15 +35282,15 @@
       <c r="Z531" s="8"/>
       <c r="AA531" s="21"/>
     </row>
-    <row r="532" spans="1:27" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="532" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A532" s="15">
         <v>132</v>
       </c>
       <c r="B532" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="C532" s="18" t="s">
         <v>286</v>
-      </c>
-      <c r="C532" s="18" t="s">
-        <v>287</v>
       </c>
       <c r="D532" s="18">
         <v>1096</v>
@@ -35371,7 +35365,7 @@
         <v>0.85763888888888884</v>
       </c>
     </row>
-    <row r="533" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="533" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B533" s="23"/>
       <c r="C533" s="24"/>
       <c r="D533" s="18"/>
@@ -35442,7 +35436,7 @@
         <v>0.17361111111111105</v>
       </c>
     </row>
-    <row r="534" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="534" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B534" s="22"/>
       <c r="D534" s="18"/>
       <c r="F534" s="8">
@@ -35512,7 +35506,7 @@
         <v>3.4826388888888888</v>
       </c>
     </row>
-    <row r="535" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="535" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B535" s="22"/>
       <c r="D535" s="18"/>
       <c r="F535" s="8"/>
@@ -35538,15 +35532,15 @@
       <c r="Z535" s="8"/>
       <c r="AA535" s="21"/>
     </row>
-    <row r="536" spans="1:27" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="536" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A536" s="15">
         <v>132</v>
       </c>
       <c r="B536" s="25" t="s">
+        <v>287</v>
+      </c>
+      <c r="C536" s="17" t="s">
         <v>288</v>
-      </c>
-      <c r="C536" s="17" t="s">
-        <v>289</v>
       </c>
       <c r="D536" s="18">
         <v>4611</v>
@@ -35621,7 +35615,7 @@
         <v>0.85763888888888884</v>
       </c>
     </row>
-    <row r="537" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="537" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B537" s="22"/>
       <c r="C537" s="24"/>
       <c r="D537" s="18"/>
@@ -35692,7 +35686,7 @@
         <v>0.17638888888888882</v>
       </c>
     </row>
-    <row r="538" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="538" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B538" s="22"/>
       <c r="D538" s="18"/>
       <c r="F538" s="8">
@@ -35762,7 +35756,7 @@
         <v>3.4826388888888888</v>
       </c>
     </row>
-    <row r="539" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="539" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B539" s="16"/>
       <c r="C539" s="24"/>
       <c r="D539" s="18"/>
@@ -35790,15 +35784,15 @@
       <c r="Z539" s="8"/>
       <c r="AA539" s="21"/>
     </row>
-    <row r="540" spans="1:27" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="540" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A540" s="15">
         <v>134</v>
       </c>
       <c r="B540" s="25" t="s">
+        <v>289</v>
+      </c>
+      <c r="C540" s="17" t="s">
         <v>290</v>
-      </c>
-      <c r="C540" s="17" t="s">
-        <v>291</v>
       </c>
       <c r="D540" s="18">
         <v>5300</v>
@@ -35873,7 +35867,7 @@
         <v>0.85833333333333339</v>
       </c>
     </row>
-    <row r="541" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="541" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B541" s="22"/>
       <c r="C541" s="24"/>
       <c r="D541" s="18"/>
@@ -35944,7 +35938,7 @@
         <v>0.18541666666666679</v>
       </c>
     </row>
-    <row r="542" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="542" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B542" s="22"/>
       <c r="D542" s="18"/>
       <c r="F542" s="8">
@@ -36014,7 +36008,7 @@
         <v>3.4833333333333334</v>
       </c>
     </row>
-    <row r="543" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="543" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B543" s="16"/>
       <c r="C543" s="24"/>
       <c r="D543" s="18"/>
@@ -36042,15 +36036,15 @@
       <c r="Z543" s="8"/>
       <c r="AA543" s="21"/>
     </row>
-    <row r="544" spans="1:27" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="544" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A544" s="15">
         <v>135</v>
       </c>
       <c r="B544" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="C544" s="17" t="s">
         <v>292</v>
-      </c>
-      <c r="C544" s="17" t="s">
-        <v>293</v>
       </c>
       <c r="D544" s="18">
         <v>3003</v>
@@ -36125,7 +36119,7 @@
         <v>0.90625</v>
       </c>
     </row>
-    <row r="545" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="545" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B545" s="22"/>
       <c r="C545" s="24"/>
       <c r="D545" s="18"/>
@@ -36196,7 +36190,7 @@
         <v>0.15833333333333333</v>
       </c>
     </row>
-    <row r="546" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="546" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B546" s="22"/>
       <c r="D546" s="18"/>
       <c r="F546" s="8">
@@ -36266,7 +36260,7 @@
         <v>3.53125</v>
       </c>
     </row>
-    <row r="547" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="547" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B547" s="16"/>
       <c r="C547" s="24"/>
       <c r="D547" s="18"/>
@@ -36294,15 +36288,15 @@
       <c r="Z547" s="8"/>
       <c r="AA547" s="21"/>
     </row>
-    <row r="548" spans="1:27" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="548" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A548" s="15">
         <v>136</v>
       </c>
       <c r="B548" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="C548" s="17" t="s">
         <v>294</v>
-      </c>
-      <c r="C548" s="17" t="s">
-        <v>295</v>
       </c>
       <c r="D548" s="18">
         <v>8276</v>
@@ -36377,10 +36371,10 @@
         <v>0.92083333333333339</v>
       </c>
     </row>
-    <row r="549" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="549" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B549" s="22"/>
       <c r="C549" s="35" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D549" s="18"/>
       <c r="F549" s="8">
@@ -36450,10 +36444,10 @@
         <v>0.2597222222222223</v>
       </c>
     </row>
-    <row r="550" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="550" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B550" s="22"/>
       <c r="C550" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D550" s="18"/>
       <c r="F550" s="8">
@@ -36523,7 +36517,7 @@
         <v>3.5458333333333334</v>
       </c>
     </row>
-    <row r="551" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="551" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B551" s="16"/>
       <c r="C551" s="24"/>
       <c r="D551" s="18"/>
@@ -36551,15 +36545,15 @@
       <c r="Z551" s="8"/>
       <c r="AA551" s="21"/>
     </row>
-    <row r="552" spans="1:27" ht="61.5" x14ac:dyDescent="0.4">
+    <row r="552" spans="1:27" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A552" s="15">
         <v>137</v>
       </c>
       <c r="B552" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="C552" s="18" t="s">
         <v>298</v>
-      </c>
-      <c r="C552" s="18" t="s">
-        <v>299</v>
       </c>
       <c r="D552" s="18">
         <v>1676</v>
@@ -36634,7 +36628,7 @@
         <v>0.9770833333333333</v>
       </c>
     </row>
-    <row r="553" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="553" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C553" s="24"/>
       <c r="D553" s="18"/>
       <c r="F553" s="8">
@@ -36704,7 +36698,7 @@
         <v>0.16111111111111109</v>
       </c>
     </row>
-    <row r="554" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="554" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C554" s="24"/>
       <c r="D554" s="18"/>
       <c r="F554" s="8">
@@ -36774,7 +36768,7 @@
         <v>3.6020833333333333</v>
       </c>
     </row>
-    <row r="555" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="555" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F555" s="8"/>
       <c r="G555" s="21"/>
       <c r="H555" s="8"/>
@@ -36798,15 +36792,15 @@
       <c r="Z555" s="8"/>
       <c r="AA555" s="21"/>
     </row>
-    <row r="556" spans="1:27" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="556" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A556" s="15">
         <v>138</v>
       </c>
       <c r="B556" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="C556" s="17" t="s">
         <v>300</v>
-      </c>
-      <c r="C556" s="17" t="s">
-        <v>301</v>
       </c>
       <c r="D556" s="18">
         <v>8888</v>
@@ -36881,7 +36875,7 @@
         <v>0.99583333333333324</v>
       </c>
     </row>
-    <row r="557" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="557" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B557" s="22"/>
       <c r="C557" s="24"/>
       <c r="D557" s="18"/>
@@ -36952,7 +36946,7 @@
         <v>0.18819444444444433</v>
       </c>
     </row>
-    <row r="558" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="558" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B558" s="22"/>
       <c r="D558" s="18"/>
       <c r="F558" s="8">
@@ -37022,7 +37016,7 @@
         <v>3.6208333333333336</v>
       </c>
     </row>
-    <row r="559" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="559" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B559" s="16"/>
       <c r="C559" s="24"/>
       <c r="D559" s="18"/>
@@ -37050,15 +37044,15 @@
       <c r="Z559" s="8"/>
       <c r="AA559" s="21"/>
     </row>
-    <row r="560" spans="1:27" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="560" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A560" s="15">
         <v>139</v>
       </c>
       <c r="B560" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="C560" s="17" t="s">
         <v>302</v>
-      </c>
-      <c r="C560" s="17" t="s">
-        <v>303</v>
       </c>
       <c r="D560" s="18">
         <v>1950</v>
@@ -37133,10 +37127,10 @@
         <v>3.4722222222222224E-2</v>
       </c>
     </row>
-    <row r="561" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="561" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B561" s="23"/>
       <c r="C561" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D561" s="18"/>
       <c r="F561" s="8">
@@ -37206,10 +37200,10 @@
         <v>0.26875000000000004</v>
       </c>
     </row>
-    <row r="562" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="562" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B562" s="23"/>
       <c r="C562" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D562" s="18"/>
       <c r="F562" s="8">
@@ -37279,7 +37273,7 @@
         <v>3.6597222222222223</v>
       </c>
     </row>
-    <row r="563" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="563" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B563" s="23"/>
       <c r="F563" s="8"/>
       <c r="G563" s="21"/>
@@ -37304,15 +37298,15 @@
       <c r="Z563" s="8"/>
       <c r="AA563" s="21"/>
     </row>
-    <row r="564" spans="1:27" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="564" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A564" s="15">
         <v>140</v>
       </c>
       <c r="B564" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="C564" s="17" t="s">
         <v>304</v>
-      </c>
-      <c r="C564" s="17" t="s">
-        <v>305</v>
       </c>
       <c r="D564" s="18">
         <v>8181</v>
@@ -37387,7 +37381,7 @@
         <v>4.7916666666666663E-2</v>
       </c>
     </row>
-    <row r="565" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="565" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B565" s="22"/>
       <c r="C565" s="24"/>
       <c r="D565" s="18"/>
@@ -37458,7 +37452,7 @@
         <v>0.20347222222222228</v>
       </c>
     </row>
-    <row r="566" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="566" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B566" s="22"/>
       <c r="D566" s="18"/>
       <c r="F566" s="8">
@@ -37528,7 +37522,7 @@
         <v>3.6729166666666675</v>
       </c>
     </row>
-    <row r="567" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="567" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B567" s="16"/>
       <c r="C567" s="24"/>
       <c r="D567" s="18"/>
@@ -37556,15 +37550,15 @@
       <c r="Z567" s="8"/>
       <c r="AA567" s="21"/>
     </row>
-    <row r="568" spans="1:27" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="568" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A568" s="15">
         <v>141</v>
       </c>
       <c r="B568" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="C568" s="17" t="s">
         <v>306</v>
-      </c>
-      <c r="C568" s="17" t="s">
-        <v>307</v>
       </c>
       <c r="D568" s="18">
         <v>3168</v>
@@ -37639,7 +37633,7 @@
         <v>7.2222222222222229E-2</v>
       </c>
     </row>
-    <row r="569" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="569" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B569" s="22"/>
       <c r="C569" s="24"/>
       <c r="D569" s="18"/>
@@ -37710,7 +37704,7 @@
         <v>0.22847222222222219</v>
       </c>
     </row>
-    <row r="570" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="570" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B570" s="22"/>
       <c r="D570" s="18"/>
       <c r="F570" s="8">
@@ -37780,7 +37774,7 @@
         <v>3.697222222222222</v>
       </c>
     </row>
-    <row r="571" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="571" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B571" s="16"/>
       <c r="C571" s="24"/>
       <c r="D571" s="18"/>
@@ -37808,15 +37802,15 @@
       <c r="Z571" s="8"/>
       <c r="AA571" s="21"/>
     </row>
-    <row r="572" spans="1:27" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="572" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A572" s="15">
         <v>142</v>
       </c>
       <c r="B572" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="C572" s="17" t="s">
         <v>308</v>
-      </c>
-      <c r="C572" s="17" t="s">
-        <v>309</v>
       </c>
       <c r="D572" s="18">
         <v>72</v>
@@ -37891,7 +37885,7 @@
         <v>0.43888888888888888</v>
       </c>
     </row>
-    <row r="573" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="573" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B573" s="23"/>
       <c r="D573" s="18"/>
       <c r="F573" s="8">
@@ -37961,7 +37955,7 @@
         <v>0.59791666666666665</v>
       </c>
     </row>
-    <row r="574" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="574" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B574" s="22"/>
       <c r="D574" s="18"/>
       <c r="F574" s="8">
@@ -38031,7 +38025,7 @@
         <v>4.0638888888888891</v>
       </c>
     </row>
-    <row r="575" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="575" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B575" s="23"/>
       <c r="D575" s="18"/>
       <c r="F575" s="8"/>
@@ -38057,15 +38051,15 @@
       <c r="Z575" s="8"/>
       <c r="AA575" s="21"/>
     </row>
-    <row r="576" spans="1:27" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="576" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A576" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B576" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="B576" s="25" t="s">
+      <c r="C576" s="17" t="s">
         <v>311</v>
-      </c>
-      <c r="C576" s="17" t="s">
-        <v>312</v>
       </c>
       <c r="D576" s="18">
         <v>5027</v>
@@ -38136,7 +38130,7 @@
       <c r="Z576" s="20"/>
       <c r="AA576" s="21"/>
     </row>
-    <row r="577" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="577" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B577" s="22"/>
       <c r="C577" s="24"/>
       <c r="D577" s="18"/>
@@ -38203,7 +38197,7 @@
       <c r="Z577" s="8"/>
       <c r="AA577" s="21"/>
     </row>
-    <row r="578" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="578" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B578" s="22"/>
       <c r="D578" s="18"/>
       <c r="F578" s="8">
@@ -38269,7 +38263,7 @@
       <c r="Z578" s="8"/>
       <c r="AA578" s="21"/>
     </row>
-    <row r="579" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="579" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B579" s="16"/>
       <c r="C579" s="24"/>
       <c r="D579" s="18"/>
@@ -38297,15 +38291,15 @@
       <c r="Z579" s="8"/>
       <c r="AA579" s="21"/>
     </row>
-    <row r="580" spans="1:27" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="580" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A580" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B580" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="B580" s="26" t="s">
-        <v>311</v>
-      </c>
       <c r="C580" s="17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D580" s="18">
         <v>1912</v>
@@ -38368,7 +38362,7 @@
       <c r="Z580" s="20"/>
       <c r="AA580" s="21"/>
     </row>
-    <row r="581" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="581" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B581" s="23"/>
       <c r="C581" s="24"/>
       <c r="D581" s="18"/>
@@ -38427,7 +38421,7 @@
       <c r="Z581" s="8"/>
       <c r="AA581" s="21"/>
     </row>
-    <row r="582" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="582" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B582" s="23"/>
       <c r="C582" s="24"/>
       <c r="D582" s="18"/>
@@ -38486,7 +38480,7 @@
       <c r="Z582" s="8"/>
       <c r="AA582" s="21"/>
     </row>
-    <row r="583" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="583" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B583" s="23"/>
       <c r="F583" s="8"/>
       <c r="G583" s="21"/>
@@ -38511,15 +38505,15 @@
       <c r="Z583" s="8"/>
       <c r="AA583" s="21"/>
     </row>
-    <row r="584" spans="1:27" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="584" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A584" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B584" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="C584" s="17" t="s">
         <v>314</v>
-      </c>
-      <c r="C584" s="17" t="s">
-        <v>315</v>
       </c>
       <c r="D584" s="18">
         <v>42</v>
@@ -38578,7 +38572,7 @@
       <c r="Z584" s="20"/>
       <c r="AA584" s="21"/>
     </row>
-    <row r="585" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="585" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B585" s="22"/>
       <c r="D585" s="18"/>
       <c r="F585" s="8">
@@ -38632,7 +38626,7 @@
       <c r="Z585" s="8"/>
       <c r="AA585" s="21"/>
     </row>
-    <row r="586" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="586" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B586" s="22"/>
       <c r="D586" s="18"/>
       <c r="F586" s="8">
@@ -38686,7 +38680,7 @@
       <c r="Z586" s="8"/>
       <c r="AA586" s="21"/>
     </row>
-    <row r="587" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="587" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B587" s="23"/>
       <c r="D587" s="18"/>
       <c r="F587" s="8"/>
@@ -38712,15 +38706,15 @@
       <c r="Z587" s="8"/>
       <c r="AA587" s="21"/>
     </row>
-    <row r="588" spans="1:27" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="588" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A588" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B588" s="30" t="s">
+        <v>315</v>
+      </c>
+      <c r="C588" s="18" t="s">
         <v>316</v>
-      </c>
-      <c r="C588" s="18" t="s">
-        <v>317</v>
       </c>
       <c r="D588" s="18">
         <v>1717</v>
@@ -38771,7 +38765,7 @@
       <c r="Z588" s="20"/>
       <c r="AA588" s="21"/>
     </row>
-    <row r="589" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="589" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B589" s="23"/>
       <c r="D589" s="18"/>
       <c r="F589" s="8">
@@ -38817,7 +38811,7 @@
       <c r="Z589" s="8"/>
       <c r="AA589" s="21"/>
     </row>
-    <row r="590" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="590" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B590" s="23"/>
       <c r="D590" s="18"/>
       <c r="F590" s="8">
@@ -38863,7 +38857,7 @@
       <c r="Z590" s="8"/>
       <c r="AA590" s="21"/>
     </row>
-    <row r="591" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="591" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B591" s="23"/>
       <c r="D591" s="18"/>
       <c r="F591" s="8"/>
@@ -38889,15 +38883,15 @@
       <c r="Z591" s="8"/>
       <c r="AA591" s="21"/>
     </row>
-    <row r="592" spans="1:27" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="592" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A592" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B592" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="C592" s="17" t="s">
         <v>318</v>
-      </c>
-      <c r="C592" s="17" t="s">
-        <v>319</v>
       </c>
       <c r="D592" s="18">
         <v>78</v>
@@ -38948,7 +38942,7 @@
       <c r="Z592" s="20"/>
       <c r="AA592" s="21"/>
     </row>
-    <row r="593" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="593" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B593" s="23"/>
       <c r="D593" s="18"/>
       <c r="F593" s="8">
@@ -38994,7 +38988,7 @@
       <c r="Z593" s="8"/>
       <c r="AA593" s="21"/>
     </row>
-    <row r="594" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="594" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B594" s="23"/>
       <c r="D594" s="18"/>
       <c r="F594" s="8">
@@ -39040,7 +39034,7 @@
       <c r="Z594" s="8"/>
       <c r="AA594" s="21"/>
     </row>
-    <row r="595" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="595" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B595" s="23"/>
       <c r="F595" s="8"/>
       <c r="G595" s="21"/>
@@ -39065,15 +39059,15 @@
       <c r="Z595" s="8"/>
       <c r="AA595" s="21"/>
     </row>
-    <row r="596" spans="1:27" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="596" spans="1:27" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A596" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B596" s="25" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C596" s="17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D596" s="18">
         <v>4832</v>
@@ -39124,7 +39118,7 @@
       <c r="Z596" s="20"/>
       <c r="AA596" s="21"/>
     </row>
-    <row r="597" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="597" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B597" s="22"/>
       <c r="C597" s="24"/>
       <c r="D597" s="18"/>
@@ -39171,7 +39165,7 @@
       <c r="Z597" s="8"/>
       <c r="AA597" s="21"/>
     </row>
-    <row r="598" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="598" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B598" s="22"/>
       <c r="D598" s="18"/>
       <c r="F598" s="8">
@@ -39217,7 +39211,7 @@
       <c r="Z598" s="8"/>
       <c r="AA598" s="21"/>
     </row>
-    <row r="599" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="599" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B599" s="16"/>
       <c r="C599" s="24"/>
       <c r="D599" s="18"/>
@@ -39245,15 +39239,15 @@
       <c r="Z599" s="8"/>
       <c r="AA599" s="21"/>
     </row>
-    <row r="600" spans="1:27" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="600" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A600" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B600" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="C600" s="18" t="s">
         <v>321</v>
-      </c>
-      <c r="C600" s="18" t="s">
-        <v>322</v>
       </c>
       <c r="D600" s="18">
         <v>1876</v>
@@ -39304,7 +39298,7 @@
       <c r="Z600" s="20"/>
       <c r="AA600" s="21"/>
     </row>
-    <row r="601" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="601" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B601" s="23"/>
       <c r="D601" s="18"/>
       <c r="F601" s="8">
@@ -39350,7 +39344,7 @@
       <c r="Z601" s="8"/>
       <c r="AA601" s="21"/>
     </row>
-    <row r="602" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="602" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B602" s="23"/>
       <c r="D602" s="18"/>
       <c r="F602" s="8">
@@ -39396,7 +39390,7 @@
       <c r="Z602" s="8"/>
       <c r="AA602" s="21"/>
     </row>
-    <row r="603" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="603" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B603" s="23"/>
       <c r="C603" s="24"/>
       <c r="D603" s="18"/>
@@ -39423,15 +39417,15 @@
       <c r="Z603" s="8"/>
       <c r="AA603" s="21"/>
     </row>
-    <row r="604" spans="1:27" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="604" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A604" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B604" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C604" s="17" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D604" s="18">
         <v>224</v>
@@ -39478,7 +39472,7 @@
       <c r="Z604" s="20"/>
       <c r="AA604" s="21"/>
     </row>
-    <row r="605" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="605" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B605" s="23"/>
       <c r="D605" s="18"/>
       <c r="F605" s="8">
@@ -39520,7 +39514,7 @@
       <c r="Z605" s="8"/>
       <c r="AA605" s="21"/>
     </row>
-    <row r="606" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="606" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B606" s="23"/>
       <c r="D606" s="18"/>
       <c r="F606" s="8">
@@ -39562,7 +39556,7 @@
       <c r="Z606" s="8"/>
       <c r="AA606" s="21"/>
     </row>
-    <row r="607" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="607" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B607" s="23"/>
       <c r="C607" s="24"/>
       <c r="D607" s="18"/>
@@ -39589,15 +39583,15 @@
       <c r="Z607" s="8"/>
       <c r="AA607" s="21"/>
     </row>
-    <row r="608" spans="1:27" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="608" spans="1:27" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A608" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B608" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C608" s="18" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D608" s="18">
         <v>555</v>
@@ -39644,7 +39638,7 @@
       <c r="Z608" s="20"/>
       <c r="AA608" s="21"/>
     </row>
-    <row r="609" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="609" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B609" s="22"/>
       <c r="C609" s="24"/>
       <c r="D609" s="18"/>
@@ -39687,7 +39681,7 @@
       <c r="Z609" s="8"/>
       <c r="AA609" s="21"/>
     </row>
-    <row r="610" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="610" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B610" s="22"/>
       <c r="D610" s="18"/>
       <c r="F610" s="8">
@@ -39729,7 +39723,7 @@
       <c r="Z610" s="8"/>
       <c r="AA610" s="21"/>
     </row>
-    <row r="611" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="611" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B611" s="16"/>
       <c r="C611" s="24"/>
       <c r="D611" s="18"/>
@@ -39757,15 +39751,15 @@
       <c r="Z611" s="8"/>
       <c r="AA611" s="21"/>
     </row>
-    <row r="612" spans="1:27" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="612" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A612" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B612" s="25" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C612" s="17" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D612" s="18">
         <v>9969</v>
@@ -39812,7 +39806,7 @@
       <c r="Z612" s="20"/>
       <c r="AA612" s="21"/>
     </row>
-    <row r="613" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="613" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B613" s="22"/>
       <c r="C613" s="24"/>
       <c r="D613" s="18"/>
@@ -39855,7 +39849,7 @@
       <c r="Z613" s="8"/>
       <c r="AA613" s="21"/>
     </row>
-    <row r="614" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="614" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B614" s="22"/>
       <c r="D614" s="18"/>
       <c r="F614" s="8">
@@ -39897,7 +39891,7 @@
       <c r="Z614" s="8"/>
       <c r="AA614" s="21"/>
     </row>
-    <row r="615" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="615" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B615" s="16"/>
       <c r="C615" s="24"/>
       <c r="D615" s="18"/>
@@ -39925,15 +39919,15 @@
       <c r="Z615" s="8"/>
       <c r="AA615" s="21"/>
     </row>
-    <row r="616" spans="1:27" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="616" spans="1:27" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A616" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B616" s="23" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C616" s="17" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D616" s="18">
         <v>1947</v>
@@ -39980,7 +39974,7 @@
       <c r="Z616" s="20"/>
       <c r="AA616" s="21"/>
     </row>
-    <row r="617" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="617" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B617" s="23"/>
       <c r="C617" s="24"/>
       <c r="D617" s="18"/>
@@ -40023,7 +40017,7 @@
       <c r="Z617" s="8"/>
       <c r="AA617" s="21"/>
     </row>
-    <row r="618" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="618" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B618" s="23"/>
       <c r="C618" s="24"/>
       <c r="D618" s="18"/>
@@ -40066,7 +40060,7 @@
       <c r="Z618" s="8"/>
       <c r="AA618" s="21"/>
     </row>
-    <row r="619" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="619" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B619" s="23"/>
       <c r="F619" s="8"/>
       <c r="G619" s="21"/>
@@ -40091,15 +40085,15 @@
       <c r="Z619" s="8"/>
       <c r="AA619" s="21"/>
     </row>
-    <row r="620" spans="1:27" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="620" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A620" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B620" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="C620" s="18" t="s">
         <v>327</v>
-      </c>
-      <c r="C620" s="18" t="s">
-        <v>328</v>
       </c>
       <c r="D620" s="18">
         <v>3</v>
@@ -40146,7 +40140,7 @@
       <c r="Z620" s="20"/>
       <c r="AA620" s="21"/>
     </row>
-    <row r="621" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="621" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B621" s="23"/>
       <c r="D621" s="18"/>
       <c r="F621" s="8">
@@ -40188,7 +40182,7 @@
       <c r="Z621" s="8"/>
       <c r="AA621" s="21"/>
     </row>
-    <row r="622" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="622" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B622" s="23"/>
       <c r="D622" s="18"/>
       <c r="F622" s="8">
@@ -40230,7 +40224,7 @@
       <c r="Z622" s="8"/>
       <c r="AA622" s="21"/>
     </row>
-    <row r="623" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="623" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B623" s="23"/>
       <c r="D623" s="18"/>
       <c r="F623" s="8"/>
@@ -40256,15 +40250,15 @@
       <c r="Z623" s="8"/>
       <c r="AA623" s="21"/>
     </row>
-    <row r="624" spans="1:27" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="624" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A624" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B624" s="25" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C624" s="17" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D624" s="18">
         <v>2907</v>
@@ -40307,7 +40301,7 @@
       <c r="Z624" s="20"/>
       <c r="AA624" s="21"/>
     </row>
-    <row r="625" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="625" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B625" s="22"/>
       <c r="C625" s="24"/>
       <c r="D625" s="18"/>
@@ -40346,7 +40340,7 @@
       <c r="Z625" s="8"/>
       <c r="AA625" s="21"/>
     </row>
-    <row r="626" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="626" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B626" s="22"/>
       <c r="D626" s="18"/>
       <c r="F626" s="8">
@@ -40384,7 +40378,7 @@
       <c r="Z626" s="8"/>
       <c r="AA626" s="21"/>
     </row>
-    <row r="627" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="627" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B627" s="16"/>
       <c r="C627" s="24"/>
       <c r="D627" s="18"/>
@@ -40412,15 +40406,15 @@
       <c r="Z627" s="8"/>
       <c r="AA627" s="21"/>
     </row>
-    <row r="628" spans="1:27" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="628" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A628" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B628" s="23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C628" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D628" s="18">
         <v>912</v>
@@ -40463,7 +40457,7 @@
       <c r="Z628" s="20"/>
       <c r="AA628" s="21"/>
     </row>
-    <row r="629" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="629" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B629" s="23"/>
       <c r="C629" s="24"/>
       <c r="D629" s="18"/>
@@ -40502,7 +40496,7 @@
       <c r="Z629" s="8"/>
       <c r="AA629" s="21"/>
     </row>
-    <row r="630" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="630" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B630" s="23"/>
       <c r="C630" s="24"/>
       <c r="D630" s="18"/>
@@ -40541,7 +40535,7 @@
       <c r="Z630" s="8"/>
       <c r="AA630" s="21"/>
     </row>
-    <row r="631" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="631" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B631" s="23"/>
       <c r="F631" s="8"/>
       <c r="G631" s="21"/>
@@ -40566,15 +40560,15 @@
       <c r="Z631" s="8"/>
       <c r="AA631" s="21"/>
     </row>
-    <row r="632" spans="1:27" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="632" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A632" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B632" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C632" s="18" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D632" s="18">
         <v>757</v>
@@ -40617,7 +40611,7 @@
       <c r="Z632" s="20"/>
       <c r="AA632" s="21"/>
     </row>
-    <row r="633" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="633" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B633" s="22"/>
       <c r="C633" s="24"/>
       <c r="D633" s="18"/>
@@ -40656,7 +40650,7 @@
       <c r="Z633" s="8"/>
       <c r="AA633" s="21"/>
     </row>
-    <row r="634" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="634" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B634" s="22"/>
       <c r="D634" s="18"/>
       <c r="F634" s="8">
@@ -40694,7 +40688,7 @@
       <c r="Z634" s="8"/>
       <c r="AA634" s="21"/>
     </row>
-    <row r="635" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="635" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B635" s="16"/>
       <c r="C635" s="24"/>
       <c r="D635" s="18"/>
@@ -40722,15 +40716,15 @@
       <c r="Z635" s="8"/>
       <c r="AA635" s="21"/>
     </row>
-    <row r="636" spans="1:27" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="636" spans="1:27" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A636" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B636" s="23" t="s">
+        <v>331</v>
+      </c>
+      <c r="C636" s="17" t="s">
         <v>332</v>
-      </c>
-      <c r="C636" s="17" t="s">
-        <v>333</v>
       </c>
       <c r="D636" s="18">
         <v>1961</v>
@@ -40773,7 +40767,7 @@
       <c r="Z636" s="20"/>
       <c r="AA636" s="21"/>
     </row>
-    <row r="637" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="637" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B637" s="23"/>
       <c r="C637" s="24"/>
       <c r="D637" s="18"/>
@@ -40812,7 +40806,7 @@
       <c r="Z637" s="8"/>
       <c r="AA637" s="21"/>
     </row>
-    <row r="638" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="638" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B638" s="23"/>
       <c r="C638" s="24"/>
       <c r="D638" s="18"/>
@@ -40851,7 +40845,7 @@
       <c r="Z638" s="8"/>
       <c r="AA638" s="21"/>
     </row>
-    <row r="639" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="639" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B639" s="23"/>
       <c r="F639" s="8"/>
       <c r="G639" s="21"/>
@@ -40876,15 +40870,15 @@
       <c r="Z639" s="8"/>
       <c r="AA639" s="21"/>
     </row>
-    <row r="640" spans="1:27" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="640" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A640" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B640" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C640" s="18" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D640" s="18">
         <v>808</v>
@@ -40927,7 +40921,7 @@
       <c r="Z640" s="20"/>
       <c r="AA640" s="21"/>
     </row>
-    <row r="641" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="641" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B641" s="22"/>
       <c r="D641" s="18"/>
       <c r="F641" s="8">
@@ -40965,7 +40959,7 @@
       <c r="Z641" s="8"/>
       <c r="AA641" s="21"/>
     </row>
-    <row r="642" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="642" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B642" s="23"/>
       <c r="D642" s="18"/>
       <c r="F642" s="8">
@@ -41003,7 +40997,7 @@
       <c r="Z642" s="8"/>
       <c r="AA642" s="21"/>
     </row>
-    <row r="643" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="643" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B643" s="22"/>
       <c r="D643" s="18"/>
       <c r="F643" s="8"/>
@@ -41029,15 +41023,15 @@
       <c r="Z643" s="8"/>
       <c r="AA643" s="21"/>
     </row>
-    <row r="644" spans="1:27" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="644" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A644" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B644" s="25" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C644" s="17" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D644" s="18">
         <v>9418</v>
@@ -41076,7 +41070,7 @@
       <c r="Z644" s="20"/>
       <c r="AA644" s="21"/>
     </row>
-    <row r="645" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="645" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B645" s="22"/>
       <c r="C645" s="24"/>
       <c r="D645" s="18"/>
@@ -41111,7 +41105,7 @@
       <c r="Z645" s="8"/>
       <c r="AA645" s="21"/>
     </row>
-    <row r="646" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="646" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B646" s="22"/>
       <c r="D646" s="18"/>
       <c r="F646" s="8">
@@ -41145,7 +41139,7 @@
       <c r="Z646" s="8"/>
       <c r="AA646" s="21"/>
     </row>
-    <row r="647" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="647" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B647" s="16"/>
       <c r="C647" s="24"/>
       <c r="D647" s="18"/>
@@ -41173,15 +41167,15 @@
       <c r="Z647" s="8"/>
       <c r="AA647" s="21"/>
     </row>
-    <row r="648" spans="1:27" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="648" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A648" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B648" s="25" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C648" s="17" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D648" s="18">
         <v>6659</v>
@@ -41220,7 +41214,7 @@
       <c r="Z648" s="20"/>
       <c r="AA648" s="21"/>
     </row>
-    <row r="649" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="649" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B649" s="22"/>
       <c r="C649" s="24"/>
       <c r="D649" s="18"/>
@@ -41255,7 +41249,7 @@
       <c r="Z649" s="8"/>
       <c r="AA649" s="21"/>
     </row>
-    <row r="650" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="650" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B650" s="22"/>
       <c r="D650" s="18"/>
       <c r="F650" s="8">
@@ -41289,7 +41283,7 @@
       <c r="Z650" s="8"/>
       <c r="AA650" s="21"/>
     </row>
-    <row r="651" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="651" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B651" s="16"/>
       <c r="C651" s="24"/>
       <c r="D651" s="18"/>
@@ -41317,15 +41311,15 @@
       <c r="Z651" s="8"/>
       <c r="AA651" s="21"/>
     </row>
-    <row r="652" spans="1:27" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="652" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A652" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B652" s="25" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C652" s="17" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D652" s="18">
         <v>6468</v>
@@ -41364,7 +41358,7 @@
       <c r="Z652" s="20"/>
       <c r="AA652" s="21"/>
     </row>
-    <row r="653" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="653" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B653" s="22"/>
       <c r="C653" s="24"/>
       <c r="D653" s="18"/>
@@ -41399,7 +41393,7 @@
       <c r="Z653" s="8"/>
       <c r="AA653" s="21"/>
     </row>
-    <row r="654" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="654" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B654" s="22"/>
       <c r="D654" s="18"/>
       <c r="F654" s="8">
@@ -41433,7 +41427,7 @@
       <c r="Z654" s="8"/>
       <c r="AA654" s="21"/>
     </row>
-    <row r="655" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="655" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B655" s="16"/>
       <c r="C655" s="24"/>
       <c r="D655" s="18"/>
@@ -41461,15 +41455,15 @@
       <c r="Z655" s="8"/>
       <c r="AA655" s="21"/>
     </row>
-    <row r="656" spans="1:27" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="656" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A656" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B656" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C656" s="18" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D656" s="18">
         <v>619</v>
@@ -41508,7 +41502,7 @@
       <c r="Z656" s="20"/>
       <c r="AA656" s="21"/>
     </row>
-    <row r="657" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="657" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D657" s="18"/>
       <c r="F657" s="8">
         <v>141</v>
@@ -41541,7 +41535,7 @@
       <c r="Z657" s="8"/>
       <c r="AA657" s="21"/>
     </row>
-    <row r="658" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="658" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C658" s="24"/>
       <c r="D658" s="18"/>
       <c r="F658" s="8">
@@ -41575,7 +41569,7 @@
       <c r="Z658" s="8"/>
       <c r="AA658" s="21"/>
     </row>
-    <row r="659" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="659" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F659" s="8"/>
       <c r="G659" s="21"/>
       <c r="H659" s="8"/>
@@ -41599,15 +41593,15 @@
       <c r="Z659" s="8"/>
       <c r="AA659" s="21"/>
     </row>
-    <row r="660" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="660" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A660" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B660" s="25" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C660" s="17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D660" s="18">
         <v>2344</v>
@@ -41646,7 +41640,7 @@
       <c r="Z660" s="20"/>
       <c r="AA660" s="21"/>
     </row>
-    <row r="661" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="661" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B661" s="22"/>
       <c r="C661" s="24"/>
       <c r="D661" s="18"/>
@@ -41681,7 +41675,7 @@
       <c r="Z661" s="8"/>
       <c r="AA661" s="21"/>
     </row>
-    <row r="662" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="662" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B662" s="22"/>
       <c r="D662" s="18"/>
       <c r="F662" s="8">
@@ -41715,7 +41709,7 @@
       <c r="Z662" s="8"/>
       <c r="AA662" s="21"/>
     </row>
-    <row r="663" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="663" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B663" s="16"/>
       <c r="C663" s="24"/>
       <c r="D663" s="18"/>
@@ -41743,15 +41737,15 @@
       <c r="Z663" s="8"/>
       <c r="AA663" s="21"/>
     </row>
-    <row r="664" spans="1:27" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="664" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A664" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B664" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C664" s="18" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D664" s="18">
         <v>1221</v>
@@ -41790,7 +41784,7 @@
       <c r="Z664" s="20"/>
       <c r="AA664" s="21"/>
     </row>
-    <row r="665" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="665" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B665" s="22"/>
       <c r="C665" s="24"/>
       <c r="D665" s="18"/>
@@ -41825,7 +41819,7 @@
       <c r="Z665" s="8"/>
       <c r="AA665" s="21"/>
     </row>
-    <row r="666" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="666" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B666" s="22"/>
       <c r="D666" s="18"/>
       <c r="F666" s="8">
@@ -41859,7 +41853,7 @@
       <c r="Z666" s="8"/>
       <c r="AA666" s="21"/>
     </row>
-    <row r="667" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="667" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B667" s="16"/>
       <c r="C667" s="24"/>
       <c r="D667" s="18"/>
@@ -41887,15 +41881,15 @@
       <c r="Z667" s="8"/>
       <c r="AA667" s="21"/>
     </row>
-    <row r="668" spans="1:27" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="668" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A668" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B668" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C668" s="17" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D668" s="18">
         <v>211</v>
@@ -41934,7 +41928,7 @@
       <c r="Z668" s="20"/>
       <c r="AA668" s="21"/>
     </row>
-    <row r="669" spans="1:27" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="669" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B669" s="23"/>
       <c r="D669" s="18"/>
       <c r="F669" s="8">
@@ -41968,7 +41962,7 @@
       <c r="Z669" s="8"/>
       <c r="AA669" s="21"/>
     </row>
-    <row r="670" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="670" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B670" s="23"/>
       <c r="C670" s="24"/>
       <c r="D670" s="18"/>
@@ -42003,7 +41997,7 @@
       <c r="Z670" s="8"/>
       <c r="AA670" s="21"/>
     </row>
-    <row r="671" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="671" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B671" s="23"/>
       <c r="C671" s="24"/>
       <c r="D671" s="18"/>
@@ -42030,15 +42024,15 @@
       <c r="Z671" s="8"/>
       <c r="AA671" s="21"/>
     </row>
-    <row r="672" spans="1:27" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="672" spans="1:27" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A672" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B672" s="25" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C672" s="17" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D672" s="18">
         <v>3223</v>
@@ -42077,7 +42071,7 @@
       <c r="Z672" s="20"/>
       <c r="AA672" s="21"/>
     </row>
-    <row r="673" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="673" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B673" s="22"/>
       <c r="C673" s="24"/>
       <c r="D673" s="18"/>
@@ -42112,7 +42106,7 @@
       <c r="Z673" s="8"/>
       <c r="AA673" s="21"/>
     </row>
-    <row r="674" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="674" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B674" s="22"/>
       <c r="D674" s="18"/>
       <c r="F674" s="8">
@@ -42146,7 +42140,7 @@
       <c r="Z674" s="8"/>
       <c r="AA674" s="21"/>
     </row>
-    <row r="675" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="675" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B675" s="16"/>
       <c r="C675" s="24"/>
       <c r="D675" s="18"/>
@@ -42174,15 +42168,15 @@
       <c r="Z675" s="8"/>
       <c r="AA675" s="21"/>
     </row>
-    <row r="676" spans="1:27" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="676" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A676" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B676" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C676" s="18" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D676" s="18">
         <v>614</v>
@@ -42221,7 +42215,7 @@
       <c r="Z676" s="20"/>
       <c r="AA676" s="21"/>
     </row>
-    <row r="677" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="677" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B677" s="23"/>
       <c r="D677" s="18"/>
       <c r="F677" s="8">
@@ -42255,7 +42249,7 @@
       <c r="Z677" s="8"/>
       <c r="AA677" s="21"/>
     </row>
-    <row r="678" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="678" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B678" s="23"/>
       <c r="D678" s="18"/>
       <c r="F678" s="8">
@@ -42289,7 +42283,7 @@
       <c r="Z678" s="8"/>
       <c r="AA678" s="21"/>
     </row>
-    <row r="679" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="679" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B679" s="23"/>
       <c r="C679" s="24"/>
       <c r="D679" s="18"/>
@@ -42316,15 +42310,15 @@
       <c r="Z679" s="8"/>
       <c r="AA679" s="21"/>
     </row>
-    <row r="680" spans="1:27" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="680" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A680" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B680" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C680" s="18" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D680" s="18">
         <v>1202</v>
@@ -42363,7 +42357,7 @@
       <c r="Z680" s="20"/>
       <c r="AA680" s="21"/>
     </row>
-    <row r="681" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="681" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B681" s="22"/>
       <c r="C681" s="24"/>
       <c r="D681" s="18"/>
@@ -42398,7 +42392,7 @@
       <c r="Z681" s="8"/>
       <c r="AA681" s="21"/>
     </row>
-    <row r="682" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="682" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B682" s="22"/>
       <c r="D682" s="18"/>
       <c r="F682" s="8">
@@ -42432,7 +42426,7 @@
       <c r="Z682" s="8"/>
       <c r="AA682" s="21"/>
     </row>
-    <row r="683" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="683" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B683" s="23"/>
       <c r="D683" s="18"/>
       <c r="F683" s="8"/>
@@ -42458,15 +42452,15 @@
       <c r="Z683" s="8"/>
       <c r="AA683" s="21"/>
     </row>
-    <row r="684" spans="1:27" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="684" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A684" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B684" s="25" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C684" s="17" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D684" s="18">
         <v>7395</v>
@@ -42501,7 +42495,7 @@
       <c r="Z684" s="20"/>
       <c r="AA684" s="21"/>
     </row>
-    <row r="685" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="685" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B685" s="22"/>
       <c r="C685" s="24"/>
       <c r="D685" s="18"/>
@@ -42532,7 +42526,7 @@
       <c r="Z685" s="8"/>
       <c r="AA685" s="21"/>
     </row>
-    <row r="686" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="686" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B686" s="22"/>
       <c r="D686" s="18"/>
       <c r="F686" s="8">
@@ -42562,7 +42556,7 @@
       <c r="Z686" s="8"/>
       <c r="AA686" s="21"/>
     </row>
-    <row r="687" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="687" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B687" s="16"/>
       <c r="C687" s="24"/>
       <c r="D687" s="18"/>
@@ -42590,15 +42584,15 @@
       <c r="Z687" s="8"/>
       <c r="AA687" s="21"/>
     </row>
-    <row r="688" spans="1:27" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="688" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A688" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B688" s="25" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C688" s="17" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D688" s="18">
         <v>6163</v>
@@ -42633,7 +42627,7 @@
       <c r="Z688" s="20"/>
       <c r="AA688" s="21"/>
     </row>
-    <row r="689" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="689" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B689" s="22"/>
       <c r="C689" s="24"/>
       <c r="D689" s="18"/>
@@ -42664,7 +42658,7 @@
       <c r="Z689" s="8"/>
       <c r="AA689" s="21"/>
     </row>
-    <row r="690" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="690" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B690" s="22"/>
       <c r="D690" s="18"/>
       <c r="F690" s="8">
@@ -42694,7 +42688,7 @@
       <c r="Z690" s="8"/>
       <c r="AA690" s="21"/>
     </row>
-    <row r="691" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="691" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B691" s="16"/>
       <c r="C691" s="24"/>
       <c r="D691" s="18"/>
@@ -42722,15 +42716,15 @@
       <c r="Z691" s="8"/>
       <c r="AA691" s="21"/>
     </row>
-    <row r="692" spans="1:27" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="692" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A692" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B692" s="25" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C692" s="17" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D692" s="18">
         <v>3239</v>
@@ -42765,7 +42759,7 @@
       <c r="Z692" s="20"/>
       <c r="AA692" s="21"/>
     </row>
-    <row r="693" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="693" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B693" s="22"/>
       <c r="C693" s="24"/>
       <c r="D693" s="18"/>
@@ -42796,7 +42790,7 @@
       <c r="Z693" s="8"/>
       <c r="AA693" s="21"/>
     </row>
-    <row r="694" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="694" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B694" s="22"/>
       <c r="D694" s="18"/>
       <c r="F694" s="8">
@@ -42826,7 +42820,7 @@
       <c r="Z694" s="8"/>
       <c r="AA694" s="21"/>
     </row>
-    <row r="695" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="695" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B695" s="16"/>
       <c r="C695" s="24"/>
       <c r="D695" s="18"/>
@@ -42854,15 +42848,15 @@
       <c r="Z695" s="8"/>
       <c r="AA695" s="21"/>
     </row>
-    <row r="696" spans="1:27" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="696" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A696" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B696" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C696" s="18" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D696" s="18">
         <v>1234</v>
@@ -42897,7 +42891,7 @@
       <c r="Z696" s="20"/>
       <c r="AA696" s="21"/>
     </row>
-    <row r="697" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="697" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B697" s="23"/>
       <c r="D697" s="18"/>
       <c r="F697" s="8">
@@ -42927,7 +42921,7 @@
       <c r="Z697" s="8"/>
       <c r="AA697" s="21"/>
     </row>
-    <row r="698" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="698" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B698" s="23"/>
       <c r="C698" s="24"/>
       <c r="D698" s="18"/>
@@ -42958,7 +42952,7 @@
       <c r="Z698" s="8"/>
       <c r="AA698" s="21"/>
     </row>
-    <row r="699" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="699" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B699" s="23"/>
       <c r="C699" s="24"/>
       <c r="D699" s="18"/>
@@ -42985,15 +42979,15 @@
       <c r="Z699" s="8"/>
       <c r="AA699" s="21"/>
     </row>
-    <row r="700" spans="1:27" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="700" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A700" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B700" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C700" s="17" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D700" s="18">
         <v>5</v>
@@ -43028,7 +43022,7 @@
       <c r="Z700" s="20"/>
       <c r="AA700" s="21"/>
     </row>
-    <row r="701" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="701" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B701" s="23"/>
       <c r="D701" s="18"/>
       <c r="F701" s="8">
@@ -43058,7 +43052,7 @@
       <c r="Z701" s="8"/>
       <c r="AA701" s="21"/>
     </row>
-    <row r="702" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="702" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B702" s="23"/>
       <c r="D702" s="18"/>
       <c r="F702" s="8">
@@ -43088,7 +43082,7 @@
       <c r="Z702" s="8"/>
       <c r="AA702" s="21"/>
     </row>
-    <row r="703" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="703" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B703" s="23"/>
       <c r="C703" s="24"/>
       <c r="D703" s="18"/>
@@ -43115,15 +43109,15 @@
       <c r="Z703" s="8"/>
       <c r="AA703" s="21"/>
     </row>
-    <row r="704" spans="1:27" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="704" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A704" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B704" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C704" s="17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D704" s="18">
         <v>111</v>
@@ -43158,7 +43152,7 @@
       <c r="Z704" s="20"/>
       <c r="AA704" s="21"/>
     </row>
-    <row r="705" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="705" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B705" s="22"/>
       <c r="D705" s="18"/>
       <c r="F705" s="8">
@@ -43188,7 +43182,7 @@
       <c r="Z705" s="8"/>
       <c r="AA705" s="21"/>
     </row>
-    <row r="706" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="706" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B706" s="23"/>
       <c r="D706" s="18"/>
       <c r="F706" s="8">
@@ -43218,7 +43212,7 @@
       <c r="Z706" s="8"/>
       <c r="AA706" s="21"/>
     </row>
-    <row r="707" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="707" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B707" s="22"/>
       <c r="D707" s="18"/>
       <c r="F707" s="8"/>
@@ -43244,15 +43238,15 @@
       <c r="Z707" s="8"/>
       <c r="AA707" s="21"/>
     </row>
-    <row r="708" spans="1:27" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="708" spans="1:27" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A708" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B708" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C708" s="18" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D708" s="18">
         <v>1026</v>
@@ -43285,7 +43279,7 @@
       <c r="Z708" s="20"/>
       <c r="AA708" s="21"/>
     </row>
-    <row r="709" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="709" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D709" s="18"/>
       <c r="F709" s="8"/>
       <c r="G709" s="21"/>
@@ -43310,7 +43304,7 @@
       <c r="Z709" s="8"/>
       <c r="AA709" s="21"/>
     </row>
-    <row r="710" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="710" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C710" s="24"/>
       <c r="D710" s="18"/>
       <c r="F710" s="8"/>
@@ -43336,7 +43330,7 @@
       <c r="Z710" s="8"/>
       <c r="AA710" s="21"/>
     </row>
-    <row r="711" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="711" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F711" s="8"/>
       <c r="G711" s="21"/>
       <c r="H711" s="8"/>
@@ -43360,7 +43354,7 @@
       <c r="Z711" s="8"/>
       <c r="AA711" s="21"/>
     </row>
-    <row r="712" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="712" spans="1:27" x14ac:dyDescent="0.25">
       <c r="F712" s="20"/>
       <c r="H712" s="20"/>
       <c r="J712" s="20"/>
@@ -43373,7 +43367,7 @@
       <c r="X712" s="20"/>
       <c r="Z712" s="20"/>
     </row>
-    <row r="713" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="713" spans="1:27" x14ac:dyDescent="0.25">
       <c r="F713" s="8"/>
       <c r="H713" s="8"/>
       <c r="J713" s="8"/>
@@ -43386,7 +43380,7 @@
       <c r="X713" s="8"/>
       <c r="Z713" s="8"/>
     </row>
-    <row r="714" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="714" spans="1:27" x14ac:dyDescent="0.25">
       <c r="F714" s="8"/>
       <c r="H714" s="8"/>
       <c r="J714" s="8"/>
@@ -43399,7 +43393,7 @@
       <c r="X714" s="8"/>
       <c r="Z714" s="8"/>
     </row>
-    <row r="715" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="715" spans="1:27" x14ac:dyDescent="0.25">
       <c r="F715" s="8"/>
       <c r="H715" s="8"/>
       <c r="J715" s="8"/>
@@ -43412,7 +43406,7 @@
       <c r="X715" s="8"/>
       <c r="Z715" s="8"/>
     </row>
-    <row r="716" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="716" spans="1:27" x14ac:dyDescent="0.25">
       <c r="F716" s="20"/>
       <c r="H716" s="20"/>
       <c r="J716" s="20"/>
@@ -43425,7 +43419,7 @@
       <c r="X716" s="20"/>
       <c r="Z716" s="20"/>
     </row>
-    <row r="717" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="717" spans="1:27" x14ac:dyDescent="0.25">
       <c r="F717" s="8"/>
       <c r="H717" s="8"/>
       <c r="J717" s="8"/>
@@ -43438,7 +43432,7 @@
       <c r="X717" s="8"/>
       <c r="Z717" s="8"/>
     </row>
-    <row r="718" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="718" spans="1:27" x14ac:dyDescent="0.25">
       <c r="F718" s="8"/>
       <c r="H718" s="8"/>
       <c r="J718" s="8"/>
@@ -43451,7 +43445,7 @@
       <c r="X718" s="8"/>
       <c r="Z718" s="8"/>
     </row>
-    <row r="719" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="719" spans="1:27" x14ac:dyDescent="0.25">
       <c r="F719" s="8"/>
       <c r="H719" s="8"/>
       <c r="J719" s="8"/>
@@ -43464,7 +43458,7 @@
       <c r="X719" s="8"/>
       <c r="Z719" s="8"/>
     </row>
-    <row r="720" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="720" spans="1:27" x14ac:dyDescent="0.25">
       <c r="F720" s="20"/>
       <c r="H720" s="20"/>
       <c r="J720" s="20"/>
@@ -43477,7 +43471,7 @@
       <c r="X720" s="20"/>
       <c r="Z720" s="20"/>
     </row>
-    <row r="721" spans="6:26" x14ac:dyDescent="0.6">
+    <row r="721" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F721" s="8"/>
       <c r="H721" s="8"/>
       <c r="J721" s="8"/>
@@ -43490,7 +43484,7 @@
       <c r="X721" s="8"/>
       <c r="Z721" s="8"/>
     </row>
-    <row r="722" spans="6:26" x14ac:dyDescent="0.6">
+    <row r="722" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F722" s="8"/>
       <c r="H722" s="8"/>
       <c r="J722" s="8"/>
@@ -43503,7 +43497,7 @@
       <c r="X722" s="8"/>
       <c r="Z722" s="8"/>
     </row>
-    <row r="723" spans="6:26" x14ac:dyDescent="0.6">
+    <row r="723" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F723" s="8"/>
       <c r="H723" s="8"/>
       <c r="J723" s="8"/>
@@ -43516,7 +43510,7 @@
       <c r="X723" s="8"/>
       <c r="Z723" s="8"/>
     </row>
-    <row r="724" spans="6:26" x14ac:dyDescent="0.6">
+    <row r="724" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F724" s="20"/>
       <c r="H724" s="20"/>
       <c r="J724" s="20"/>
@@ -43529,7 +43523,7 @@
       <c r="X724" s="20"/>
       <c r="Z724" s="20"/>
     </row>
-    <row r="725" spans="6:26" x14ac:dyDescent="0.6">
+    <row r="725" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F725" s="8"/>
       <c r="H725" s="8"/>
       <c r="J725" s="8"/>
@@ -43542,7 +43536,7 @@
       <c r="X725" s="8"/>
       <c r="Z725" s="8"/>
     </row>
-    <row r="726" spans="6:26" x14ac:dyDescent="0.6">
+    <row r="726" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F726" s="8"/>
       <c r="H726" s="8"/>
       <c r="J726" s="8"/>
@@ -43555,7 +43549,7 @@
       <c r="X726" s="8"/>
       <c r="Z726" s="8"/>
     </row>
-    <row r="727" spans="6:26" x14ac:dyDescent="0.6">
+    <row r="727" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F727" s="8"/>
       <c r="H727" s="8"/>
       <c r="J727" s="8"/>
@@ -43568,7 +43562,7 @@
       <c r="X727" s="8"/>
       <c r="Z727" s="8"/>
     </row>
-    <row r="728" spans="6:26" x14ac:dyDescent="0.6">
+    <row r="728" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F728" s="20"/>
       <c r="H728" s="20"/>
       <c r="J728" s="20"/>
@@ -43581,7 +43575,7 @@
       <c r="X728" s="20"/>
       <c r="Z728" s="20"/>
     </row>
-    <row r="729" spans="6:26" x14ac:dyDescent="0.6">
+    <row r="729" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F729" s="8"/>
       <c r="H729" s="8"/>
       <c r="J729" s="8"/>
@@ -43594,7 +43588,7 @@
       <c r="X729" s="8"/>
       <c r="Z729" s="8"/>
     </row>
-    <row r="730" spans="6:26" x14ac:dyDescent="0.6">
+    <row r="730" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F730" s="8"/>
       <c r="H730" s="8"/>
       <c r="J730" s="8"/>
@@ -43607,7 +43601,7 @@
       <c r="X730" s="8"/>
       <c r="Z730" s="8"/>
     </row>
-    <row r="731" spans="6:26" x14ac:dyDescent="0.6">
+    <row r="731" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F731" s="8"/>
       <c r="H731" s="8"/>
       <c r="J731" s="8"/>
@@ -43620,7 +43614,7 @@
       <c r="X731" s="8"/>
       <c r="Z731" s="8"/>
     </row>
-    <row r="732" spans="6:26" x14ac:dyDescent="0.6">
+    <row r="732" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F732" s="20"/>
       <c r="H732" s="20"/>
       <c r="J732" s="20"/>
@@ -43633,7 +43627,7 @@
       <c r="X732" s="20"/>
       <c r="Z732" s="20"/>
     </row>
-    <row r="733" spans="6:26" x14ac:dyDescent="0.6">
+    <row r="733" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F733" s="8"/>
       <c r="H733" s="8"/>
       <c r="J733" s="8"/>
@@ -43646,7 +43640,7 @@
       <c r="X733" s="8"/>
       <c r="Z733" s="8"/>
     </row>
-    <row r="734" spans="6:26" x14ac:dyDescent="0.6">
+    <row r="734" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F734" s="8"/>
       <c r="H734" s="8"/>
       <c r="J734" s="8"/>
@@ -43659,7 +43653,7 @@
       <c r="X734" s="8"/>
       <c r="Z734" s="8"/>
     </row>
-    <row r="735" spans="6:26" x14ac:dyDescent="0.6">
+    <row r="735" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F735" s="8"/>
       <c r="H735" s="8"/>
       <c r="J735" s="8"/>
@@ -43672,7 +43666,7 @@
       <c r="X735" s="8"/>
       <c r="Z735" s="8"/>
     </row>
-    <row r="736" spans="6:26" x14ac:dyDescent="0.6">
+    <row r="736" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F736" s="20"/>
       <c r="H736" s="20"/>
       <c r="J736" s="20"/>
@@ -43685,7 +43679,7 @@
       <c r="X736" s="20"/>
       <c r="Z736" s="20"/>
     </row>
-    <row r="737" spans="6:26" x14ac:dyDescent="0.6">
+    <row r="737" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F737" s="8"/>
       <c r="H737" s="8"/>
       <c r="J737" s="8"/>
@@ -43698,7 +43692,7 @@
       <c r="X737" s="8"/>
       <c r="Z737" s="8"/>
     </row>
-    <row r="738" spans="6:26" x14ac:dyDescent="0.6">
+    <row r="738" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F738" s="8"/>
       <c r="H738" s="8"/>
       <c r="J738" s="8"/>
@@ -43711,7 +43705,7 @@
       <c r="X738" s="8"/>
       <c r="Z738" s="8"/>
     </row>
-    <row r="739" spans="6:26" x14ac:dyDescent="0.6">
+    <row r="739" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F739" s="8"/>
       <c r="H739" s="8"/>
       <c r="J739" s="8"/>
@@ -43724,7 +43718,7 @@
       <c r="X739" s="8"/>
       <c r="Z739" s="8"/>
     </row>
-    <row r="740" spans="6:26" x14ac:dyDescent="0.6">
+    <row r="740" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F740" s="20"/>
       <c r="H740" s="20"/>
       <c r="J740" s="20"/>
@@ -43737,7 +43731,7 @@
       <c r="X740" s="20"/>
       <c r="Z740" s="20"/>
     </row>
-    <row r="741" spans="6:26" x14ac:dyDescent="0.6">
+    <row r="741" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F741" s="8"/>
       <c r="H741" s="8"/>
       <c r="J741" s="8"/>
@@ -43750,7 +43744,7 @@
       <c r="X741" s="8"/>
       <c r="Z741" s="8"/>
     </row>
-    <row r="742" spans="6:26" x14ac:dyDescent="0.6">
+    <row r="742" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F742" s="8"/>
       <c r="H742" s="8"/>
       <c r="J742" s="8"/>
@@ -43763,7 +43757,7 @@
       <c r="X742" s="8"/>
       <c r="Z742" s="8"/>
     </row>
-    <row r="743" spans="6:26" x14ac:dyDescent="0.6">
+    <row r="743" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F743" s="8"/>
       <c r="H743" s="8"/>
       <c r="J743" s="8"/>
@@ -43776,7 +43770,7 @@
       <c r="X743" s="8"/>
       <c r="Z743" s="8"/>
     </row>
-    <row r="744" spans="6:26" x14ac:dyDescent="0.6">
+    <row r="744" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F744" s="20"/>
       <c r="H744" s="20"/>
       <c r="J744" s="20"/>
@@ -43789,7 +43783,7 @@
       <c r="X744" s="20"/>
       <c r="Z744" s="20"/>
     </row>
-    <row r="745" spans="6:26" x14ac:dyDescent="0.6">
+    <row r="745" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F745" s="8"/>
       <c r="H745" s="8"/>
       <c r="J745" s="8"/>
@@ -43802,7 +43796,7 @@
       <c r="X745" s="8"/>
       <c r="Z745" s="8"/>
     </row>
-    <row r="746" spans="6:26" x14ac:dyDescent="0.6">
+    <row r="746" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F746" s="8"/>
       <c r="H746" s="8"/>
       <c r="J746" s="8"/>
@@ -43815,7 +43809,7 @@
       <c r="X746" s="8"/>
       <c r="Z746" s="8"/>
     </row>
-    <row r="747" spans="6:26" x14ac:dyDescent="0.6">
+    <row r="747" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F747" s="8"/>
       <c r="H747" s="8"/>
       <c r="J747" s="8"/>
@@ -43828,7 +43822,7 @@
       <c r="X747" s="8"/>
       <c r="Z747" s="8"/>
     </row>
-    <row r="748" spans="6:26" x14ac:dyDescent="0.6">
+    <row r="748" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F748" s="20"/>
       <c r="H748" s="20"/>
       <c r="J748" s="20"/>
@@ -43841,7 +43835,7 @@
       <c r="X748" s="20"/>
       <c r="Z748" s="20"/>
     </row>
-    <row r="749" spans="6:26" x14ac:dyDescent="0.6">
+    <row r="749" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F749" s="8"/>
       <c r="H749" s="8"/>
       <c r="J749" s="8"/>
@@ -43854,7 +43848,7 @@
       <c r="X749" s="8"/>
       <c r="Z749" s="8"/>
     </row>
-    <row r="750" spans="6:26" x14ac:dyDescent="0.6">
+    <row r="750" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F750" s="8"/>
       <c r="H750" s="8"/>
       <c r="J750" s="8"/>
@@ -43867,7 +43861,7 @@
       <c r="X750" s="8"/>
       <c r="Z750" s="8"/>
     </row>
-    <row r="751" spans="6:26" x14ac:dyDescent="0.6">
+    <row r="751" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F751" s="8"/>
       <c r="H751" s="8"/>
       <c r="J751" s="8"/>
@@ -43880,7 +43874,7 @@
       <c r="X751" s="8"/>
       <c r="Z751" s="8"/>
     </row>
-    <row r="752" spans="6:26" x14ac:dyDescent="0.6">
+    <row r="752" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F752" s="20"/>
       <c r="H752" s="20"/>
       <c r="J752" s="20"/>
@@ -43893,7 +43887,7 @@
       <c r="X752" s="20"/>
       <c r="Z752" s="20"/>
     </row>
-    <row r="753" spans="6:26" x14ac:dyDescent="0.6">
+    <row r="753" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F753" s="8"/>
       <c r="H753" s="8"/>
       <c r="J753" s="8"/>
@@ -43906,7 +43900,7 @@
       <c r="X753" s="8"/>
       <c r="Z753" s="8"/>
     </row>
-    <row r="754" spans="6:26" x14ac:dyDescent="0.6">
+    <row r="754" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F754" s="8"/>
       <c r="H754" s="8"/>
       <c r="J754" s="8"/>
@@ -43919,7 +43913,7 @@
       <c r="X754" s="8"/>
       <c r="Z754" s="8"/>
     </row>
-    <row r="755" spans="6:26" x14ac:dyDescent="0.6">
+    <row r="755" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F755" s="8"/>
       <c r="H755" s="8"/>
       <c r="J755" s="8"/>
@@ -43932,7 +43926,7 @@
       <c r="X755" s="8"/>
       <c r="Z755" s="8"/>
     </row>
-    <row r="756" spans="6:26" x14ac:dyDescent="0.6">
+    <row r="756" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F756" s="20"/>
       <c r="H756" s="20"/>
       <c r="J756" s="20"/>
@@ -43945,7 +43939,7 @@
       <c r="X756" s="20"/>
       <c r="Z756" s="20"/>
     </row>
-    <row r="757" spans="6:26" x14ac:dyDescent="0.6">
+    <row r="757" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F757" s="8"/>
       <c r="H757" s="8"/>
       <c r="J757" s="8"/>
@@ -43958,7 +43952,7 @@
       <c r="X757" s="8"/>
       <c r="Z757" s="8"/>
     </row>
-    <row r="758" spans="6:26" x14ac:dyDescent="0.6">
+    <row r="758" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F758" s="8"/>
       <c r="H758" s="8"/>
       <c r="J758" s="8"/>
@@ -43971,7 +43965,7 @@
       <c r="X758" s="8"/>
       <c r="Z758" s="8"/>
     </row>
-    <row r="759" spans="6:26" x14ac:dyDescent="0.6">
+    <row r="759" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F759" s="8"/>
       <c r="H759" s="8"/>
       <c r="J759" s="8"/>
@@ -43984,7 +43978,7 @@
       <c r="X759" s="8"/>
       <c r="Z759" s="8"/>
     </row>
-    <row r="760" spans="6:26" x14ac:dyDescent="0.6">
+    <row r="760" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F760" s="20"/>
       <c r="H760" s="20"/>
       <c r="J760" s="20"/>
@@ -43997,7 +43991,7 @@
       <c r="X760" s="20"/>
       <c r="Z760" s="20"/>
     </row>
-    <row r="761" spans="6:26" x14ac:dyDescent="0.6">
+    <row r="761" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F761" s="8"/>
       <c r="H761" s="8"/>
       <c r="J761" s="8"/>
@@ -44010,7 +44004,7 @@
       <c r="X761" s="8"/>
       <c r="Z761" s="8"/>
     </row>
-    <row r="762" spans="6:26" x14ac:dyDescent="0.6">
+    <row r="762" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F762" s="8"/>
       <c r="H762" s="8"/>
       <c r="J762" s="8"/>
@@ -44023,7 +44017,7 @@
       <c r="X762" s="8"/>
       <c r="Z762" s="8"/>
     </row>
-    <row r="763" spans="6:26" x14ac:dyDescent="0.6">
+    <row r="763" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F763" s="8"/>
       <c r="H763" s="8"/>
       <c r="J763" s="8"/>
@@ -44036,7 +44030,7 @@
       <c r="X763" s="8"/>
       <c r="Z763" s="8"/>
     </row>
-    <row r="764" spans="6:26" x14ac:dyDescent="0.6">
+    <row r="764" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F764" s="20"/>
       <c r="H764" s="20"/>
       <c r="J764" s="20"/>
@@ -44049,7 +44043,7 @@
       <c r="X764" s="20"/>
       <c r="Z764" s="20"/>
     </row>
-    <row r="765" spans="6:26" x14ac:dyDescent="0.6">
+    <row r="765" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F765" s="8"/>
       <c r="H765" s="8"/>
       <c r="J765" s="8"/>
@@ -44062,7 +44056,7 @@
       <c r="X765" s="8"/>
       <c r="Z765" s="8"/>
     </row>
-    <row r="766" spans="6:26" x14ac:dyDescent="0.6">
+    <row r="766" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F766" s="8"/>
       <c r="H766" s="8"/>
       <c r="J766" s="8"/>
@@ -44075,7 +44069,7 @@
       <c r="X766" s="8"/>
       <c r="Z766" s="8"/>
     </row>
-    <row r="767" spans="6:26" x14ac:dyDescent="0.6">
+    <row r="767" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F767" s="8"/>
       <c r="H767" s="8"/>
       <c r="J767" s="8"/>
@@ -44088,7 +44082,7 @@
       <c r="X767" s="8"/>
       <c r="Z767" s="8"/>
     </row>
-    <row r="768" spans="6:26" x14ac:dyDescent="0.6">
+    <row r="768" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F768" s="20"/>
       <c r="H768" s="20"/>
       <c r="J768" s="20"/>
@@ -44101,7 +44095,7 @@
       <c r="X768" s="20"/>
       <c r="Z768" s="20"/>
     </row>
-    <row r="769" spans="6:26" x14ac:dyDescent="0.6">
+    <row r="769" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F769" s="8"/>
       <c r="H769" s="8"/>
       <c r="J769" s="8"/>
@@ -44114,7 +44108,7 @@
       <c r="X769" s="8"/>
       <c r="Z769" s="8"/>
     </row>
-    <row r="770" spans="6:26" x14ac:dyDescent="0.6">
+    <row r="770" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F770" s="8"/>
       <c r="H770" s="8"/>
       <c r="J770" s="8"/>
@@ -44127,7 +44121,7 @@
       <c r="X770" s="8"/>
       <c r="Z770" s="8"/>
     </row>
-    <row r="771" spans="6:26" x14ac:dyDescent="0.6">
+    <row r="771" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F771" s="8"/>
       <c r="H771" s="8"/>
       <c r="J771" s="8"/>
@@ -44140,7 +44134,7 @@
       <c r="X771" s="8"/>
       <c r="Z771" s="8"/>
     </row>
-    <row r="772" spans="6:26" x14ac:dyDescent="0.6">
+    <row r="772" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F772" s="20"/>
       <c r="H772" s="20"/>
       <c r="J772" s="20"/>
@@ -44153,7 +44147,7 @@
       <c r="X772" s="20"/>
       <c r="Z772" s="20"/>
     </row>
-    <row r="773" spans="6:26" x14ac:dyDescent="0.6">
+    <row r="773" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F773" s="8"/>
       <c r="H773" s="8"/>
       <c r="J773" s="8"/>
@@ -44166,7 +44160,7 @@
       <c r="X773" s="8"/>
       <c r="Z773" s="8"/>
     </row>
-    <row r="774" spans="6:26" x14ac:dyDescent="0.6">
+    <row r="774" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F774" s="8"/>
       <c r="H774" s="8"/>
       <c r="J774" s="8"/>
@@ -44179,7 +44173,7 @@
       <c r="X774" s="8"/>
       <c r="Z774" s="8"/>
     </row>
-    <row r="775" spans="6:26" x14ac:dyDescent="0.6">
+    <row r="775" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F775" s="8"/>
       <c r="H775" s="8"/>
       <c r="J775" s="8"/>
@@ -44192,7 +44186,7 @@
       <c r="X775" s="8"/>
       <c r="Z775" s="8"/>
     </row>
-    <row r="776" spans="6:26" x14ac:dyDescent="0.6">
+    <row r="776" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F776" s="20"/>
       <c r="H776" s="20"/>
       <c r="J776" s="20"/>
@@ -44205,7 +44199,7 @@
       <c r="X776" s="20"/>
       <c r="Z776" s="20"/>
     </row>
-    <row r="777" spans="6:26" x14ac:dyDescent="0.6">
+    <row r="777" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F777" s="8"/>
       <c r="H777" s="8"/>
       <c r="J777" s="8"/>
@@ -44218,7 +44212,7 @@
       <c r="X777" s="8"/>
       <c r="Z777" s="8"/>
     </row>
-    <row r="778" spans="6:26" x14ac:dyDescent="0.6">
+    <row r="778" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F778" s="8"/>
       <c r="H778" s="8"/>
       <c r="J778" s="8"/>
@@ -44231,7 +44225,7 @@
       <c r="X778" s="8"/>
       <c r="Z778" s="8"/>
     </row>
-    <row r="779" spans="6:26" x14ac:dyDescent="0.6">
+    <row r="779" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F779" s="8"/>
       <c r="H779" s="8"/>
       <c r="J779" s="8"/>
@@ -44244,7 +44238,7 @@
       <c r="X779" s="8"/>
       <c r="Z779" s="8"/>
     </row>
-    <row r="780" spans="6:26" x14ac:dyDescent="0.6">
+    <row r="780" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F780" s="20"/>
       <c r="H780" s="20"/>
       <c r="J780" s="20"/>
@@ -44257,7 +44251,7 @@
       <c r="X780" s="20"/>
       <c r="Z780" s="20"/>
     </row>
-    <row r="781" spans="6:26" x14ac:dyDescent="0.6">
+    <row r="781" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F781" s="8"/>
       <c r="H781" s="8"/>
       <c r="J781" s="8"/>
@@ -44270,7 +44264,7 @@
       <c r="X781" s="8"/>
       <c r="Z781" s="8"/>
     </row>
-    <row r="782" spans="6:26" x14ac:dyDescent="0.6">
+    <row r="782" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F782" s="8"/>
       <c r="H782" s="8"/>
       <c r="J782" s="8"/>
@@ -44283,7 +44277,7 @@
       <c r="X782" s="8"/>
       <c r="Z782" s="8"/>
     </row>
-    <row r="783" spans="6:26" x14ac:dyDescent="0.6">
+    <row r="783" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F783" s="8"/>
       <c r="H783" s="8"/>
       <c r="J783" s="8"/>
@@ -44296,7 +44290,7 @@
       <c r="X783" s="8"/>
       <c r="Z783" s="8"/>
     </row>
-    <row r="784" spans="6:26" x14ac:dyDescent="0.6">
+    <row r="784" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F784" s="20"/>
       <c r="H784" s="20"/>
       <c r="J784" s="20"/>
@@ -44309,7 +44303,7 @@
       <c r="X784" s="20"/>
       <c r="Z784" s="20"/>
     </row>
-    <row r="785" spans="6:26" x14ac:dyDescent="0.6">
+    <row r="785" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F785" s="8"/>
       <c r="H785" s="8"/>
       <c r="J785" s="8"/>
@@ -44322,7 +44316,7 @@
       <c r="X785" s="8"/>
       <c r="Z785" s="8"/>
     </row>
-    <row r="786" spans="6:26" x14ac:dyDescent="0.6">
+    <row r="786" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F786" s="8"/>
       <c r="H786" s="8"/>
       <c r="J786" s="8"/>
@@ -44335,7 +44329,7 @@
       <c r="X786" s="8"/>
       <c r="Z786" s="8"/>
     </row>
-    <row r="787" spans="6:26" x14ac:dyDescent="0.6">
+    <row r="787" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F787" s="8"/>
       <c r="H787" s="8"/>
       <c r="J787" s="8"/>
@@ -44363,17 +44357,17 @@
   </protectedRanges>
   <autoFilter ref="B1:B787" xr:uid="{1CA1D60D-E6B0-42CD-91DB-E5D936AD55A8}"/>
   <mergeCells count="11">
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.5" footer="0.5"/>
   <pageSetup paperSize="5" scale="81" fitToHeight="0" orientation="landscape" r:id="rId1"/>
